--- a/medsam-datalist.xlsx
+++ b/medsam-datalist.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jma/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DAB75AA-FF3E-A348-BBB8-0A747B0CD2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B7E13-75FB-B94B-9E36-AA822A42F8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{997E9869-AF67-4741-8BFC-A5227CA6DBCA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{997E9869-AF67-4741-8BFC-A5227CA6DBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$149</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="772">
   <si>
     <t>Year</t>
   </si>
@@ -326,9 +329,6 @@
     <t>INSTANCE22</t>
   </si>
   <si>
-    <t>CT (Non-Contrast Computed Tomography)</t>
-  </si>
-  <si>
     <t>Intracranial Hemorrhage</t>
   </si>
   <si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Lung</t>
-  </si>
-  <si>
-    <t>Lung and tumours</t>
   </si>
   <si>
     <t>NSCLC Radiogenomics</t>
@@ -646,18 +643,6 @@
     <t xml:space="preserve">https://doi.org/10.1002/mp.13141 </t>
   </si>
   <si>
-    <t>@article{yang2018autosegmentation,
-title={Autosegmentation for thoracic radiation treatment planning: a grand challenge at AAPM 2017},
-author={Yang, Jinzhong and Veeraraghavan, Harini and Armato III, Samuel G and Farahani, Keyvan and Kirby, Justin S and Kalpathy-Kramer, Jayashree and van Elmpt, Wouter and Dekker, Andre and Han, Xiao and Feng, Xue and others},
-journal={Medical physics},
-volume={45},
-number={10},
-pages={4568--4581},
-year={2018},
-publisher={Wiley Online Library}
-}</t>
-  </si>
-  <si>
     <t>TotalSegmentator</t>
   </si>
   <si>
@@ -686,13 +671,7 @@
     <t>FDG-PET-CT-Lesions (autoPET)</t>
   </si>
   <si>
-    <t>Head, Neck, Chest, Abdomen, Pelvis</t>
-  </si>
-  <si>
     <t>PET</t>
-  </si>
-  <si>
-    <t>https://www.cancerimagingarchive.net/collection/fdg-pet-ct-lesions/</t>
   </si>
   <si>
     <t>https://www.nature.com/articles/s41597-022-01718-3
@@ -719,9 +698,6 @@
 }</t>
   </si>
   <si>
-    <t>PET-CT</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -729,11 +705,6 @@
   </si>
   <si>
     <t>MR-T1, T1Gd, T2, FLAIR</t>
-  </si>
-  <si>
-    <t>Enhancing tumor
-Peritumoral edematous/invaded tissue
-Necrotic tumor core</t>
   </si>
   <si>
     <t>CC BY-NC</t>
@@ -767,23 +738,6 @@
     </r>
   </si>
   <si>
-    <t>@article{Brats15-TMI,
-title={The multimodal brain tumor image segmentation benchmark (BRATS)},
-author={Menze, Bjoern H and Jakab, Andras and Bauer, Stefan and Kalpathy-Cramer, Jayashree and Farahani, Keyvan and Kirby, Justin and Burren, Yuliya and Porz, Nicole and Slotboom, Johannes and Wiest, Roland and others},
-journal={IEEE Transactions on Medical Imaging},
-volume={34},
-number={10},
-pages={1993--2024},
-year={2014}
-}
-@article{bakas2018brats,
-title={Identifying the best machine learning algorithms for brain tumor segmentation, progression assessment, and overall survival prediction in the BRATS challenge},
-author={Bakas, Spyridon and Reyes, Mauricio and Jakab, Andras and Bauer, Stefan and Rempfler, Markus and Crimi, Alessandro and others},
-journal={arXiv preprint arXiv:1811.02629},
-year={2018}
-}</t>
-  </si>
-  <si>
     <t>TCIA_CervicalCancer</t>
   </si>
   <si>
@@ -842,17 +796,6 @@
     <t>https://ieeexplore.ieee.org/document/8360453</t>
   </si>
   <si>
-    <t>@article{bernard2018deep,
-title={Deep learning techniques for automatic MRI cardiac multi-structures segmentation and diagnosis: is the problem solved?},
-author={Bernard, Olivier and Lalande, Alain and Zotti, Clement and Cervenansky, Frederick and Yang, Xin and Heng, Pheng-Ann and Cetin, Irem and Lekadir, Karim and Camara, Oscar and Ballester, Miguel Angel Gonzalez and others},
-journal={IEEE transactions on medical imaging},
-volume={37},
-number={11},
-pages={2514--2525},
-year={2018}
-}</t>
-  </si>
-  <si>
     <t>HNTSMRG</t>
   </si>
   <si>
@@ -912,16 +855,6 @@
     <t>https://www.sciencedirect.com/science/article/pii/S1361841524003074</t>
   </si>
   <si>
-    <t>@article{PanSegData,
-title = {Large-scale multi-center CT and MRI segmentation of pancreas with deep learning},
-journal = {Medical Image Analysis},
-author = {Zheyuan Zhang and Elif Keles and Gorkem Durak and Yavuz Taktak and Onkar Susladkar and Vandan Gorade and Debesh Jha and Asli C. Ormeci and Alpay Medetalibeyoglu and Lanhong Yao and Bin Wang and Ilkin Sevgi Isler and Linkai Peng and Hongyi Pan and Camila Lopes Vendrami and Amir Bourhani and Yury Velichko and Boqing Gong and Concetto Spampinato and Ayis Pyrros and Pallavi Tiwari and Derk C.F. Klatte and Megan Engels and Sanne Hoogenboom and Candice W. Bolan and Emil Agarunov and Nassier Harfouch and Chenchan Huang and Marco J. Bruno and Ivo Schoots and Rajesh N. Keswani and Frank H. Miller and Tamas Gonda and Cemal Yazici and Temel Tirkes and Baris Turkbey and Michael B. Wallace and Ulas Bagci},
-volume = {99},
-pages = {103382},
-year = {2025},
-}</t>
-  </si>
-  <si>
     <t>MR (T2, ADC)</t>
   </si>
   <si>
@@ -957,21 +890,6 @@
     <t>https://www.sciencedirect.com/science/article/abs/pii/S1361841513001734</t>
   </si>
   <si>
-    <t>@article{litjens2014evaluation,
-title={Evaluation of prostate segmentation algorithms for MRI: the PROMISE12 challenge},
-author={Litjens, Geert and Toth, Robert and Van De Ven, Wendy and Hoeks, Caroline and Kerkstra, Sjoerd and Van Ginneken, Bram and Vincent, Graham and Guillard, Gwenael and Birbeck, Neil and Zhang, Jindang and others},
-journal={Medical image analysis},
-volume={18},
-number={2},
-pages={359--373},
-year={2014},
-publisher={Elsevier}
-}</t>
-  </si>
-  <si>
-    <t>QIN-PROSTATE-Repeatability</t>
-  </si>
-  <si>
     <t>Prostate and lesion</t>
   </si>
   <si>
@@ -979,26 +897,6 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/sdata2018281</t>
-  </si>
-  <si>
-    <t>@article{fedorov2017multiparametric,
-title={Multiparametric magnetic resonance imaging of the prostate: repeatability of volume and apparent diffusion coefficient quantification},
-author={Fedorov, Andriy and Vangel, Mark G and Tempany, Clare M and Fennessy, Fiona M},
-journal={Investigative Radiology},
-volume={52},
-number={9},
-pages={538},
-year={2017}
-}
-@article{fedorov2018annotated,
-title={An annotated test-retest collection of prostate multiparametric MRI},
-author={Fedorov, Andriy and Schwier, Michael and Clunie, David and Herz, Christian and Pieper, Steve and Kikinis, Ron and Tempany, Clare and Fennessy, Fiona},
-journal={Scientific Data},
-volume={5},
-number={1},
-pages={1--13},
-year={2018}
-}</t>
   </si>
   <si>
     <t>SPIDER</t>
@@ -1065,16 +963,6 @@
     <t>https://www.sciencedirect.com/science/article/pii/S1361841522002560</t>
   </si>
   <si>
-    <t>@article{dorent2023crossmoda,
-title={CrossMoDA 2021 challenge: Benchmark of cross-modality domain adaptation techniques for vestibular schwannoma and cochlea segmentation},
-author={Dorent, Reuben and Kujawa, Aaron and Ivory, Marina and Bakas, Spyridon and Rieke, Nicola and Joutard, Samuel and Glocker, Ben and Cardoso, Jorge and Modat, Marc and Batmanghelich, Kayhan and others},
-journal={Medical Image Analysis},
-volume={83},
-pages={102628},
-year={2023}
-}</t>
-  </si>
-  <si>
     <t>TotalSegmentatorMR</t>
   </si>
   <si>
@@ -1122,43 +1010,6 @@
   </si>
   <si>
     <t>CC BY-SA-NC</t>
-  </si>
-  <si>
-    <t>https://github.com/MrGiovanni/AbdomenAtlas</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S136184152400210X</t>
-  </si>
-  <si>
-    <t>@article{li2024abdomenatlas,
-title={AbdomenAtlas: A large-scale, detailed-annotated, \&amp; multi-center dataset for efficient transfer learning and open algorithmic benchmarking},
-author={Li, Wenxuan and Qu, Chongyu and Chen, Xiaoxi and Bassi, Pedro RAS and Shi, Yijia and Lai, Yuxiang and Yu, Qian and Xue, Huimin and Chen, Yixiong and Lin, Xiaorui and others},
-journal={Medical Image Analysis},
-pages={103285},
-year={2024},
-publisher={Elsevier},
-url={https://github.com/MrGiovanni/AbdomenAtlas}
-}
-@article{bassi2024touchstone,
-title={Touchstone Benchmark: Are We on the Right Way for Evaluating AI Algorithms for Medical Segmentation?},
-author={Bassi, Pedro RAS and Li, Wenxuan and Tang, Yucheng and Isensee, Fabian and Wang, Zifu and Chen, Jieneng and Chou, Yu-Cheng and Kirchhoff, Yannick and Rokuss, Maximilian and Huang, Ziyan and Ye, Jin and He, Junjun and Wald, Tassilo and Ulrich, Constantin and Baumgartner, Michael and Roy, Saikat and Maier-Hein, Klaus H. and Jaeger, Paul and Ye, Yiwen and Xie, Yutong and Zhang, Jianpeng and Chen, Ziyang and Xia, Yong and Xing, Zhaohu and Zhu, Lei and Sadegheih, Yousef and Bozorgpour, Afshin and Kumari, Pratibha and Azad, Reza and Merhof, Dorit and Shi, Pengcheng and Ma, Ting and Du, Yuxin and Bai, Fan and Huang, Tiejun and Zhao, Bo and Wang, Haonan and Li, Xiaomeng and Gu, Hanxue and Dong, Haoyu and Yang, Jichen and Mazurowski, Maciej A. and Gupta, Saumya and Wu, Linshan and Zhuang, Jiaxin and Chen, Hao and Roth, Holger and Xu, Daguang and Blaschko, Matthew B. and Decherchi, Sergio and Cavalli, Andrea and Yuille, Alan L. and Zhou, Zongwei},
-journal={Conference on Neural Information Processing Systems},
-year={2024},
-utl={https://github.com/MrGiovanni/Touchstone}
-}
-@article{qu2023abdomenatlas,
-title={Abdomenatlas-8k: Annotating 8,000 CT volumes for multi-organ segmentation in three weeks},
-author={Qu, Chongyu and Zhang, Tiezheng and Qiao, Hualin and Tang, Yucheng and Yuille, Alan L and Zhou, Zongwei and others},
-journal={Advances in Neural Information Processing Systems},
-volume={36},
-year={2023}
-}
-@inproceedings{li2024well,
-title={How Well Do Supervised Models Transfer to 3D Image Segmentation?},
-author={Li, Wenxuan and Yuille, Alan and Zhou, Zongwei},
-booktitle={The Twelfth International Conference on Learning Representations},
-year={2024}
-}</t>
   </si>
   <si>
     <t>Leg-3D-US</t>
@@ -1230,20 +1081,6 @@
     <t>https://atm22.grand-challenge.org/</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S1361841523002177</t>
-  </si>
-  <si>
-    <t>@article{zhang2023multi,
-title={Multi-site, multi-domain airway tree modeling},
-author={Zhang, Minghui and Wu, Yangqian and Zhang, Hanxiao and Qin, Yulei and Zheng, Hao and Tang, Wen and Arnold, Corey and Pei, Chenhao and Yu, Pengxin and Nan, Yang and others},
-journal={Medical image analysis},
-volume={90},
-pages={102957},
-year={2023},
-publisher={Elsevier}
-}</t>
-  </si>
-  <si>
     <t>ARCADE</t>
   </si>
   <si>
@@ -1291,9 +1128,6 @@
 year={2022},
 publisher={Elsevier}
 }</t>
-  </si>
-  <si>
-    <t>airways</t>
   </si>
   <si>
     <r>
@@ -1538,24 +1372,6 @@
     </r>
   </si>
   <si>
-    <t>@article{avital2019neural,
-title={Neural segmentation of seeding ROIs (sROIs) for pre-surgical brain tractography},
-author={Avital, Itzik and Nelkenbaum, Ilya and Tsarfaty, Galia and Konen, Eli and Kiryati, Nahum and Mayer, Arnaldo},
-journal={IEEE transactions on medical imaging},
-volume={39},
-number={5},
-pages={1655--1667},
-year={2019}
-}
-@inproceedings{nelkenbaum2020automatic,
-title={Automatic segmentation of white matter tracts using multiple brain MRI sequences},
-author={Nelkenbaum, Ilya and Tsarfaty, Galia and Kiryati, Nahum and Konen, Eli and Mayer, Arnaldo},
-booktitle={2020 IEEE 17th International Symposium on Biomedical Imaging (ISBI)},
-pages={368--371},
-year={2020}
-}</t>
-  </si>
-  <si>
     <t>Breast Cancer Segmentation</t>
   </si>
   <si>
@@ -1568,13 +1384,7 @@
     <t>Breast cancer</t>
   </si>
   <si>
-    <t>151 slides</t>
-  </si>
-  <si>
     <t>CC0 1.0 Universal (CC0 1.0) license</t>
-  </si>
-  <si>
-    <t>PathologyDataScience/BCSS: Use this to download all elements of the BCSS dataset described in: Amgad M, Elfandy H, ..., Gutman DA, Cooper LAD. Structured crowdsourcing enables convolutional segmentation of histology images. Bioinformatics. 2019. doi: 10.1093/bioinformatics/btz083 (github.com)</t>
   </si>
   <si>
     <t>https://academic.oup.com/bioinformatics/article/35/18/3461/5307750</t>
@@ -1591,20 +1401,11 @@
 }</t>
   </si>
   <si>
-    <t>Breast Ultrasound Images Dataset</t>
-  </si>
-  <si>
     <t>benign breast cancer
 malignant breast cancer</t>
   </si>
   <si>
     <t>CC0 1.0</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/aryashah2k/breast-ultrasound-images-dataset</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.dib.2019.104863</t>
   </si>
   <si>
     <t>@article{al2020dataset,
@@ -1624,17 +1425,6 @@
   </si>
   <si>
     <t>https://www.creatis.insa-lyon.fr/Challenge/camus/files/tmi_2019_leclerc.pdf</t>
-  </si>
-  <si>
-    <t>@article{leclerc2019deep,
-title={Deep learning for segmentation using an open large-scale dataset in 2D echocardiography},
-author={Leclerc, Sarah and Smistad, Erik and Pedrosa, Joao and {\O}stvik, Andreas and Cervenansky, Frederic and Espinosa, Florian and Espeland, Torvald and Berg, Erik Andreas Rye and Jodoin, Pierre-Marc and Grenier, Thomas and others},
-journal={IEEE transactions on medical imaging},
-volume={38},
-number={9},
-pages={2198--2210},
-year={2019}
-}</t>
   </si>
   <si>
     <t>CDD-CESM</t>
@@ -2065,12 +1855,6 @@
   </si>
   <si>
     <t>GlaS@MICCAI'2015</t>
-  </si>
-  <si>
-    <t>Abdomen ((stage T3 or T4 colorectal adenocarcinoma)</t>
-  </si>
-  <si>
-    <t>Microscopy (H&amp;E Stained)</t>
   </si>
   <si>
     <t>Gland</t>
@@ -2922,9 +2706,6 @@
     <t>ps-fh-aop-2023</t>
   </si>
   <si>
-    <t>transperineal ultrasound</t>
-  </si>
-  <si>
     <t>Pubic symphysis
 Fetal head</t>
   </si>
@@ -2995,52 +2776,10 @@
 }</t>
   </si>
   <si>
-    <t>The PI-CAI Challenge</t>
-  </si>
-  <si>
-    <t>MR-bp</t>
-  </si>
-  <si>
     <t>Prostate Cancer</t>
   </si>
   <si>
-    <r>
-      <t>https://zenodo.org/records/6624726</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/DIAGNijmegen/picai_labels</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S1361841521002012#ec-research-data</t>
-  </si>
-  <si>
-    <t>@article{saha2021end,
-title={End-to-end prostate cancer detection in bpMRI via 3D CNNs: effects of attention mechanisms, clinical priori and decoupled false positive reduction},
-author={Saha, Anindo and Hosseinzadeh, Matin and Huisman, Henkjan},
-journal={Medical image analysis},
-volume={73},
-pages={102155},
-year={2021},
-publisher={Elsevier}
-}</t>
   </si>
   <si>
     <t>UCSF-PDGM</t>
@@ -3266,9 +3005,6 @@
     <t>Wsss4luad</t>
   </si>
   <si>
-    <t>Pathology (H&amp;E stained Whole Slide Image)</t>
-  </si>
-  <si>
     <t>Lung adenocarcinoma</t>
   </si>
   <si>
@@ -3390,18 +3126,6 @@
     <t>https://selma3d.grand-challenge.org/</t>
   </si>
   <si>
-    <t>[1] D. Kaltenecker et al. Virtual reality empowered deep learning analysis of brain activity. Nature Methods 21: 1306-1315, 2024 Apr.
-[2] M.I. Todorov et al. Machine learning analysis of whole mouse brain vasculature. Nature Methods 17: 442-449, 2020 Mar.
-[3] S. Zhao et al. Cellular and molecular probing of intact human organs. Cell 180(4): 796-812, 2020 Feb.
-[4] H.S. Bhatia et al. Spatial proteomics in three-dimensional intact specimens. Cell 185(26): 5040-5058, 2022 Dec.</t>
-  </si>
-  <si>
-    <t>Alzheimer's disease plaque</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
     <t>TopCoW24</t>
   </si>
   <si>
@@ -3409,17 +3133,6 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2312.17670</t>
-  </si>
-  <si>
-    <t>@article{topcowchallenge,
-title={Benchmarking the CoW with the TopCoW Challenge: Topology-Aware Anatomical Segmentation of the Circle of Willis for CTA and MRA},
-author={Kaiyuan Yang and Fabio Musio and Yihui Ma and Norman Juchler and Johannes C. Paetzold and Rami Al-Maskari and Luciano Höher and Hongwei Bran Li and Ibrahim Ethem Hamamci and Anjany Sekuboyina and Suprosanna Shit and Houjing Huang and Chinmay Prabhakar and Ezequiel de la Rosa and Diana Waldmannstetter and Florian Kofler and Fernando Navarro and Martin Menten and Ivan Ezhov and Daniel Rueckert and Iris Vos and Ynte Ruigrok and Birgitta Velthuis and Hugo Kuijf and Julien Hämmerli and Catherine Wurster and Philippe Bijlenga and Laura Westphal and Jeroen Bisschop and Elisa Colombo and Hakim Baazaoui and Andrew Makmur and James Hallinan and Bene Wiestler and Jan S. Kirschke and Roland Wiest and Emmanuel Montagnon and Laurent Letourneau-Guillon and Adrian Galdran and Francesco Galati and Daniele Falcetta and Maria A. Zuluaga and Chaolong Lin and Haoran Zhao and Zehan Zhang and Sinyoung Ra and Jongyun Hwang and Hyunjin Park and Junqiang Chen and Marek Wodzinski and Henning Müller and Pengcheng Shi and Wei Liu and Ting Ma and Cansu Yalçin and Rachika E. Hamadache and Joaquim Salvi and Xavier Llado and Uma Maria Lal-Trehan Estrada and Valeriia Abramova and Luca Giancardo and Arnau Oliver and Jialu Liu and Haibin Huang and Yue Cui and Zehang Lin and Yusheng Liu and Shunzhi Zhu and Tatsat R. Patel and Vincent M. Tutino and Maysam Orouskhani and Huayu Wang and Mahmud Mossa-Basha and Chengcheng Zhu and Maximilian R. Rokuss and Yannick Kirchhoff and Nico Disch and Julius Holzschuh and Fabian Isensee and Klaus Maier-Hein and Yuki Sato and Sven Hirsch and Susanne Wegener and Bjoern Menze},
-year={2024},
-eprint={2312.17670},
-archivePrefix={arXiv},
-primaryClass={cs.CV},
-url={https://arxiv.org/abs/2312.17670},
-}</t>
   </si>
   <si>
     <t>MRA</t>
@@ -3454,12 +3167,1022 @@
   <si>
     <t>MRI</t>
   </si>
+  <si>
+    <t>MSD-LiverTumor</t>
+  </si>
+  <si>
+    <t>@article{LiTS,
+title = {The Liver Tumor Segmentation Benchmark (LiTS)},
+journal = {Medical Image Analysis},
+volume = {84},
+pages = {102680},
+year = {2023},
+author = {Patrick Bilic and Patrick Christ and Hongwei Bran Li and Eugene Vorontsov and Avi Ben-Cohen and Georgios Kaissis and Adi Szeskin and Colin Jacobs and Gabriel Efrain Humpire Mamani and Gabriel Chartrand and Fabian Lohöfer and Julian Walter Holch and Wieland Sommer and Felix Hofmann and Alexandre Hostettler and Naama Lev-Cohain and Michal Drozdzal and Michal Marianne Amitai and Refael Vivanti and Jacob Sosna and Ivan Ezhov and Anjany Sekuboyina and Fernando Navarro and Florian Kofler and Johannes C. Paetzold and Suprosanna Shit and Xiaobin Hu and Jana Lipková and Markus Rempfler and Marie Piraud and Jan Kirschke and Benedikt Wiestler and Zhiheng Zhang and Christian Hülsemeyer and Marcel Beetz and Florian Ettlinger and Michela Antonelli and Woong Bae and Míriam Bellver and Lei Bi and Hao Chen and Grzegorz Chlebus and Erik B. Dam and Qi Dou and Chi-Wing Fu and Bogdan Georgescu and Xavier Giró-i-Nieto and Felix Gruen and Xu Han and Pheng-Ann Heng and Jürgen Hesser and Jan Hendrik Moltz and Christian Igel and Fabian Isensee and Paul Jäger and Fucang Jia and Krishna Chaitanya Kaluva and Mahendra Khened and Ildoo Kim and Jae-Hun Kim and Sungwoong Kim and Simon Kohl and Tomasz Konopczynski and Avinash Kori and Ganapathy Krishnamurthi and Fan Li and Hongchao Li and Junbo Li and Xiaomeng Li and John Lowengrub and Jun Ma and Klaus Maier-Hein and Kevis-Kokitsi Maninis and Hans Meine and Dorit Merhof and Akshay Pai and Mathias Perslev and Jens Petersen and Jordi Pont-Tuset and Jin Qi and Xiaojuan Qi and Oliver Rippel and Karsten Roth and Ignacio Sarasua and Andrea Schenk and Zengming Shen and Jordi Torres and Christian Wachinger and Chunliang Wang and Leon Weninger and Jianrong Wu and Daguang Xu and Xiaoping Yang and Simon Chun-Ho Yu and Yading Yuan and Miao Yue and Liping Zhang and Jorge Cardoso and Spyridon Bakas and Rickmer Braren and Volker Heinemann and Christopher Pal and An Tang and Samuel Kadoury and Luc Soler and Bram {van Ginneken} and Hayit Greenspan and Leo Joskowicz and Bjoern Menze}
+}
+@article{antonelli2022medical,
+title={The medical segmentation decathlon},
+author={Antonelli, Michela and Reinke, Annika and Bakas, Spyridon and Farahani, Keyvan and Kopp-Schneider, Annette and Landman, Bennett A and Litjens, Geert and Menze, Bjoern and Ronneberger, Olaf and Summers, Ronald M and others},
+journal={Nature Communications},
+volume={13},
+number={1},
+pages={4128},
+year={2022}
+}
+@article{simpson2019large,
+title={A large annotated medical image dataset for the development and evaluation of segmentation algorithms},
+author={Simpson, Amber L and Antonelli, Michela and Bakas, Spyridon and Bilello, Michel and Farahani, Keyvan and Van Ginneken, Bram and Kopp-Schneider, Annette and Landman, Bennett A and Litjens, Geert and Menze, Bjoern and others},
+journal={arXiv preprint arXiv:1902.09063},
+year={2019}
+}</t>
+  </si>
+  <si>
+    <t>MSD-HepaticVessels</t>
+  </si>
+  <si>
+    <t>MSD-LungTumor</t>
+  </si>
+  <si>
+    <t>Lung tumor</t>
+  </si>
+  <si>
+    <t>MSD-Pancreastumor</t>
+  </si>
+  <si>
+    <t>@article{LCTSC,
+title={Autosegmentation for thoracic radiation treatment planning: a grand challenge at AAPM 2017},
+author={Yang, Jinzhong and Veeraraghavan, Harini and Armato III, Samuel G and Farahani, Keyvan and Kirby, Justin S and Kalpathy-Kramer, Jayashree and van Elmpt, Wouter and Dekker, Andre and Han, Xiao and Feng, Xue and others},
+journal={Medical physics},
+volume={45},
+number={10},
+pages={4568--4581},
+year={2018}
+}</t>
+  </si>
+  <si>
+    <t>whole body</t>
+  </si>
+  <si>
+    <t>https://it-portal.med.uni-muenchen.de/autopet/Autopet_v1.1.tgz</t>
+  </si>
+  <si>
+    <t>Brain Lesion</t>
+  </si>
+  <si>
+    <t>@article{Brats15-TMI,
+title={The multimodal brain tumor image segmentation benchmark (BRATS)},
+author={Menze, Bjoern H and Jakab, Andras and Bauer, Stefan and Kalpathy-Cramer, Jayashree and Farahani, Keyvan and Kirby, Justin and Burren, Yuliya and Porz, Nicole and Slotboom, Johannes and Wiest, Roland and others},
+journal={IEEE Transactions on Medical Imaging},
+volume={34},
+number={10},
+pages={1993--2024},
+year={2014}
+}
+@article{bakas2018brats,
+title={Identifying the best machine learning algorithms for brain tumor segmentation, progression assessment, and overall survival prediction in the BRATS challenge},
+author={Bakas, Spyridon and Reyes, Mauricio and Jakab, Andras and Bauer, Stefan and Rempfler, Markus and Crimi, Alessandro and others},
+journal={arXiv preprint arXiv:1811.02629},
+year={2018}
+}
+@article{BraTS2024,
+Author = {Maria Correia de Verdier and Rachit Saluja and Louis Gagnon and Dominic LaBella and Ujjwall Baid and Nourel Hoda Tahon and Martha Foltyn-Dumitru and Jikai Zhang and Maram Alafif and Saif Baig and Ken Chang and Gennaro D'Anna and Lisa Deptula and Diviya Gupta and Muhammad Ammar Haider and Ali Hussain and Michael Iv and Marinos Kontzialis and Paul Manning and Farzan Moodi and Teresa Nunes and Aaron Simon and Nico Sollmann and David Vu and Maruf Adewole and Jake Albrecht and Udunna Anazodo and Rongrong Chai and Verena Chung and Shahriar Faghani and Keyvan Farahani and Anahita Fathi Kazerooni and Eugenio Iglesias and Florian Kofler and Hongwei Li and Marius George Linguraru and Bjoern Menze and Ahmed W. Moawad and Yury Velichko and Benedikt Wiestler and Talissa Altes and Patil Basavasagar and Martin Bendszus and Gianluca Brugnara and Jaeyoung Cho and Yaseen Dhemesh and Brandon K. K. Fields and Filip Garrett and Jaime Gass and Lubomir Hadjiiski and Jona Hattangadi-Gluth and Christopher Hess and Jessica L. Houk and Edvin Isufi and Lester J. Layfield and George Mastorakos and John Mongan and Pierre Nedelec and Uyen Nguyen and Sebastian Oliva and Matthew W. Pease and Aditya Rastogi and Jason Sinclair and Robert X. Smith and Leo P. Sugrue and Jonathan Thacker and Igor Vidic and Javier Villanueva-Meyer and Nathan S. White and Mariam Aboian and Gian Marco Conte and Anders Dale and Mert R. Sabuncu and Tyler M. Seibert and Brent Weinberg and Aly Abayazeed and Raymond Huang and Sevcan Turk and Andreas M. Rauschecker and Nikdokht Farid and Philipp Vollmuth and Ayman Nada and Spyridon Bakas and Evan Calabrese and Jeffrey D. Rudie},
+Title = {The 2024 Brain Tumor Segmentation (BraTS) Challenge: Glioma Segmentation on Post-treatment MRI},
+Year = {2024},
+Journal = {arXiv preprint arXiv:2405.18368},
+}</t>
+  </si>
+  <si>
+    <t>@article{ACDC,
+title={Deep learning techniques for automatic MRI cardiac multi-structures segmentation and diagnosis: is the problem solved?},
+author={Bernard, Olivier and Lalande, Alain and Zotti, Clement and Cervenansky, Frederick and Yang, Xin and Heng, Pheng-Ann and Cetin, Irem and Lekadir, Karim and Camara, Oscar and Ballester, Miguel Angel Gonzalez and others},
+journal={IEEE Transactions on Medical Imaging},
+volume={37},
+number={11},
+pages={2514--2525},
+year={2018}
+}</t>
+  </si>
+  <si>
+    <t>@article{CrossMoDA,
+title={CrossMoDA 2021 challenge: Benchmark of cross-modality domain adaptation techniques for vestibular schwannoma and cochlea segmentation},
+author={Dorent, Reuben and Kujawa, Aaron and Ivory, Marina and Bakas, Spyridon and Rieke, Nicola and Joutard, Samuel and Glocker, Ben and Cardoso, Jorge and Modat, Marc and Batmanghelich, Kayhan and others},
+journal={Medical Image Analysis},
+volume={83},
+pages={102628},
+year={2023}
+}</t>
+  </si>
+  <si>
+    <t>@dataset{HNTSMRG,
+author = {Wahid, Kareem and
+Dede, Cem and
+Naser, Mohamed and
+Fuller, Clifton},
+title = {Training Dataset for HNTSMRG 2024 Challenge},
+month = may,
+year = 2024,
+publisher = {Zenodo},
+doi = {10.5281/zenodo.11199559},
+url = {https://doi.org/10.5281/zenodo.11199559},
+}</t>
+  </si>
+  <si>
+    <t>MSD-LeftAtrium</t>
+  </si>
+  <si>
+    <t>MSD-Prostate</t>
+  </si>
+  <si>
+    <t>@article{PanSegData,
+title = {Large-scale multi-center CT and MRI segmentation of pancreas with deep learning},
+journal = {Medical Image Analysis},
+author = {Zheyuan Zhang and Elif Keles and Gorkem Durak and Yavuz Taktak and Onkar Susladkar and Vandan Gorade and Debesh Jha and Asli C. Ormeci and Alpay Medetalibeyoglu and Lanhong Yao and Bin Wang and Ilkin Sevgi Isler and Linkai Peng and Hongyi Pan and Camila Lopes Vendrami and Amir Bourhani and Yury Velichko and Boqing Gong and Concetto Spampinato and Ayis Pyrros and Pallavi Tiwari and Derk C.F. Klatte and Megan Engels and Sanne Hoogenboom and Candice W. Bolan and Emil Agarunov and Nassier Harfouch and Chenchan Huang and Marco J. Bruno and Ivo Schoots and Rajesh N. Keswani and Frank H. Miller and Tamas Gonda and Cemal Yazici and Temel Tirkes and Baris Turkbey and Michael B. Wallace and Ulas Bagci},
+volume = {99},
+pages = {103382},
+year = {2025}
+}</t>
+  </si>
+  <si>
+    <t>@article{litjens2014evaluation,
+title={Evaluation of prostate segmentation algorithms for MRI: the PROMISE12 challenge},
+author={Litjens, Geert and Toth, Robert and Van De Ven, Wendy and Hoeks, Caroline and Kerkstra, Sjoerd and Van Ginneken, Bram and Vincent, Graham and Guillard, Gwenael and Birbeck, Neil and Zhang, Jindang and others},
+journal={Medical image analysis},
+volume={18},
+number={2},
+pages={359--373},
+year={2014}
+}</t>
+  </si>
+  <si>
+    <t>QIN-PROSTATE</t>
+  </si>
+  <si>
+    <t>@article{fedorov2017multiparametric,
+title={Multiparametric magnetic resonance imaging of the prostate: repeatability of volume and apparent diffusion coefficient quantification},
+author={Fedorov, Andriy and Vangel, Mark G and Tempany, Clare M and Fennessy, Fiona M},
+journal={Investigative Radiology},
+volume={52},
+number={9},
+pages={538},
+year={2017}
+}
+@article{QIN-PROSTATE,
+title={An annotated test-retest collection of prostate multiparametric MRI},
+author={Fedorov, Andriy and Schwier, Michael and Clunie, David and Herz, Christian and Pieper, Steve and Kikinis, Ron and Tempany, Clare and Fennessy, Fiona},
+journal={Scientific Data},
+volume={5},
+number={1},
+pages={1--13},
+year={2018}
+}</t>
+  </si>
+  <si>
+    <t>IVD</t>
+  </si>
+  <si>
+    <t>@article{spider,
+title={Lumbar spine segmentation in MR images: a dataset and a public benchmark},
+author={van der Graaf, Jasper W and van Hooff, Miranda L and Buckens, Constantinus FM and Rutten, Matthieu and van Susante, Job LC and Kroeze, Robert Jan and de Kleuver, Marinus and van Ginneken, Bram and Lessmann, Nikolas},
+journal={Scientific Data},
+volume={11},
+number={1},
+pages={264},
+year={2024}
+}</t>
+  </si>
+  <si>
+    <t>@article{avital2019neural,
+title={Neural segmentation of seeding ROIs (sROIs) for pre-surgical brain tractography},
+author={Avital, Itzik and Nelkenbaum, Ilya and Tsarfaty, Galia and Konen, Eli and Kiryati, Nahum and Mayer, Arnaldo},
+journal={IEEE Transactions on Medical Imaging},
+volume={39},
+number={5},
+pages={1655--1667},
+year={2019}
+}
+@inproceedings{nelkenbaum2020automatic,
+title={Automatic segmentation of white matter tracts using multiple brain MRI sequences},
+author={Nelkenbaum, Ilya and Tsarfaty, Galia and Kiryati, Nahum and Konen, Eli and Mayer, Arnaldo},
+booktitle={2020 IEEE 17th International Symposium on Biomedical Imaging (ISBI)},
+pages={368--371},
+year={2020}
+}</t>
+  </si>
+  <si>
+    <t>BUSI</t>
+  </si>
+  <si>
+    <t>https://scholar.cu.edu.eg/?q=afahmy/pages/dataset</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2352340919312181</t>
+  </si>
+  <si>
+    <t>PI-CAI</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/6624726</t>
+  </si>
+  <si>
+    <t>@article{PI-CAI,
+title = {Artificial intelligence and radiologists in prostate cancer detection on MRI (PI-CAI): an international, paired, non-inferiority, confirmatory study},
+journal = {The Lancet Oncology},
+volume = {25},
+number = {7},
+pages = {879-887},
+year = {2024},
+author = {Anindo Saha and Joeran S Bosma and Jasper J Twilt and Bram {van Ginneken} and Anders Bjartell and Anwar R Padhani and David Bonekamp and Geert Villeirs and Georg Salomon and Gianluca Giannarini and Jayashree Kalpathy-Cramer and Jelle Barentsz and Klaus H Maier-Hein and Mirabela Rusu and Olivier Rouvière and Roderick {van den Bergh} and Valeria Panebianco and Veeru Kasivisvanathan and Nancy A Obuchowski and Derya Yakar and Mattijs Elschot and Jeroen Veltman and Jurgen J Fütterer and Maarten {de Rooij} and Henkjan Huisman and Anindo Saha and Joeran S. Bosma and Jasper J. Twilt and Bram {van Ginneken} and Constant R. Noordman and Ivan Slootweg and Christian Roest and Stefan J. Fransen and Mohammed R.S. Sunoqrot and Tone F. Bathen and Dennis Rouw and Jos Immerzeel and Jeroen Geerdink and Chris {van Run} and Miriam Groeneveld and James Meakin and Ahmet Karagöz and Alexandre Bône and Alexandre Routier and Arnaud Marcoux and Clément Abi-Nader and Cynthia Xinran Li and Dagan Feng and Deniz Alis and Ercan Karaarslan and Euijoon Ahn and François Nicolas and Geoffrey A. Sonn and Indrani Bhattacharya and Jinman Kim and Jun Shi and Hassan Jahanandish and Hong An and Hongyu Kan and Ilkay Oksuz and Liang Qiao and Marc-Michel Rohé and Mert Yergin and Mohamed Khadra and Mustafa E. Şeker and Mustafa S. Kartal and Noëlie Debs and Richard E. Fan and Sara Saunders and Simon J.C. Soerensen and Stefania Moroianu and Sulaiman Vesal and Yuan Yuan and Afsoun Malakoti-Fard and Agnė Mačiūnien and Akira Kawashima and Ana M.M. de M.G. {de Sousa Machadov} and Ana Sofia L. Moreira and Andrea Ponsiglione and Annelies Rappaport and Arnaldo Stanzione and Arturas Ciuvasovas and Baris Turkbey and Bart {de Keyzer} and Bodil G. Pedersen and Bram Eijlers and Christine Chen and Ciabattoni Riccardo and Deniz Alis and Ewout F.W. {Courrech Staal} and Fredrik Jäderling and Fredrik Langkilde and Giacomo Aringhieri and Giorgio Brembilla and Hannah Son and Hans Vanderlelij and Henricus P.J. Raat and Ingrida Pikūnienė and Iva Macova and Ivo Schoots and Iztok Caglic and Jeries P. Zawaideh and Jonas Wallström and Leonardo K. Bittencourt and Misbah Khurram and Moon H. Choi and Naoki Takahashi and Nelly Tan and Paolo N. Franco and Patricia A. Gutierrez and Per Erik Thimansson and Pieter Hanus and Philippe Puech and Philipp R. Rau and Pieter {de Visschere} and Ramette Guillaume and Renato Cuocolo and Ricardo O. Falcão and Rogier S.A. {van Stiphout} and Rossano Girometti and Ruta Briediene and Rūta Grigienė and Samuel Gitau and Samuel Withey and Sangeet Ghai and Tobias Penzkofer and Tristan Barrett and Varaha S. Tammisetti and Vibeke B. Løgager and Vladimír Černý and Wulphert Venderink and Yan M. Law and Young J. Lee and Anders Bjartell and Anwar R. Padhani and David Bonekamp and Geert Villeirs and Georg Salomon and Gianluca Giannarini and Jayashree Kalpathy-Cramer and Jelle Barentsz and Klaus H. Maier-Hein and Mirabela Rusu and Nancy A. Obuchowski and Olivier Rouvière and Roderick {van den Bergh} and Valeria Panebianco and Veeru Kasivisvanathan and Derya Yakar and Mattijs Elschot and Jeroen Veltman and Jurgen J. Fütterer and Maarten {de Rooij} and Henkjan Huisman}
+}</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41592-024-02245-2
+https://www.nature.com/articles/s41592-020-0792-1
+https://www.cell.com/cell/fulltext/S0092-8674(20)30111-2?uuid=uuid%3Afcfd6faf-8f9b-4d46-9ae9-54b710e6e596
+https://doi.org/10.1016/j.cell.2022.11.021</t>
+  </si>
+  <si>
+    <t>@article{SELMA3D-1,
+title={Virtual reality-empowered deep-learning analysis of brain cells},
+author={Kaltenecker, Doris and Al-Maskari, Rami and Negwer, Moritz and Hoeher, Luciano and Kofler, Florian and Zhao, Shan and Todorov, Mihail and Rong, Zhouyi and Paetzold, Johannes Christian and Wiestler, Benedikt and others},
+journal={Nature Methods},
+volume={21},
+number={7},
+pages={1306--1315},
+year={2024}
+}
+@article{SELMA3D-2,
+title={Machine learning analysis of whole mouse brain vasculature},
+author={Todorov, Mihail Ivilinov and Paetzold, Johannes Christian and Schoppe, Oliver and Tetteh, Giles and Shit, Suprosanna and Efremov, Velizar and Todorov-V{\"o}lgyi, Katalin and D{\"u}ring, Marco and Dichgans, Martin and Piraud, Marie and others},
+journal={Nature methods},
+volume={17},
+number={4},
+pages={442--449},
+year={2020}
+}
+@article{SELMA3D-3,
+title={Cellular and molecular probing of intact human organs},
+author={Zhao, Shan and Todorov, Mihail Ivilinov and Cai, Ruiyao and Rami, AI-Maskari and Steinke, Hanno and Kemter, Elisabeth and Mai, Hongcheng and Rong, Zhouyi and Warmer, Martin and Stanic, Karen and others},
+journal={Cell},
+volume={180},
+number={4},
+pages={796--812},
+year={2020}
+}
+@article{SELMA3D-4,
+title={Spatial proteomics in three-dimensional intact specimens},
+author={Bhatia, Harsharan Singh and Brunner, Andreas-David and {\"O}zt{\"u}rk, Furkan and Kapoor, Saketh and Rong, Zhouyi and Mai, Hongcheng and Thielert, Marvin and Ali, Mayar and Al-Maskari, Rami and Paetzold, Johannes Christian and others},
+journal={Cell},
+volume={185},
+number={26},
+pages={5040--5058},
+year={2022}
+}</t>
+  </si>
+  <si>
+    <t>@article{topcowchallenge,
+title={Benchmarking the CoW with the TopCoW Challenge: Topology-Aware Anatomical Segmentation of the Circle of Willis for CTA and MRA},
+author={Kaiyuan Yang and Fabio Musio and Yihui Ma and Norman Juchler and Johannes C. Paetzold and Rami Al-Maskari and Luciano Höher and Hongwei Bran Li and Ibrahim Ethem Hamamci and Anjany Sekuboyina and Suprosanna Shit and Houjing Huang and Chinmay Prabhakar and Ezequiel de la Rosa and Diana Waldmannstetter and Florian Kofler and Fernando Navarro and Martin Menten and Ivan Ezhov and Daniel Rueckert and Iris Vos and Ynte Ruigrok and Birgitta Velthuis and Hugo Kuijf and Julien Hämmerli and Catherine Wurster and Philippe Bijlenga and Laura Westphal and Jeroen Bisschop and Elisa Colombo and Hakim Baazaoui and Andrew Makmur and James Hallinan and Bene Wiestler and Jan S. Kirschke and Roland Wiest and Emmanuel Montagnon and Laurent Letourneau-Guillon and Adrian Galdran and Francesco Galati and Daniele Falcetta and Maria A. Zuluaga and Chaolong Lin and Haoran Zhao and Zehan Zhang and Sinyoung Ra and Jongyun Hwang and Hyunjin Park and Junqiang Chen and Marek Wodzinski and Henning Müller and Pengcheng Shi and Wei Liu and Ting Ma and Cansu Yalçin and Rachika E. Hamadache and Joaquim Salvi and Xavier Llado and Uma Maria Lal-Trehan Estrada and Valeriia Abramova and Luca Giancardo and Arnau Oliver and Jialu Liu and Haibin Huang and Yue Cui and Zehang Lin and Yusheng Liu and Shunzhi Zhu and Tatsat R. Patel and Vincent M. Tutino and Maysam Orouskhani and Huayu Wang and Mahmud Mossa-Basha and Chengcheng Zhu and Maximilian R. Rokuss and Yannick Kirchhoff and Nico Disch and Julius Holzschuh and Fabian Isensee and Klaus Maier-Hein and Yuki Sato and Sven Hirsch and Susanne Wegener and Bjoern Menze},
+year={2024},
+eprint={2312.17670}
+}</t>
+  </si>
+  <si>
+    <t>PANORAMA</t>
+  </si>
+  <si>
+    <t>https://panorama.grand-challenge.org/datasets-imaging-labels/</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/10599559</t>
+  </si>
+  <si>
+    <t>@misc{PANORAMA24,
+author = {Alves, Natália and
+Schuurmans, Megan and
+Rutkowski, Dawid and
+Yakar, Derya and
+Haldorsen, Ingfrid and
+Liedenbaum, Marjolein and
+Molven, Anders and
+Vendittelli, Pierpaolo and
+Litjens, Geert and
+Hermans, John and
+Huisman, Henkjan},
+title = {The PANORAMA Study Protocol: Pancreatic Cancer
+Diagnosis - Radiologists Meet AI
+},
+month = jan,
+year = 2024,
+publisher = {Zenodo},
+doi = {10.5281/zenodo.10599559},
+url = {https://doi.org/10.5281/zenodo.10599559},
+}</t>
+  </si>
+  <si>
+    <t>TrackRAD</t>
+  </si>
+  <si>
+    <t>Whole-body</t>
+  </si>
+  <si>
+    <t>Lesion</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/LMUK-RADONC-PHYS-RES/TrackRAD2025</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>HVSMR</t>
+  </si>
+  <si>
+    <t>blood pool, ventricular myocardium</t>
+  </si>
+  <si>
+    <t>https://segchd.csail.mit.edu/data.html</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-024-03469-9</t>
+  </si>
+  <si>
+    <t>@article{pace2024hvsmr,
+title={HVSMR-2.0: A 3D cardiovascular MR dataset for whole-heart segmentation in congenital heart disease},
+author={Pace, Danielle F and Contreras, Hannah TM and Romanowicz, Jennifer and Ghelani, Shruti and Rahaman, Imon and Zhang, Yue and Gao, Patricia and Jubair, Mohammad Imrul and Yeh, Tom and Golland, Polina and others},
+journal={Scientific Data},
+volume={11},
+number={1},
+pages={721},
+year={2024},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>OASIS</t>
+  </si>
+  <si>
+    <t>cerebral spinal fluid, gray matter, white matter</t>
+  </si>
+  <si>
+    <t>https://sites.wustl.edu/oasisbrains/home/oasis-1/</t>
+  </si>
+  <si>
+    <t>https://direct.mit.edu/jocn/article/19/9/1498/4427/Open-Access-Series-of-Imaging-Studies-OASIS-Cross</t>
+  </si>
+  <si>
+    <t>@article{marcus2007open,
+title={Open Access Series of Imaging Studies (OASIS): cross-sectional MRI data in young, middle aged, nondemented, and demented older adults},
+author={Marcus, Daniel S and Wang, Tracy H and Parker, Jamie and Csernansky, John G and Morris, John C and Buckner, Randy L},
+journal={Journal of cognitive neuroscience},
+volume={19},
+number={9},
+pages={1498--1507},
+year={2007},
+publisher={MIT Press One Rogers Street, Cambridge, MA 02142-1209, USA journals-info~…}
+}</t>
+  </si>
+  <si>
+    <t>SUN-SEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1007/s11633-022-1371-y
+https://link.springer.com/chapter/10.1007/978-3-030-87193-2_14
+https://www.sciencedirect.com/science/article/pii/S0016510720346551
+</t>
+  </si>
+  <si>
+    <t>@article{ji2022vps,
+title={Video Polyp Segmentation: A Deep Learning Perspective},
+author={Ji, Ge-Peng and Xiao, Guobao and Chou, Yu-Cheng and Fan, Deng-Ping and Zhao, Kai and Chen, Geng and Fu, Huazhu and Van Gool, Luc},
+journal={Machine Intelligence Research},
+year={2022}
+}
+@inproceedings{ji2021pnsnet,
+title={Progressively Normalized Self-Attention Network for Video Polyp Segmentation},
+author={Ji, Ge-Peng and Chou, Yu-Cheng and Fan, Deng-Ping and Chen, Geng and Jha, Debesh and Fu, Huazhu and Shao, Ling},
+booktitle={MICCAI},
+pages={142--152},
+year={2021}
+}
+@article{misawa2021development,
+title={Development of a computer-aided detection system for colonoscopy and a publicly accessible large colonoscopy video database (with video)},
+author={Misawa, Masashi and Kudo, Shin-ei and Mori, Yuichi and Hotta, Kinichi and Ohtsuka, Kazuo and Matsuda, Takahisa and Saito, Shoichi and Kudo, Toyoki and Baba, Toshiyuki and Ishida, Fumio and others},
+journal={Gastrointestinal endoscopy},
+volume={93},
+number={4},
+pages={960--967},
+year={2021},
+publisher={Elsevier}
+}</t>
+  </si>
+  <si>
+    <t>MAMA-MIA</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>Breast Cancer lesions
+(primary tumors and non-mass-enhanced regions)</t>
+  </si>
+  <si>
+    <t>https://www.synapse.org/Synapse:syn60868042/wiki/628716</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04707-4</t>
+  </si>
+  <si>
+    <t>@article{garrucho2025large,
+title={A large-scale multicenter breast cancer DCE-MRI benchmark dataset with expert segmentations},
+author={Garrucho, Lidia and Kushibar, Kaisar and Reidel, Claire-Anne and Joshi, Smriti and Osuala, Richard and Tsirikoglou, Apostolia and Bobowicz, Maciej and Del Riego, Javier and Catanese, Alessandro and Gwo{\'z}dziewicz, Katarzyna and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={453},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>IBD</t>
+  </si>
+  <si>
+    <t>MRE</t>
+  </si>
+  <si>
+    <t>stomach, duodenum, small intestine, appendix, cecum, ascending colon, transverse colon, descending colon, sigmoid colon, rectum</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/13839321</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04760-z</t>
+  </si>
+  <si>
+    <t>@article{zhong2025comprehensive,
+title={A comprehensive dataset of magnetic resonance enterography images with intestinal segment annotations},
+author={Zhong, Zhangnan and Huang, Li and Feng, Shi-Ting and Lin, Haiwei and Wang, Xinyue and Lu, Baolan and Cao, Kangyang and Li, Xuehua and Huang, Bingsheng},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={425},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>LongCIU</t>
+  </si>
+  <si>
+    <t>ground glass opacities (GGO), consolidations</t>
+  </si>
+  <si>
+    <t>90 slices</t>
+  </si>
+  <si>
+    <t>https://iro.uiowa.edu/esploro/outputs/dataset/9984632558202771</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04709-2</t>
+  </si>
+  <si>
+    <t>@article{carmo2025manual,
+title={Manual segmentation of opacities and consolidations on CT of long COVID patients from multiple annotators},
+author={Carmo, Diedre S and Pezzulo, Alejandro A and Villacreses, Raul A and Eisenbeisz, McKenna L and Anderson, Rachel L and Dorin, Sarah E Van and Rittner, Let{\'\i}cia and Lotufo, Roberto A and Gerard, Sarah E and Reinhardt, Joseph M and others},
+journal={Scientific data},
+volume={12},
+number={1},
+pages={402},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>LapEx</t>
+  </si>
+  <si>
+    <t>semantic segmentation (11 instruments/organs)</t>
+  </si>
+  <si>
+    <t>Custom Dataset Terms (restricted)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.57745/1F0UBU</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04588-7</t>
+  </si>
+  <si>
+    <t>@article{derathe2025lapex,
+title={LapEx: A new multimodal dataset for context recognition and practice assessment in laparoscopic surgery},
+author={Derath{\'e}, Arthur and Reche, Fabian and Guy, Sylvain and Charri{\`e}re, Katia and Trilling, Bertrand and Jannin, Pierre and Moreau-Gaudry, Alexandre and Gibaud, Bernard and Voros, Sandrine},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={342},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>Endoscapes2023</t>
+  </si>
+  <si>
+    <t>semantic segmentation (4 anatomical structures, 1 descriptor of surgical dissection, and 1 tool class)</t>
+  </si>
+  <si>
+    <t>https://github.com/CAMMA-public/Endoscapes</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04642-4</t>
+  </si>
+  <si>
+    <t>@article{mascagni2025endoscapes,
+title={Endoscapes, a critical view of safety and surgical scene segmentation dataset for laparoscopic cholecystectomy},
+author={Mascagni, Pietro and Alapatt, Deepak and Murali, Aditya and Vardazaryan, Armine and Garcia, Alain and Okamoto, Nariaki and Costamagna, Guido and Mutter, Didier and Marescaux, Jacques and Dallemagne, Bernard and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={331},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>SLiMIA</t>
+  </si>
+  <si>
+    <t>spheroid</t>
+  </si>
+  <si>
+    <t>https://figshare.com/collections/The_Spheroid_Light_Microscopy_Image_Atlas_SLiMIA_for_morphometrical_analysis_of_three_dimensional_cell_cultures/7486311</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04441-x</t>
+  </si>
+  <si>
+    <t>@article{blondeel2025spheroid,
+title={The Spheroid Light Microscopy Image Atlas for morphometrical analysis of three-dimensional cell cultures},
+author={Blondeel, Eva and Peirsman, Arne and Vermeulen, Stephanie and Piccinini, Filippo and De Vuyst, Felix and Est{\^e}v{\~a}o, Diogo and Al-Jamei, Sayida and Bedeschi, Martina and Castellani, Gastone and Cruz, T{\^a}nia and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={283},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>OCT5k</t>
+  </si>
+  <si>
+    <t>retina</t>
+  </si>
+  <si>
+    <t>Optical Coherence Tomography</t>
+  </si>
+  <si>
+    <t>retinal layers</t>
+  </si>
+  <si>
+    <t>https://rdr.ucl.ac.uk/articles/dataset/OCT5k_A_dataset_of_multi-disease_and_multi-graded_annotations_for_retinal_layers/22128671?file=44436359</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-024-04259-z</t>
+  </si>
+  <si>
+    <t>@article{arikan2025oct5k,
+title={OCT5k: A dataset of multi-disease and multi-graded annotations for retinal layers},
+author={Arikan, Mustafa and Willoughby, James and Ongun, Sevim and Sallo, Ferenc and Montesel, Andrea and Ahmed, Hend and Hagag, Ahmed and Book, Marius and Faatz, Henrik and Cicinelli, Maria Vittoria and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={267},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>Hippo</t>
+  </si>
+  <si>
+    <t>hippocampus</t>
+  </si>
+  <si>
+    <t>hippocampal formation subfields (ERC, SUB, CA1, DG-CA4, CA2, CA3, the hippocampal tail)</t>
+  </si>
+  <si>
+    <t>https://plus.figshare.com/articles/dataset/A_paired_dataset_of_multi-modal_MRI_at_3_Tesla_and_7_Tesla_with_manual_hippocampal_subfield_segmentations_on_7T_T2-weighted_images/26075713/1</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04586-9</t>
+  </si>
+  <si>
+    <t>@article{chu2025paired,
+title={A paired dataset of multi-modal MRI at 3 Tesla and 7 Tesla with manual hippocampal subfield segmentations},
+author={Chu, Lei and Ma, Baoqiang and Dong, Xiaoxi and He, Yirong and Che, Tongtong and Zeng, Debin and Zhang, Zihao and Li, Shuyu},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={260},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>BUS-UCLM</t>
+  </si>
+  <si>
+    <t>Breast</t>
+  </si>
+  <si>
+    <t>Ultrasound</t>
+  </si>
+  <si>
+    <t>breast lesions</t>
+  </si>
+  <si>
+    <t>https://data.mendeley.com/datasets/7fvgj4jsp7/3</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04562-3</t>
+  </si>
+  <si>
+    <t>@article{vallez2025bus,
+title={BUS-UCLM: Breast ultrasound lesion segmentation dataset},
+author={Vallez, Noelia and Bueno, Gloria and Deniz, Oscar and Rienda, Miguel Angel and Pastor, Carlos},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={242},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>PCMMD</t>
+  </si>
+  <si>
+    <t>Cells</t>
+  </si>
+  <si>
+    <t>plasma cells, non-plasma cell</t>
+  </si>
+  <si>
+    <t>https://data.mendeley.com/datasets/3v2nrxpr9s/1</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04459-1</t>
+  </si>
+  <si>
+    <t>@article{lb2025pcmmd,
+title={PCMMD: A Novel Dataset of Plasma Cells to Support the Diagnosis of Multiple Myeloma},
+author={LB Andrade, Caio and Ferreira, Marcos V and M. Alencar, Brenno and SB Filho, Jorge L and A. Guimaraes, Matheus and Porto Cruz Moraes, Iarley and S. Lopes, Tiago J and S. dos Santos, Allan and M. dos Santos, Mariane and CS e Silva, Maria I and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={161},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/10597292</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-024-04306-9</t>
+  </si>
+  <si>
+    <t>@article{wang2025multi,
+title={A multi-modal dental dataset for semi-supervised deep learning image segmentation},
+author={Wang, Yaqi and Ye, Fan and Chen, Yifei and Wang, Chengkai and Wu, Chengyu and Xu, Feng and Ma, Zhean and Liu, Yi and Zhang, Yifan and Cao, Mingguo and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={117},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>BTXRD</t>
+  </si>
+  <si>
+    <t>Bone tumors</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.27865398</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-024-04311-y</t>
+  </si>
+  <si>
+    <t>@article{yao2025radiograph,
+title={A Radiograph Dataset for the Classification, Localization, and Segmentation of Primary Bone Tumors},
+author={Yao, Shunhan and Huang, Yuanxiang and Wang, Xiaoyu and Zhang, Yiwen and Paixao, Ian Costa and Wang, Zhikang and Chai, Charla Lu and Wang, Hongtao and Lu, Dinggui and Webb, Geoffrey I and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={88},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>COph100</t>
+  </si>
+  <si>
+    <t>Retinal vessel</t>
+  </si>
+  <si>
+    <t>https://springernature.figshare.com/articles/dataset/COph100_A_Comprehensive_Fundus_Image_Registration_Dataset_from_Infants_constituting_the_RIDIRP_database/27061084?file=51235925</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04426-w</t>
+  </si>
+  <si>
+    <t>@article{hu2025coph100,
+title={COph100: A comprehensive fundus image registration dataset from infants constituting the “RIDIRP” database},
+author={Hu, Yan and Gong, Mingdao and Qiu, Zhongxi and Liu, Jiabao and Shen, Hongli and Yuan, Mingzhen and Zhang, Xiaoqing and Li, Heng and Lu, Hai and Liu, Jiang},
+journal={Scientific data},
+volume={12},
+number={1},
+pages={99},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>TOM500</t>
+  </si>
+  <si>
+    <t>optic nerve, orbital fat, lacrimal gland, eyeball, superior rectus and levator palpebrae superioris complex, inferior rectus, medial rectus, lateral rectus, superior oblique</t>
+  </si>
+  <si>
+    <t>https://springernature.figshare.com/articles/dataset/TOM500_A_Multi-Organ_Annotated_Orbital_MRI_Dataset_for_Thyroid_Eye_Disease/27133389?file=49499655</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-04427-9</t>
+  </si>
+  <si>
+    <t>@article{zhang2025tom500,
+title={TOM500: A Multi-Organ Annotated Orbital MRI Dataset for Thyroid Eye Disease},
+author={Zhang, Haiyang and Chan, Hoi Chi and Xu, Jiashuo and Jiang, Mengda and Tao, Xiaofeng and Zhou, Huifang and Song, Xuefei and Fan, Xianqun},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={60},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>BONBID-HIE</t>
+  </si>
+  <si>
+    <t>Hypoxic ischemic encephalopathy lesions</t>
+  </si>
+  <si>
+    <t>CC BY-NC-ND 2.5</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/10602767</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-024-03986-7</t>
+  </si>
+  <si>
+    <t>@article{bao2025boston,
+title={BOston Neonatal Brain Injury Data for Hypoxic Ischemic Encephalopathy (BONBID-HIE): I. MRI and Lesion Labeling},
+author={Bao, Rina and Song, Ya’nan and Bates, Sara V and Weiss, Rebecca J and Foster, Anna N and Jaimes, Camilo and Sotardi, Susan and Zhang, Yue and Hirschtick, Randy L and Grant, P Ellen and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={53},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>Pituitary_tumor</t>
+  </si>
+  <si>
+    <t>Head and neck</t>
+  </si>
+  <si>
+    <t>Pituitary Neuroendocrine Tumor, carotid</t>
+  </si>
+  <si>
+    <t>https://springernature.figshare.com/articles/dataset/Mapping_pituitary_neuroendocrine_tumors_an_annotated_MRI_dataset_profiling_tumor_and_carotid_characteristics/27894084</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-024-04218-8</t>
+  </si>
+  <si>
+    <t>@article{pandit2025mapping,
+title={Mapping Pituitary Neuroendocrine Tumors: An Annotated MRI Dataset Profiling Tumor and Carotid Characteristics},
+author={Pandit, AS and Keenlyside, A and Khan, DZ and Reischer, G and Kamal, MA and Yoh, N and Jaunmuktane, Z and Borg, A and Dorward, NL and Baldeweg, SE and others},
+journal={Scientific Data},
+volume={12},
+number={1},
+pages={80},
+year={2025},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>WAW-TCE</t>
+  </si>
+  <si>
+    <t>Liver Tumor</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/12741586</t>
+  </si>
+  <si>
+    <t>https://pubs.rsna.org/doi/full/10.1148/ryai.240296</t>
+  </si>
+  <si>
+    <t>@article{WAW-TACE,
+author = {Bartnik, Krzysztof and Bartczak, Tomasz and Krzyzi\'{n}ski, Mateusz and Korzeniowski, Krzysztof and Lamparski, Krzysztof and Węgrzyn, Piotr and Lam, Eric and Bartkowiak, Mateusz and Wr\'{o}blewski, Tadeusz and Mech, Katarzyna and Januszewicz, Magdalena and Biecek, Przemys\l{}aw},
+title = {WAW-TACE: A Hepatocellular Carcinoma Multiphase CT Dataset with Segmentations, Radiomics Features, and Clinical Data},
+journal = {Radiology: Artificial Intelligence},
+volume = {6},
+number = {6},
+pages = {e240296},
+year = {2024}
+}</t>
+  </si>
+  <si>
+    <t>ACOUSLIC</t>
+  </si>
+  <si>
+    <t>Abdominal circumference</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/12697994</t>
+  </si>
+  <si>
+    <t>https://acouslic-ai.grand-challenge.org/</t>
+  </si>
+  <si>
+    <t>@dataset{sappia_2024_12697994,
+author = {Sappia, María Sofía},
+title = {ACOUSLIC-AI : Abdominal Circumference Operator-
+agnostic UltraSound measurement in Low-Income
+Countries using Artificial Intelligence
+},
+month = jul,
+year = 2024,
+publisher = {Zenodo},
+version = {1.1},
+doi = {10.5281/zenodo.12697994},
+url = {https://doi.org/10.5281/zenodo.12697994},
+}</t>
+  </si>
+  <si>
+    <t>PENGWIN</t>
+  </si>
+  <si>
+    <t>Pelvic fracture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.10927452 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.media.2025.103506
+https://link.springer.com/chapter/10.1007/978-3-031-43996-4_30</t>
+  </si>
+  <si>
+    <t>@article{PENGWIN-1
+title = {Preoperative fracture reduction planning for image-guided pelvic trauma surgery: A comprehensive pipeline with learning},
+journal = {Medical Image Analysis},
+volume = {102},
+pages = {103506},
+year = {2025},
+author = {Yanzhen Liu and Sutuke Yibulayimu and Yudi Sang and Gang Zhu and Chao Shi and Chendi Liang and Qiyong Cao and Chunpeng Zhao and Xinbao Wu and Yu Wang},
+}
+@inproceedings{PENGWIN-2,
+title={Pelvic Fracture Segmentation Using a Multi-scale Distance-Weighted Neural Network},
+author={Liu, Yanzhen and Yibulayimu, Sutuke and Sang, Yudi and Zhu, Gang and Wang, Yu and Zhao, Chunpeng and Wu, Xinbao},
+booktitle={International Conference on Medical Image Computing and Computer-Assisted Intervention},
+pages={312--321},
+year={2023}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.10913195 </t>
+  </si>
+  <si>
+    <t>MSD-ColonCancer</t>
+  </si>
+  <si>
+    <t>non-commercial use</t>
+  </si>
+  <si>
+    <t>http://amed8k.sundatabase.org/</t>
+  </si>
+  <si>
+    <t>STS-2D-Tooth</t>
+  </si>
+  <si>
+    <t>STS-3D-Tooth</t>
+  </si>
+  <si>
+    <t>CBCT</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/BodyMaps/AbdomenAtlas1.1MiniMask</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.sciencedirect.com/science/article/pii/S136184152400210X
+https://arxiv.org/abs/2305.09666</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://arxiv.org/abs/2411.03670
+https://arxiv.org/abs/2501.11253</t>
+    </r>
+  </si>
+  <si>
+    <t>@article{li2024abdomenatlas,
+title={AbdomenAtlas: A large-scale, detailed-annotated, \&amp; multi-center dataset for efficient transfer learning and open algorithmic benchmarking},
+author={Li, Wenxuan and Qu, Chongyu and Chen, Xiaoxi and Bassi, Pedro RAS and Shi, Yijia and Lai, Yuxiang and Yu, Qian and Xue, Huimin and Chen, Yixiong and Lin, Xiaorui and others},
+journal={Medical Image Analysis},
+pages={103285},
+year={2024}
+}
+@article{bassi2024touchstone,
+title={Touchstone Benchmark: Are We on the Right Way for Evaluating AI Algorithms for Medical Segmentation?},
+author={Bassi, Pedro RAS and Li, Wenxuan and Tang, Yucheng and Isensee, Fabian and Wang, Zifu and Chen, Jieneng and Chou, Yu-Cheng and Kirchhoff, Yannick and Rokuss, Maximilian and Huang, Ziyan and Ye, Jin and He, Junjun and Wald, Tassilo and Ulrich, Constantin and Baumgartner, Michael and Roy, Saikat and Maier-Hein, Klaus H. and Jaeger, Paul and Ye, Yiwen and Xie, Yutong and Zhang, Jianpeng and Chen, Ziyang and Xia, Yong and Xing, Zhaohu and Zhu, Lei and Sadegheih, Yousef and Bozorgpour, Afshin and Kumari, Pratibha and Azad, Reza and Merhof, Dorit and Shi, Pengcheng and Ma, Ting and Du, Yuxin and Bai, Fan and Huang, Tiejun and Zhao, Bo and Wang, Haonan and Li, Xiaomeng and Gu, Hanxue and Dong, Haoyu and Yang, Jichen and Mazurowski, Maciej A. and Gupta, Saumya and Wu, Linshan and Zhuang, Jiaxin and Chen, Hao and Roth, Holger and Xu, Daguang and Blaschko, Matthew B. and Decherchi, Sergio and Cavalli, Andrea and Yuille, Alan L. and Zhou, Zongwei},
+journal={Neural Information Processing Systems},
+year={2024}
+}
+@article{2023abdomenatlas,
+title={Abdomenatlas-8k: Annotating 8,000 CT volumes for multi-organ segmentation in three weeks},
+author={Qu, Chongyu and Zhang, Tiezheng and Qiao, Hualin and Tang, Yucheng and Yuille, Alan L and Zhou, Zongwei and others},
+journal={Advances in Neural Information Processing Systems},
+volume={36},
+year={2023}
+}
+@inproceedings{segTransfer,
+title={How Well Do Supervised Models Transfer to 3D Image Segmentation?},
+author={Li, Wenxuan and Yuille, Alan and Zhou, Zongwei},
+booktitle={The Twelfth International Conference on Learning Representations},
+year={2024}
+}</t>
+  </si>
+  <si>
+    <t>https://github.com/PathologyDataScience/BCSS</t>
+  </si>
+  <si>
+    <t>@article{CAMUS,
+title={Deep learning for segmentation using an open large-scale dataset in 2D echocardiography},
+author={Leclerc, Sarah and Smistad, Erik and Pedrosa, Joao and {\O}stvik, Andreas and Cervenansky, Frederic and Espinosa, Florian and Espeland, Torvald and Berg, Erik Andreas Rye and Jodoin, Pierre-Marc and Grenier, Thomas and others},
+journal={IEEE Transactions on Medical Imaging},
+volume={38},
+number={9},
+pages={2198--2210},
+year={2019}
+}</t>
+  </si>
+  <si>
+    <t>@article{CHAOS,
+title={CHAOS challenge-combined (CT-MR) healthy abdominal organ segmentation},
+author={Kavur, A Emre and Gezer, N Sinem and Bar{\i}{\c{s}}, Mustafa and Aslan, Sinem and Conze, Pierre-Henri and Groza, Vladimir and Pham, Duc Duy and Chatterjee, Soumick and Ernst, Philipp and {\"O}zkan, Sava{\c{s}} and others},
+journal={Medical Image Analysis},
+volume={69},
+pages={101950},
+year={2021}
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3532,6 +4255,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3554,7 +4283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3583,6 +4312,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3918,13 +4648,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D9D48-FAEB-8F40-856B-8BA2E5A81602}">
-  <dimension ref="A1:K987"/>
+  <dimension ref="A1:K979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="126.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3963,10 +4696,10 @@
     </row>
     <row r="2" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3975,33 +4708,33 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
-        <v>1056</v>
+        <v>9262</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
+        <v>215</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>767</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>18</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -4010,103 +4743,103 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>53</v>
+        <v>1056</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F4" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>30</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>2024</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>749</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>750</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2">
-        <v>56</v>
+        <v>300</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>36</v>
+        <v>752</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>37</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -4115,95 +4848,95 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
-        <v>199</v>
+        <v>500</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4211,34 +4944,34 @@
         <v>2023</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
-        <v>42</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4246,69 +4979,69 @@
         <v>2022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>489</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>73</v>
+      <c r="E11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>499</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4316,102 +5049,104 @@
         <v>2022</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
-        <v>74</v>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
       <c r="G13" s="2">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>84</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>732</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>733</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>40</v>
+        <v>734</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>42</v>
+        <v>735</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>736</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>43</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4419,522 +5154,524 @@
         <v>2022</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
       <c r="G15" s="2">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>83</v>
+        <v>260</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="A16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>92</v>
+      <c r="G16" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>93</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="2">
         <v>2021</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="B17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1350</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
-        <v>78</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="G18" s="2">
+        <v>151</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3746</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>683</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="307" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>2020</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>400</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>402</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>176</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>2024</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>621</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>111</v>
+        <v>218</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>513</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>21</v>
+        <v>647</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>116</v>
+        <v>622</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>117</v>
+        <v>623</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>42</v>
+        <v>227</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>125</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>60</v>
+        <v>1233</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>129</v>
+        <v>285</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>130</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>40</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="2">
-        <v>117</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1228</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>12047</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
-        <v>900</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>900</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>141</v>
+        <v>291</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>60</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>29</v>
+        <v>704</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>147</v>
+        <v>253</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2">
-        <v>1350</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>148</v>
+        <v>8000</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4942,343 +5679,349 @@
         <v>2023</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>722</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>158</v>
+        <v>723</v>
       </c>
       <c r="F31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>159</v>
+        <v>724</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>160</v>
+        <v>725</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>161</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>163</v>
+        <v>289</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>150</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>165</v>
+        <v>21165</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>199</v>
+      </c>
       <c r="H33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>176</v>
+        <v>52</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="A35" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>30</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>40</v>
+      <c r="D35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>402</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>42</v>
+        <v>104</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>314</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5826</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="307" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="2">
-        <v>767</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="2"/>
       <c r="G37" s="2">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>42</v>
+        <v>575</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>43</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>227</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="7">
         <v>1</v>
       </c>
-      <c r="G38" s="2">
-        <v>30</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>50</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>194</v>
+      <c r="G39" s="7">
+        <v>176</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -5286,518 +6029,524 @@
         <v>2020</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
       <c r="G40" s="2">
-        <v>66</v>
+        <v>4586</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="F41" s="2">
-        <v>15</v>
-      </c>
-      <c r="G41" s="2">
-        <v>447</v>
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>2000</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>201</v>
+        <v>2004</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="F42" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>447</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>205</v>
+        <v>65</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="F43" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
-        <v>447</v>
+        <v>310</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>207</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>208</v>
+        <v>676</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>203</v>
+        <v>677</v>
       </c>
       <c r="F44" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G44" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>209</v>
+        <v>678</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>210</v>
+        <v>679</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>211</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2</v>
-      </c>
-      <c r="G45" s="2">
-        <v>227</v>
+      <c r="A45" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1611</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>216</v>
+        <v>15</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="7">
         <v>2024</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" s="2">
-        <v>50</v>
-      </c>
-      <c r="G46" s="2">
-        <v>616</v>
+      <c r="B46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1611</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>220</v>
+        <v>606</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G47" s="2">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>228</v>
+        <v>2020</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>347</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="F48" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>5195</v>
+        <v>482</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>230</v>
+        <v>52</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
         <v>233</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F49" s="2">
-        <v>3</v>
-      </c>
-      <c r="G49" s="2">
-        <v>42</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
       <c r="F50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="5" t="s">
-        <v>244</v>
+        <v>390</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>499</v>
-      </c>
-      <c r="H51" s="2"/>
+        <v>3868</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="I51" s="5" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>32</v>
+        <v>365</v>
       </c>
       <c r="F52" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>1500</v>
+        <v>165</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>256</v>
+        <v>366</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>258</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G53" s="2">
+        <v>42</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="J53" s="5" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>500</v>
+        <v>999</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>249</v>
+        <v>21</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -5805,1286 +6554,1292 @@
         <v>2022</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>267</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>66</v>
+      <c r="G55" s="2">
+        <v>74</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>270</v>
+        <v>21</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>272</v>
+        <v>693</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>694</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>274</v>
+        <v>138</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="F56" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G56" s="2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>276</v>
+        <v>21</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>697</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>277</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>228</v>
+        <v>4607</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>282</v>
+        <v>376</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>283</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>284</v>
+        <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>288</v>
+        <v>159</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="398" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3773</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="333" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>2022</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="307" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>300</v>
+        <v>271</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>647</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>303</v>
+        <v>522</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>241</v>
+        <v>639</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>305</v>
+        <v>640</v>
       </c>
       <c r="F61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="2">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>306</v>
+        <v>641</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>307</v>
+        <v>642</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>308</v>
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" s="2">
-        <v>1233</v>
+        <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>313</v>
+        <v>65</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>658</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>659</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>158</v>
+        <v>660</v>
       </c>
       <c r="F63" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>159</v>
+        <v>661</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>160</v>
+        <v>662</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>161</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="F64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="2">
-        <v>12047</v>
-      </c>
-      <c r="H64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>319</v>
+      <c r="I64" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>704</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>301</v>
+        <v>100</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>323</v>
+        <v>66</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="F66" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G66" s="2">
-        <v>8000</v>
+        <v>1460</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>329</v>
+        <v>300</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
       <c r="F67" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67" s="2">
-        <v>197</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>334</v>
+        <v>3694</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>180</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <v>2021</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2</v>
-      </c>
-      <c r="G68" s="2">
-        <v>21165</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>341</v>
+      <c r="B69" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="2">
-        <v>2</v>
-      </c>
-      <c r="G69" s="2">
-        <v>5826</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>343</v>
+        <v>12</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="7">
+        <v>3</v>
+      </c>
+      <c r="G69" s="7">
+        <v>489</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="F70" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2">
-        <v>4586</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>349</v>
+        <v>8000</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>351</v>
+        <v>670</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>352</v>
+        <v>671</v>
       </c>
       <c r="F71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="12">
-        <v>2000</v>
+        <v>11</v>
+      </c>
+      <c r="G71" s="2">
+        <v>30</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>353</v>
+        <v>673</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>354</v>
+        <v>674</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>355</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>32</v>
+        <v>2020</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>358</v>
+        <v>125</v>
       </c>
       <c r="F72" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G72" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>360</v>
+        <v>88</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>361</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="F73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" s="2">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="F74" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>160</v>
+        <v>13718</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>373</v>
+        <v>2025</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>374</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>375</v>
+        <v>665</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
-      <c r="G75" s="2">
-        <v>482</v>
+      <c r="G75" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>376</v>
+        <v>21</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>377</v>
+        <v>668</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>378</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="2">
-        <v>233</v>
+        <v>1010</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="385" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2020</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="F77" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G77" s="2">
-        <v>390</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>280</v>
+        <v>307</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>385</v>
+        <v>652</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>171</v>
+        <v>653</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>386</v>
+        <v>138</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>654</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>3868</v>
+        <v>1506</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>390</v>
+        <v>655</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>388</v>
+        <v>656</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>389</v>
+        <v>657</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>391</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>393</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>165</v>
+        <v>513</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>396</v>
+        <v>114</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>397</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" s="2">
-        <v>999</v>
+        <v>191</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>401</v>
+        <v>436</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>235</v>
+        <v>440</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>404</v>
+        <v>225</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="2">
-        <v>4607</v>
+        <v>120</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>405</v>
+        <v>65</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="398" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2021</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>409</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>410</v>
+        <v>279</v>
       </c>
       <c r="F82" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82" s="2">
-        <v>3773</v>
+        <v>150</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>411</v>
+        <v>65</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="333" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
-      <c r="G83" s="2">
-        <v>522</v>
+      <c r="G83" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>319</v>
+        <v>450</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F84" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
       <c r="G84" s="2">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>421</v>
+        <v>41</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>422</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>423</v>
+        <v>38</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="F85" s="2">
         <v>2</v>
       </c>
       <c r="G85" s="2">
+        <v>394</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>427</v>
+      <c r="J85" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>428</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>429</v>
+        <v>760</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>430</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" s="2">
-        <v>1460</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="4" t="s">
-        <v>432</v>
+        <v>190</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>433</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>434</v>
+        <v>600</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>436</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" s="2">
-        <v>3694</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>440</v>
+        <v>42</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>441</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>442</v>
+        <v>612</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>443</v>
+        <v>169</v>
       </c>
       <c r="F88" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G88" s="2">
-        <v>8000</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>445</v>
+        <v>30</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>446</v>
+        <v>42</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>447</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>448</v>
+        <v>598</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="2">
-        <v>13718</v>
+        <v>201</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>451</v>
+        <v>80</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>452</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>453</v>
+        <v>601</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>454</v>
+        <v>602</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="2">
-        <v>1010</v>
+        <v>96</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>456</v>
+        <v>81</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="385" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>458</v>
+        <v>603</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>459</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G91" s="2">
-        <v>307</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>461</v>
+        <v>420</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>462</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7092,380 +7847,384 @@
         <v>2022</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>463</v>
+        <v>613</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>464</v>
+        <v>176</v>
       </c>
       <c r="F92" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="2">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>466</v>
+        <v>40</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>467</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>468</v>
+        <v>177</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>469</v>
+        <v>178</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" s="2">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>471</v>
+        <v>179</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>472</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="7">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7">
+        <v>88</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
         <v>2021</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B96" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F94" s="2">
-        <v>3</v>
-      </c>
-      <c r="G94" s="2">
-        <v>150</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="D96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7">
+        <v>78</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F95" s="2">
+      <c r="D97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" s="7">
         <v>1</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2">
-        <v>61</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F97" s="2">
-        <v>2</v>
-      </c>
-      <c r="G97" s="2">
-        <v>394</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>83</v>
+      <c r="G97" s="7">
+        <v>400</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>484</v>
+        <v>577</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>291</v>
+        <v>578</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>487</v>
+        <v>54</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>490</v>
+        <v>581</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>491</v>
+        <v>644</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>492</v>
+        <v>645</v>
       </c>
       <c r="F99" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" s="2">
-        <v>606</v>
+        <v>434</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>493</v>
+        <v>646</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>494</v>
+        <v>647</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>495</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>496</v>
+        <v>686</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>687</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>273</v>
+        <v>688</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>352</v>
+        <v>689</v>
       </c>
       <c r="F100" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G100" s="2">
-        <v>300</v>
+        <v>1672</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>497</v>
+        <v>277</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>498</v>
+        <v>690</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>499</v>
+        <v>691</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>500</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
       <c r="G101" s="2">
-        <v>40</v>
+        <v>606</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>485</v>
+        <v>253</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>507</v>
+        <v>325</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
-      <c r="G102" s="12">
-        <v>20000</v>
+      <c r="G102" s="2">
+        <v>300</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>327</v>
+        <v>468</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7473,242 +8232,244 @@
         <v>2022</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>512</v>
+        <v>13</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="F103" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103" s="2">
-        <v>488</v>
+        <v>40</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>514</v>
+        <v>474</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>45</v>
+        <v>477</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
       </c>
-      <c r="G104" s="2">
-        <v>130</v>
+      <c r="G104" s="12">
+        <v>20000</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>519</v>
+        <v>300</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>522</v>
+        <v>630</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>523</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>524</v>
+        <v>171</v>
       </c>
       <c r="F105" s="2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G105" s="2">
-        <v>359</v>
+        <v>2238</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>525</v>
+        <v>141</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>526</v>
+        <v>631</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>527</v>
+        <v>632</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>528</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>529</v>
+        <v>170</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F106" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
       <c r="G106" s="2">
-        <v>131</v>
+        <v>767</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>531</v>
+        <v>173</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>532</v>
+        <v>174</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>153</v>
+        <v>395</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>535</v>
+        <v>330</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
       <c r="F107" s="2">
         <v>2</v>
       </c>
       <c r="G107" s="2">
-        <v>4000</v>
+        <v>488</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I107" s="4" t="s">
-        <v>537</v>
+      <c r="I107" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>539</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2022</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>424</v>
+      <c r="B108" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="F108" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" s="2">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>543</v>
+        <v>489</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>545</v>
+        <v>706</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>57</v>
+        <v>707</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>708</v>
       </c>
       <c r="F109" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="2">
-        <v>2561</v>
+        <v>5567</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>546</v>
+        <v>709</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>547</v>
+        <v>710</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>548</v>
+        <v>711</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7716,487 +8477,489 @@
         <v>2022</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>153</v>
+        <v>494</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>550</v>
+        <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="F110" s="2">
+        <v>29</v>
+      </c>
       <c r="G110" s="2">
-        <v>1500</v>
+        <v>359</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>552</v>
+        <v>496</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>555</v>
+        <v>754</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>279</v>
+        <v>755</v>
       </c>
       <c r="F111" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G111" s="2">
-        <v>501</v>
+        <v>100</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>557</v>
+        <v>191</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>757</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>558</v>
+        <v>758</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>559</v>
+        <v>754</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>158</v>
+        <v>755</v>
       </c>
       <c r="F112" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G112" s="2">
-        <v>992</v>
+        <v>50000</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>561</v>
+        <v>759</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>757</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>562</v>
+        <v>758</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>564</v>
+        <v>145</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" s="2">
-        <v>5635</v>
+        <v>1500</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>66</v>
+        <v>409</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>66</v>
+        <v>625</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>568</v>
+        <v>738</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>523</v>
+        <v>739</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>311</v>
+        <v>740</v>
       </c>
       <c r="F114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" s="2">
-        <v>38824</v>
+        <v>136</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>569</v>
+        <v>741</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>570</v>
+        <v>742</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>571</v>
+        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>572</v>
+        <v>182</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>435</v>
+        <v>145</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>436</v>
+        <v>178</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>573</v>
+        <v>176</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" s="2">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>575</v>
+        <v>141</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>576</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>578</v>
+        <v>501</v>
       </c>
       <c r="F116" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G116" s="2">
-        <v>2568</v>
+        <v>131</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="J116" s="14" t="s">
-        <v>580</v>
+        <v>502</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>581</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>583</v>
+        <v>701</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="F117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" s="2">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>585</v>
+        <v>21</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>586</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="F118" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G118" s="2">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>588</v>
+        <v>21</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>589</v>
+        <v>186</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>590</v>
+        <v>187</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2022</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>592</v>
+      <c r="B119" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>593</v>
+        <v>330</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>594</v>
+        <v>511</v>
       </c>
       <c r="F119" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="2">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="J119" s="10" t="s">
-        <v>596</v>
+        <v>52</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>597</v>
+        <v>514</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>598</v>
+        <v>2022</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>599</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>600</v>
+        <v>33</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="2">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>602</v>
+        <v>21</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>603</v>
+        <v>35</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>604</v>
+        <v>36</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>605</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>598</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>599</v>
+        <v>58</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>606</v>
+        <v>119</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="2">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>602</v>
+        <v>120</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>603</v>
+        <v>121</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>604</v>
+        <v>122</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="307" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>608</v>
+        <v>530</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>600</v>
+        <v>218</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="F122" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>66</v>
+        <v>593</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>66</v>
+        <v>594</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>613</v>
+        <v>530</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>507</v>
+        <v>592</v>
       </c>
       <c r="F123" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G123" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="K123" s="15" t="s">
-        <v>617</v>
+        <v>595</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -8204,558 +8967,1050 @@
         <v>2024</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" s="2">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="J124" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>627</v>
+      </c>
       <c r="K124" s="15" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>618</v>
+        <v>681</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>619</v>
+        <v>456</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>623</v>
+        <v>682</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
-      <c r="G125" s="2">
-        <v>30</v>
+      <c r="G125" s="12">
+        <v>8000</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="J125" s="2"/>
-      <c r="K125" s="15" t="s">
-        <v>622</v>
+        <v>683</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="F126" s="2">
+        <v>15</v>
+      </c>
+      <c r="G126" s="2">
+        <v>447</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F126" s="2">
-        <v>1</v>
-      </c>
-      <c r="G126" s="2">
-        <v>11</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="J126" s="2"/>
-      <c r="K126" s="15" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>618</v>
+        <v>188</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>619</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>375</v>
+        <v>544</v>
       </c>
       <c r="F127" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="J127" s="2"/>
-      <c r="K127" s="15" t="s">
-        <v>622</v>
+        <v>192</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>625</v>
+        <v>188</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="F128" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2">
-        <v>125</v>
+        <v>447</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>626</v>
+        <v>192</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>627</v>
+        <v>193</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>628</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>625</v>
+        <v>195</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>629</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="F129" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>626</v>
+        <v>196</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>627</v>
+        <v>197</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>628</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>630</v>
+        <v>2025</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>763</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="F130" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G130" s="2">
-        <v>32</v>
+        <v>900</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>634</v>
+        <v>21</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>715</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="12">
+        <v>8800</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
         <v>2022</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="B132" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2">
+        <v>113</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>2561</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>7</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F135" s="2">
+        <v>9</v>
+      </c>
+      <c r="G135" s="2">
+        <v>500</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2">
+        <v>125</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2">
+        <v>125</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F138" s="2">
+        <v>117</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1228</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F139" s="2">
+        <v>50</v>
+      </c>
+      <c r="G139" s="2">
+        <v>616</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <v>108</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>501</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F131" s="2">
+      <c r="D142" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2">
         <v>5</v>
       </c>
-      <c r="G131" s="2">
-        <v>14</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+      <c r="H142" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <v>5</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2">
+        <v>992</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2">
+        <v>5635</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+      <c r="G146" s="2">
+        <v>38824</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+      <c r="G147" s="2">
+        <v>206</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F148" s="2">
+        <v>26</v>
+      </c>
+      <c r="G148" s="2">
+        <v>2568</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J148" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2">
+        <v>40</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+      <c r="G150" s="2">
+        <v>233</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2">
+        <v>60</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="2">
+        <v>16</v>
+      </c>
+      <c r="G152" s="2">
+        <v>170</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2">
+        <v>63</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
@@ -19495,283 +20750,226 @@
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A980" s="2"/>
-      <c r="B980" s="2"/>
-      <c r="C980" s="2"/>
-      <c r="D980" s="2"/>
-      <c r="E980" s="2"/>
-      <c r="F980" s="2"/>
-      <c r="G980" s="2"/>
-      <c r="H980" s="2"/>
-      <c r="I980" s="2"/>
-      <c r="J980" s="2"/>
-      <c r="K980" s="2"/>
-    </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A981" s="2"/>
-      <c r="B981" s="2"/>
-      <c r="C981" s="2"/>
-      <c r="D981" s="2"/>
-      <c r="E981" s="2"/>
-      <c r="F981" s="2"/>
-      <c r="G981" s="2"/>
-      <c r="H981" s="2"/>
-      <c r="I981" s="2"/>
-      <c r="J981" s="2"/>
-      <c r="K981" s="2"/>
-    </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
-      <c r="C982" s="2"/>
-      <c r="D982" s="2"/>
-      <c r="E982" s="2"/>
-      <c r="F982" s="2"/>
-      <c r="G982" s="2"/>
-      <c r="H982" s="2"/>
-      <c r="I982" s="2"/>
-      <c r="J982" s="2"/>
-      <c r="K982" s="2"/>
-    </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A983" s="2"/>
-      <c r="B983" s="2"/>
-      <c r="C983" s="2"/>
-      <c r="D983" s="2"/>
-      <c r="E983" s="2"/>
-      <c r="F983" s="2"/>
-      <c r="G983" s="2"/>
-      <c r="H983" s="2"/>
-      <c r="I983" s="2"/>
-      <c r="J983" s="2"/>
-      <c r="K983" s="2"/>
-    </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A984" s="2"/>
-      <c r="B984" s="2"/>
-      <c r="C984" s="2"/>
-      <c r="D984" s="2"/>
-      <c r="E984" s="2"/>
-      <c r="F984" s="2"/>
-      <c r="G984" s="2"/>
-      <c r="H984" s="2"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="2"/>
-      <c r="K984" s="2"/>
-    </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A985" s="2"/>
-      <c r="B985" s="2"/>
-      <c r="C985" s="2"/>
-      <c r="D985" s="2"/>
-      <c r="E985" s="2"/>
-      <c r="F985" s="2"/>
-      <c r="G985" s="2"/>
-      <c r="H985" s="2"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="2"/>
-      <c r="K985" s="2"/>
-    </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
-      <c r="C986" s="2"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="2"/>
-      <c r="F986" s="2"/>
-      <c r="G986" s="2"/>
-      <c r="H986" s="2"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="2"/>
-      <c r="K986" s="2"/>
-    </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
-      <c r="C987" s="2"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="2"/>
-      <c r="F987" s="2"/>
-      <c r="G987" s="2"/>
-      <c r="H987" s="2"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="2"/>
-      <c r="K987" s="2"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K983">
+    <sortCondition ref="B2:B983"/>
+    <sortCondition ref="A2:A983"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="https://arxiv.org/abs/2010.14808" xr:uid="{38B35972-C1F5-E744-A260-105B40A95D38}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{C966A696-0CA4-1C4E-A865-D258A1553938}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://multicenteraorta.grand-challenge.org/" xr:uid="{28A68DE1-A7D6-9D46-89CB-524EF7E5D599}"/>
-    <hyperlink ref="I5" r:id="rId4" display="https://figshare.com/articles/dataset/Aortic_Vessel_Tree_AVT_CTA_Datasets_and_Segmentations/14806362" xr:uid="{D0325392-9602-3440-A746-4433E43AFCA9}"/>
-    <hyperlink ref="J5" r:id="rId5" display="https://arxiv.org/abs/2310.04114" xr:uid="{894EE79E-E038-094D-8721-1A1B3BE9DBE8}"/>
-    <hyperlink ref="I6" r:id="rId6" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{08A321BB-D435-2C44-AE9E-8766458ADF80}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{55F0866D-4CCA-E345-B9E0-B6EEF35DBAFA}"/>
-    <hyperlink ref="J8" r:id="rId8" xr:uid="{7F45307C-8C91-0742-9958-81A2D285FDE0}"/>
-    <hyperlink ref="I9" r:id="rId9" location=".ZBtfBHbMJaQ" display="https://zenodo.org/records/7442914 - .ZBtfBHbMJaQ" xr:uid="{7123D32C-0B5A-344A-924C-D84F18E13125}"/>
-    <hyperlink ref="J9" r:id="rId10" xr:uid="{E0F88A96-52DD-A943-9FDE-E9A2196ECE04}"/>
-    <hyperlink ref="I10" r:id="rId11" xr:uid="{9AA4B409-D619-9841-A4C9-1412C00E5817}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{9999ADA5-F0BE-DD45-A3FE-13845341E448}"/>
-    <hyperlink ref="I13" r:id="rId13" xr:uid="{51AF7050-3972-3945-B4F5-B025B543F23C}"/>
-    <hyperlink ref="I14" r:id="rId14" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{1690D453-55E8-EE49-BBB9-3D1D6B2682E2}"/>
-    <hyperlink ref="I15" r:id="rId15" xr:uid="{A5661A50-1695-A840-A8E4-FD58F124008E}"/>
-    <hyperlink ref="J17" r:id="rId16" xr:uid="{20C59970-2E64-4945-93B8-16A5786F6C14}"/>
-    <hyperlink ref="I19" r:id="rId17" xr:uid="{77BE6C1B-55BD-854B-AEB8-588331227913}"/>
-    <hyperlink ref="I21" r:id="rId18" xr:uid="{16EB015A-DBDF-3C45-8C1F-0E4343B91220}"/>
-    <hyperlink ref="J21" r:id="rId19" xr:uid="{8AB4760C-554A-0F43-8FEA-7FB477783953}"/>
-    <hyperlink ref="I22" r:id="rId20" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{BADEB1A8-CA77-1F44-A2D3-29765F312A9D}"/>
-    <hyperlink ref="I23" r:id="rId21" display="https://drive.google.com/drive/folders/115mzmNlZRIewnSR2QFDwW_-RkNM0LC9D" xr:uid="{5884B4B8-39AB-FD4C-B304-73D997E134B8}"/>
-    <hyperlink ref="J23" r:id="rId22" xr:uid="{03448AB8-9283-1E49-94C0-3765A6815D08}"/>
-    <hyperlink ref="J25" r:id="rId23" xr:uid="{970AC471-2EE1-A643-89F6-CF7A8E1916F3}"/>
-    <hyperlink ref="I26" r:id="rId24" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=93258287" xr:uid="{ABEA1AFB-1FC5-DE43-9602-DD078147262A}"/>
-    <hyperlink ref="J26" r:id="rId25" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{088E3FFC-BAE7-6641-8EE4-DFCB0316BEB1}"/>
-    <hyperlink ref="I27" r:id="rId26" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=93258287" xr:uid="{30A00AA1-99D9-BF4E-B381-9C1B69C2C4A3}"/>
-    <hyperlink ref="J27" r:id="rId27" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{A3BBD6E9-403F-A946-96D5-64EDAF57514B}"/>
-    <hyperlink ref="J28" r:id="rId28" xr:uid="{5B8F91AE-F581-4245-A941-952D7755671E}"/>
-    <hyperlink ref="I30" r:id="rId29" xr:uid="{B44B12FA-7AC6-8249-90D6-99D9CD63A841}"/>
-    <hyperlink ref="J30" r:id="rId30" xr:uid="{DDDC8DDC-1B66-6243-8CCE-8CF48FCBC968}"/>
-    <hyperlink ref="I31" r:id="rId31" xr:uid="{4946E5F2-74A4-0149-B6D8-3F7EE92A0EFE}"/>
-    <hyperlink ref="J31" r:id="rId32" xr:uid="{8867453F-FB85-154E-82F2-12B6F81FD9B2}"/>
-    <hyperlink ref="I32" r:id="rId33" location="collection/637218c173e9f0047faa00fb" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/637218c173e9f0047faa00fb" xr:uid="{471882C5-6077-6249-B1E7-CFBE5A7996C1}"/>
-    <hyperlink ref="J32" r:id="rId34" xr:uid="{ECEB0D60-2C16-064D-AF62-0180B96C2E50}"/>
-    <hyperlink ref="I33" r:id="rId35" xr:uid="{B606D2BA-75E8-D04E-B2F5-7B3429F4023E}"/>
-    <hyperlink ref="J33" r:id="rId36" xr:uid="{2423CC59-A44D-9749-9C1A-86CE1643DA86}"/>
-    <hyperlink ref="I35" r:id="rId37" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{5EF39477-13FE-6846-A30D-CE5BE6DBA172}"/>
-    <hyperlink ref="I36" r:id="rId38" xr:uid="{6A6C6BB9-DE42-674E-9EB1-97A474FD2C04}"/>
-    <hyperlink ref="J36" r:id="rId39" xr:uid="{76C27D1F-40A7-8F46-AFC1-115F54DB1DDD}"/>
-    <hyperlink ref="I37" r:id="rId40" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{DE917BF8-4FFD-F24B-A376-922C66471DD2}"/>
-    <hyperlink ref="I38" r:id="rId41" display="https://wiki.cancerimagingarchive.net/display/Public/NCI-ISBI+2013+Challenge+-+Automated+Segmentation+of+Prostate+Structures" xr:uid="{F896C20B-2341-F546-AEBD-7B4CCD978330}"/>
-    <hyperlink ref="J38" r:id="rId42" xr:uid="{7AF0BE5F-8036-0A40-96EB-AFB7CD13735A}"/>
-    <hyperlink ref="J39" r:id="rId43" display="https://promise12.grand-challenge.org/Details/" xr:uid="{3163A889-FB51-4649-840B-7C181E45C529}"/>
-    <hyperlink ref="I40" r:id="rId44" display="https://wiki.cancerimagingarchive.net/display/Public/QIN-PROSTATE-Repeatability" xr:uid="{B7E2CF7A-6AC9-934A-AEEA-19BA6FF491E5}"/>
-    <hyperlink ref="J40" r:id="rId45" xr:uid="{3387FC15-751B-A747-AFEE-5AF5D60ACAF6}"/>
-    <hyperlink ref="I41" r:id="rId46" xr:uid="{573DF7EB-0A8D-EB42-87D8-0DBAB7F98088}"/>
-    <hyperlink ref="J41" r:id="rId47" xr:uid="{4A8F6AB6-24B9-274A-8F39-717D0A73E510}"/>
-    <hyperlink ref="I42" r:id="rId48" xr:uid="{41750829-A9A3-7641-A5EA-A86205604EA1}"/>
-    <hyperlink ref="J42" r:id="rId49" xr:uid="{3ECB8A70-D0AD-1F47-8552-223F1CFD2344}"/>
-    <hyperlink ref="I43" r:id="rId50" xr:uid="{E5B5A099-05B8-1540-912B-8EF78B3E01B0}"/>
-    <hyperlink ref="J43" r:id="rId51" xr:uid="{07CCE40F-CA1E-B44A-9C16-032741C34BEE}"/>
-    <hyperlink ref="I44" r:id="rId52" xr:uid="{AEE4009F-88AD-D842-93D3-E13B223F658F}"/>
-    <hyperlink ref="J44" r:id="rId53" xr:uid="{EFDD6879-D5A9-674A-A2F9-5F915BC7227C}"/>
-    <hyperlink ref="J45" r:id="rId54" xr:uid="{4FCB3685-BD42-D845-BC45-2313DBC89FF6}"/>
-    <hyperlink ref="I46" r:id="rId55" xr:uid="{CBC323CB-5766-CE45-8830-B4CAE11D2084}"/>
-    <hyperlink ref="J46" r:id="rId56" xr:uid="{5FFD44A7-DEAC-294B-A1A8-980456783F5F}"/>
-    <hyperlink ref="I48" r:id="rId57" xr:uid="{56AB8134-2447-A44B-9D41-F00DF82D2671}"/>
-    <hyperlink ref="J48" r:id="rId58" xr:uid="{344FE4E5-B32C-E148-AEE0-A01B504A5F30}"/>
-    <hyperlink ref="I49" r:id="rId59" xr:uid="{52009E89-8AE2-B542-B33D-4B5AA06B6E6B}"/>
-    <hyperlink ref="J49" r:id="rId60" xr:uid="{8DE16651-A162-B64E-B6F1-97BC1AE772EE}"/>
-    <hyperlink ref="I50" r:id="rId61" xr:uid="{E7A108EA-9536-2F4E-BD15-6E298271CD0A}"/>
-    <hyperlink ref="J50" r:id="rId62" xr:uid="{EB2E4626-5CC0-BA4C-9B69-C815B2369284}"/>
-    <hyperlink ref="I51" r:id="rId63" xr:uid="{6B105C02-0AE3-E14E-9241-F89F21B5F728}"/>
-    <hyperlink ref="J51" r:id="rId64" xr:uid="{A47A61C0-AC09-7E41-A438-57E3A6537B18}"/>
-    <hyperlink ref="I52" r:id="rId65" xr:uid="{CE4D6067-CA95-4C4D-89F3-751A96E344F4}"/>
-    <hyperlink ref="J52" r:id="rId66" xr:uid="{6E36B6A1-6ACC-2843-B7D8-A818E462D257}"/>
-    <hyperlink ref="I53" r:id="rId67" xr:uid="{C97B2406-981B-3544-B5AF-5E5443E6C1CC}"/>
-    <hyperlink ref="J53" r:id="rId68" xr:uid="{B3379A4B-7AC3-5344-B8B6-F119DA487FB9}"/>
-    <hyperlink ref="I54" r:id="rId69" xr:uid="{C044EBE3-9023-3047-B9FA-CCE6C5DBFB5F}"/>
-    <hyperlink ref="I55" r:id="rId70" display="https://aggc22.grand-challenge.org/AGGC22/" xr:uid="{5DE141E5-AA62-9841-9D69-6D04A77E1E58}"/>
-    <hyperlink ref="J55" r:id="rId71" xr:uid="{8AFA7835-FB78-6E4F-8AA4-31CC71C4A8CC}"/>
-    <hyperlink ref="J57" r:id="rId72" xr:uid="{47104454-2576-6E43-B4B0-2EE9512CC81B}"/>
-    <hyperlink ref="I58" r:id="rId73" display="https://brainptm-2021.grand-challenge.org/Participation/" xr:uid="{81D7E556-2397-154C-89F7-0514FA640906}"/>
-    <hyperlink ref="I59" r:id="rId74" display="https://github.com/PathologyDataScience/BCSS" xr:uid="{91FF2494-82B0-3341-89DB-0514B2F84030}"/>
-    <hyperlink ref="J59" r:id="rId75" xr:uid="{1C28A65F-B0DE-DD48-9315-550C87CB2E57}"/>
-    <hyperlink ref="J60" r:id="rId76" display="https://www.kaggle.com/datasets/aryashah2k/breast-ultrasound-images-dataset" xr:uid="{4E43E2EA-4A70-544B-8BDF-87AAF2D4099D}"/>
-    <hyperlink ref="I61" r:id="rId77" location="collection/6373703d73e9f0047faa1bc8" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/6373703d73e9f0047faa1bc8" xr:uid="{CB9BB807-1003-A44B-BDE9-35EA0B8155BB}"/>
-    <hyperlink ref="J61" r:id="rId78" xr:uid="{0B208DC3-C489-2C41-9845-7EAD444D8705}"/>
-    <hyperlink ref="J62" r:id="rId79" display="https://doi.org/10.7937/29kw-ae92" xr:uid="{9FD5F91E-9967-8140-BA68-CF11B7927235}"/>
-    <hyperlink ref="I63" r:id="rId80" xr:uid="{3CE64413-CEE7-1643-B045-1BC22C2F0C1E}"/>
-    <hyperlink ref="J63" r:id="rId81" xr:uid="{85C28FDF-1E93-E745-80CA-247A60E3D335}"/>
-    <hyperlink ref="I64" r:id="rId82" xr:uid="{84A0AC14-9BD5-EC47-8EDB-28740372EE54}"/>
-    <hyperlink ref="I65" r:id="rId83" xr:uid="{39A55EC6-4F55-A948-BD86-5C5272523E48}"/>
-    <hyperlink ref="J65" r:id="rId84" display="https://www.kaggle.com/datasets/nikhilpandey360/chest-xray-masks-and-labels" xr:uid="{C245F122-AACD-9647-A305-C6551EC0486F}"/>
-    <hyperlink ref="I67" r:id="rId85" display="https://www.cancerimagingarchive.net/collection/colorectal-liver-metastases/" xr:uid="{00CC77B6-AF17-6C41-928F-DEB2B7B7332F}"/>
-    <hyperlink ref="J67" r:id="rId86" display="https://doi.org/10.7937/QXK2-QG03" xr:uid="{FAE8DEBA-295F-F545-B147-78A9D8D78A1A}"/>
-    <hyperlink ref="I69" r:id="rId87" xr:uid="{FC267058-924A-6447-A788-9C74FAB46385}"/>
-    <hyperlink ref="J69" r:id="rId88" display="https://doi.org/10.1016/j.compbiomed.2021.105002" xr:uid="{4F9C3C6A-6CBB-B64A-8AF6-BFBA1729F1EB}"/>
-    <hyperlink ref="I70" r:id="rId89" display="https://www.kaggle.com/datasets/siatsyx/ct2usforkidneyseg" xr:uid="{1AE6AA0E-17CA-C44B-A2DD-29B2E365FE3D}"/>
-    <hyperlink ref="J70" r:id="rId90" xr:uid="{CDC02B75-3BF6-494D-8EB2-285B7C3F8493}"/>
-    <hyperlink ref="I71" r:id="rId91" display="https://dfu-challenge.github.io/" xr:uid="{9175B41E-2376-044C-A594-974D12B0553A}"/>
-    <hyperlink ref="J71" r:id="rId92" xr:uid="{D65EE478-811A-6244-9134-648934FB6487}"/>
-    <hyperlink ref="J72" r:id="rId93" xr:uid="{16EA8E3A-870B-D64F-B822-A7651C5189DD}"/>
-    <hyperlink ref="I73" r:id="rId94" xr:uid="{D1CDB26B-86F2-E248-893F-8820CB982CCC}"/>
-    <hyperlink ref="J73" r:id="rId95" xr:uid="{CB4BEA9D-D225-D24C-9188-9540D3B29E94}"/>
-    <hyperlink ref="J75" r:id="rId96" xr:uid="{67E1F506-0B66-8748-90F4-B52407EAC776}"/>
-    <hyperlink ref="I76" r:id="rId97" display="https://www.kaggle.com/datasets/ashkhagan/figshare-brain-tumor-dataset" xr:uid="{07AD2D86-67F3-7748-A738-54B7C150F42E}"/>
-    <hyperlink ref="J76" r:id="rId98" xr:uid="{F8B7615F-6FE3-B245-B8FA-84FF1EBF8336}"/>
-    <hyperlink ref="J77" r:id="rId99" xr:uid="{9B7EAA1E-1611-114F-8E51-7A9D17956C53}"/>
-    <hyperlink ref="I78" r:id="rId100" xr:uid="{AD465BFD-DD21-3340-B475-2DE736967C4E}"/>
-    <hyperlink ref="J78" r:id="rId101" xr:uid="{2B9BB7A5-6CCD-C341-B599-18F6AEB6FD6C}"/>
-    <hyperlink ref="I79" r:id="rId102" display="https://www.kaggle.com/datasets/sani84/glasmiccai2015-gland-segmentation" xr:uid="{8B6A04A9-4BA1-A247-A064-78AEC7F3AD1A}"/>
-    <hyperlink ref="I82" r:id="rId103" display="https://www.kaggle.com/competitions/hubmap-kidney-segmentation/data?select=test" xr:uid="{141FD765-F314-C449-8C33-DA8CCADD9C30}"/>
-    <hyperlink ref="J82" r:id="rId104" xr:uid="{81BBD172-616E-5B4D-BE6D-AA6849F4544C}"/>
-    <hyperlink ref="I83" r:id="rId105" display="https://www.kaggle.com/competitions/hubmap-organ-segmentation/" xr:uid="{17E1B374-A2AE-F44A-B351-A57210733005}"/>
-    <hyperlink ref="I84" r:id="rId106" location="prostate-data" display="https://i2cvb.github.io/ - prostate-data" xr:uid="{92399DAA-2D4C-EB4F-982B-84116E360F43}"/>
-    <hyperlink ref="J84" r:id="rId107" xr:uid="{5ACE624A-2EBD-A04D-992D-AEFD692CE132}"/>
-    <hyperlink ref="I90" r:id="rId108" xr:uid="{171DC030-C353-5143-B7DA-ADF4A6A50F8D}"/>
-    <hyperlink ref="J90" r:id="rId109" xr:uid="{369BCE82-6315-E84B-93FE-384361A3B351}"/>
-    <hyperlink ref="J91" r:id="rId110" xr:uid="{F346E875-20B8-D147-A8E1-CEF19C954386}"/>
-    <hyperlink ref="J92" r:id="rId111" display="https://www.cancerimagingarchive.net/collection/meningioma-seg-class/" xr:uid="{8AF57B6C-EB09-E049-BBA1-F3BDB2C49325}"/>
-    <hyperlink ref="I93" r:id="rId112" xr:uid="{5572249C-B69A-8E40-8122-1E02BBAE5670}"/>
-    <hyperlink ref="J94" r:id="rId113" xr:uid="{77321AC1-896D-8847-941A-3F2018E475E3}"/>
-    <hyperlink ref="I95" r:id="rId114" display="https://www.kaggle.com/datasets/tuanledinh/monuseg2018" xr:uid="{A6F4A1FD-4D0F-6C4B-B54F-AB206093960E}"/>
-    <hyperlink ref="J95" r:id="rId115" xr:uid="{696240A9-424C-1845-A1C1-6C0ADF8680CD}"/>
-    <hyperlink ref="I96" r:id="rId116" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{DEB9393D-691F-324B-946D-F17422922B5E}"/>
-    <hyperlink ref="I97" r:id="rId117" xr:uid="{33F530FF-59E5-AB44-B691-C6527A5CA454}"/>
-    <hyperlink ref="I98" r:id="rId118" xr:uid="{2C649463-6E59-8044-9783-DB94C0820DFC}"/>
-    <hyperlink ref="J98" r:id="rId119" xr:uid="{46CC24F8-7063-A44E-94C8-4CE8113474CB}"/>
-    <hyperlink ref="I99" r:id="rId120" xr:uid="{7BD93DAF-3A59-2844-AC8E-08E22F87DFB5}"/>
-    <hyperlink ref="J99" r:id="rId121" xr:uid="{D7A8011B-10AF-5448-B5E7-118C7213197C}"/>
-    <hyperlink ref="I100" r:id="rId122" display="https://p2ilf.grand-challenge.org/" xr:uid="{1404DCE8-FAA3-714C-AF0E-9D015BB87255}"/>
-    <hyperlink ref="J100" r:id="rId123" xr:uid="{F6D4852E-5000-4B41-A360-BCFE5448B057}"/>
-    <hyperlink ref="I101" r:id="rId124" xr:uid="{73FDE0CE-5B51-3446-95B3-BE64E20CC10B}"/>
-    <hyperlink ref="J101" r:id="rId125" xr:uid="{544A399E-35E5-EF4F-A36A-1C81553C97DF}"/>
-    <hyperlink ref="I102" r:id="rId126" display="https://www.kaggle.com/datasets/andrewmvd/cancer-inst-segmentation-and-classification" xr:uid="{8B613DC6-E739-6848-9634-4FE4DA5587AE}"/>
-    <hyperlink ref="J102" r:id="rId127" xr:uid="{F6BCE962-92FD-0F4C-A6AF-40E4EE0DFF54}"/>
-    <hyperlink ref="I103" r:id="rId128" xr:uid="{A18A8E6F-5271-6F45-A093-84B4027F0BBA}"/>
-    <hyperlink ref="I104" r:id="rId129" display="https://parse2022.grand-challenge.org/Dataset/" xr:uid="{F0DDB8E7-63B5-6D44-8AB7-860EDFDAD58E}"/>
-    <hyperlink ref="J104" r:id="rId130" xr:uid="{7DFDBBE8-53D3-B449-A0A2-52ADB91AF18A}"/>
-    <hyperlink ref="I105" r:id="rId131" xr:uid="{77C8698C-B2EF-2240-BF3B-0D38B423448D}"/>
-    <hyperlink ref="J105" r:id="rId132" xr:uid="{1D83D30B-38AD-FC45-B80A-5425E69EA130}"/>
-    <hyperlink ref="I106" r:id="rId133" display="https://www.cancerimagingarchive.net/collection/prostate-anatomical-edge-cases/" xr:uid="{C1320780-B357-F24D-AA4B-A488BC98BE60}"/>
-    <hyperlink ref="J106" r:id="rId134" xr:uid="{071BBEBD-075E-B744-977D-B908CB8B021D}"/>
-    <hyperlink ref="I109" r:id="rId135" xr:uid="{A50C1D63-6852-914E-A662-04924CA3A274}"/>
-    <hyperlink ref="J109" r:id="rId136" location="11829589e26236b332b8438fbc8f5463e31de8cf" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=11829589 - 11829589e26236b332b8438fbc8f5463e31de8cf" xr:uid="{9B28332F-7E5C-F34A-8803-F5498B461BC6}"/>
-    <hyperlink ref="J110" r:id="rId137" location="ec-research-data" display="https://www.sciencedirect.com/science/article/pii/S1361841521002012 - ec-research-data" xr:uid="{A3EBCA2C-3262-8343-BB52-AC8F69C6F15B}"/>
-    <hyperlink ref="J111" r:id="rId138" xr:uid="{3F35212D-F826-0E48-9513-A93820382117}"/>
-    <hyperlink ref="I112" r:id="rId139" display="https://www.kaggle.com/datasets/ignaciorlando/ussimandsegm" xr:uid="{1896692F-360D-F54D-90D9-27F528439F48}"/>
-    <hyperlink ref="J112" r:id="rId140" xr:uid="{3CDC20A8-47E6-6942-AE3D-ADA96AD8A78E}"/>
-    <hyperlink ref="I113" r:id="rId141" display="https://www.kaggle.com/competitions/ultrasound-nerve-segmentation/data" xr:uid="{D4AC6C0F-EDE6-A04C-935D-E35B473E0B1C}"/>
-    <hyperlink ref="I114" r:id="rId142" xr:uid="{DD2B4CCF-EBBF-2B48-A60E-819F7DF5F20D}"/>
-    <hyperlink ref="J114" r:id="rId143" display="https://uls23.grand-challenge.org/uls23/" xr:uid="{6D27EF2C-FDE0-B344-9EA2-9FA71D138DD9}"/>
-    <hyperlink ref="I115" r:id="rId144" xr:uid="{31F25901-106B-6D40-8D97-217EB841EFF8}"/>
-    <hyperlink ref="J115" r:id="rId145" display="https://ieeexplore.ieee.org/document/6937161" xr:uid="{F5ACA723-93C7-1E43-9C7D-1AF0C5BD1B5B}"/>
-    <hyperlink ref="I116" r:id="rId146" display="https://github.com/anjany/verse?tab=readme-ov-file" xr:uid="{E1162432-6441-DB45-855F-F50DC6A4F6AD}"/>
-    <hyperlink ref="I117" r:id="rId147" display="https://www.kaggle.com/datasets/andrewmvd/lung-vessel-segmentation" xr:uid="{5C8D1639-2D11-234E-BE48-430228087930}"/>
-    <hyperlink ref="J117" r:id="rId148" xr:uid="{D8AB344C-DED9-E342-B100-77BF36296685}"/>
-    <hyperlink ref="I118" r:id="rId149" xr:uid="{BB42433E-A93D-3144-A31F-3BEF53180F7C}"/>
-    <hyperlink ref="J118" r:id="rId150" xr:uid="{A2A4824A-E2C0-A945-B2B5-BB4A653A7540}"/>
-    <hyperlink ref="I119" r:id="rId151" display="https://wsss4luad.grand-challenge.org/License/" xr:uid="{B77B9003-BD36-8B49-B756-3BBC4EDF0DA3}"/>
-    <hyperlink ref="J119" r:id="rId152" display="https://arxiv.org/abs/2204.06455" xr:uid="{D6FD2F1A-3AC7-6B41-89F2-53E679AACB88}"/>
-    <hyperlink ref="I120" r:id="rId153" xr:uid="{CB63B56D-40B7-E34F-BEC8-DEC58E68AA54}"/>
-    <hyperlink ref="J120" r:id="rId154" xr:uid="{B7BB2F94-D5A6-B848-AF84-84AB308E9C0A}"/>
-    <hyperlink ref="I121" r:id="rId155" xr:uid="{4DA15649-2AE0-D04B-9B4A-57E9BAD6E3BA}"/>
-    <hyperlink ref="J121" r:id="rId156" xr:uid="{E9EE9603-4C47-874B-BAA2-2B030A3A7DF8}"/>
-    <hyperlink ref="I122" r:id="rId157" xr:uid="{A25FB5BD-AA58-8341-AB02-F9B86046A5A1}"/>
-    <hyperlink ref="I123" r:id="rId158" xr:uid="{C3F2AD06-00E7-7248-9E93-8DB13EC6C22C}"/>
-    <hyperlink ref="J123" r:id="rId159" xr:uid="{A579A405-55C0-C34A-9A99-03642B2774C8}"/>
-    <hyperlink ref="I124" r:id="rId160" xr:uid="{AA0299D9-D5DC-8D44-81D0-EF0CA8BDD957}"/>
-    <hyperlink ref="I125" r:id="rId161" xr:uid="{EB3DB6F7-17DF-614B-8E72-D4A53EBCDBB4}"/>
-    <hyperlink ref="I126" r:id="rId162" xr:uid="{340B567C-EEA6-4C4B-92C0-688DF777F5DD}"/>
-    <hyperlink ref="I127" r:id="rId163" xr:uid="{22E5BA28-3732-8541-BFF3-83E8BFD0CE0A}"/>
-    <hyperlink ref="I128" r:id="rId164" xr:uid="{0040EC9D-7140-404C-8961-55A9E8A54AB0}"/>
-    <hyperlink ref="J128" r:id="rId165" xr:uid="{DCF5DAC3-2D0C-1441-80C0-0B4F180BE7A5}"/>
-    <hyperlink ref="I129" r:id="rId166" xr:uid="{0A4AC434-BD57-974F-BD63-ACDCD7EA272D}"/>
-    <hyperlink ref="J129" r:id="rId167" xr:uid="{53110E3B-E698-3B4C-B3FE-A0A11A72B752}"/>
-    <hyperlink ref="I130" r:id="rId168" xr:uid="{577494C4-4B49-E940-9C08-12F2688FC672}"/>
-    <hyperlink ref="J130" r:id="rId169" xr:uid="{8D15D908-7E75-3346-B01A-53889DA212AE}"/>
-    <hyperlink ref="I131" r:id="rId170" xr:uid="{1D0C14CB-97BE-F34A-89E9-C38065D62CA5}"/>
-    <hyperlink ref="J131" r:id="rId171" xr:uid="{B4436168-DD9A-3B40-8B73-7E68ED0D8F9B}"/>
+    <hyperlink ref="J3" r:id="rId1" display="https://arxiv.org/abs/2010.14808" xr:uid="{D10BE867-59D4-C742-9B9E-56A2EE73659C}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{58B3052D-FE83-A341-A60F-0603FF0696DF}"/>
+    <hyperlink ref="B120" r:id="rId3" display="https://multicenteraorta.grand-challenge.org/" xr:uid="{772A8190-6178-3542-90C2-79B26B42FB99}"/>
+    <hyperlink ref="I120" r:id="rId4" display="https://figshare.com/articles/dataset/Aortic_Vessel_Tree_AVT_CTA_Datasets_and_Segmentations/14806362" xr:uid="{95259564-A011-134C-8EE0-9404D1D7ADE5}"/>
+    <hyperlink ref="J120" r:id="rId5" display="https://arxiv.org/abs/2310.04114" xr:uid="{31E6A123-19E0-6F4F-B4E5-A4698A51115F}"/>
+    <hyperlink ref="I86" r:id="rId6" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{693173D5-157D-274D-9D69-AE6B9A9A098B}"/>
+    <hyperlink ref="I34" r:id="rId7" xr:uid="{8B34C248-E52F-0540-A47E-7CB3DAD1E418}"/>
+    <hyperlink ref="J34" r:id="rId8" xr:uid="{AA4880D0-4C5A-8245-AE89-90F579F1F8D4}"/>
+    <hyperlink ref="I53" r:id="rId9" location=".ZBtfBHbMJaQ" display="https://zenodo.org/records/7442914 - .ZBtfBHbMJaQ" xr:uid="{53BFB196-6A30-4A4B-ABFC-95335F62C333}"/>
+    <hyperlink ref="J53" r:id="rId10" xr:uid="{41FCD0B5-30D0-504B-8051-5EBD4DFBA2D1}"/>
+    <hyperlink ref="I65" r:id="rId11" xr:uid="{75ADD1BB-894D-5F47-B625-2973D9BFEF4C}"/>
+    <hyperlink ref="J65" r:id="rId12" xr:uid="{683A38B2-6A08-CC4C-B5A4-1FEA620100C9}"/>
+    <hyperlink ref="I89" r:id="rId13" xr:uid="{55FA7D50-518F-8043-A9D9-FEA991D3B6BB}"/>
+    <hyperlink ref="I87" r:id="rId14" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{03596E04-FCE6-A745-8BD8-6FCC72B631E7}"/>
+    <hyperlink ref="I90" r:id="rId15" xr:uid="{BDA14EEC-BF9D-5E46-ADF4-A795984BE0C5}"/>
+    <hyperlink ref="J96" r:id="rId16" xr:uid="{85A6A7E9-2A75-E74C-8DE4-BAB039671846}"/>
+    <hyperlink ref="I35" r:id="rId17" xr:uid="{01C71323-DC6C-3E42-B65B-0CC895A8A573}"/>
+    <hyperlink ref="I79" r:id="rId18" xr:uid="{7B1FC30D-2E8A-5544-9A82-64FD44206DCE}"/>
+    <hyperlink ref="J79" r:id="rId19" xr:uid="{ABAD0C1C-AD4C-D147-8BD9-EB00771B6F13}"/>
+    <hyperlink ref="I91" r:id="rId20" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{71BCBF82-1D21-F043-9A0A-A624633C5588}"/>
+    <hyperlink ref="I121" r:id="rId21" display="https://drive.google.com/drive/folders/115mzmNlZRIewnSR2QFDwW_-RkNM0LC9D" xr:uid="{3EAA04E5-113D-A74A-81CD-12C1E2B4718A}"/>
+    <hyperlink ref="J121" r:id="rId22" xr:uid="{193A9E1E-222B-A64B-975E-FA6793663B66}"/>
+    <hyperlink ref="J138" r:id="rId23" xr:uid="{93958871-39A6-3E4E-86FA-B4E8AE2C1189}"/>
+    <hyperlink ref="I45" r:id="rId24" xr:uid="{C75EBDD0-3D12-2E4B-B383-119590F19EF9}"/>
+    <hyperlink ref="J45" r:id="rId25" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{792FF036-D0B8-0D42-A7F4-48A0F4797183}"/>
+    <hyperlink ref="I46" r:id="rId26" xr:uid="{996BEBD7-078C-3F4B-BA61-1A03470ED09A}"/>
+    <hyperlink ref="J46" r:id="rId27" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{2E180EEF-D368-8F47-918A-81C3795AC2CD}"/>
+    <hyperlink ref="J8" r:id="rId28" xr:uid="{EA323093-A46D-4248-9745-241DBD8AD572}"/>
+    <hyperlink ref="I2" r:id="rId29" xr:uid="{C0737617-7575-1B40-9265-FFDD27A98366}"/>
+    <hyperlink ref="I4" r:id="rId30" location="collection/637218c173e9f0047faa00fb" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/637218c173e9f0047faa00fb" xr:uid="{77C78CDB-C4F2-CD45-A387-A938AC54268D}"/>
+    <hyperlink ref="J4" r:id="rId31" xr:uid="{651710AE-A4F0-9346-BC26-12BB98883BD3}"/>
+    <hyperlink ref="I25" r:id="rId32" xr:uid="{BCA1C765-9D07-C642-AC1E-ABFB7685DFAD}"/>
+    <hyperlink ref="J25" r:id="rId33" xr:uid="{A6EB68D9-5C04-1D44-B472-0394406AF214}"/>
+    <hyperlink ref="J38" r:id="rId34" xr:uid="{67B23FBF-831B-9148-959C-778682D46102}"/>
+    <hyperlink ref="I58" r:id="rId35" xr:uid="{D683E39D-FEE6-BB44-9B0C-3F27AF4F29E7}"/>
+    <hyperlink ref="J58" r:id="rId36" xr:uid="{C2F0D956-90D1-2346-9F7B-FBCD899C5FCD}"/>
+    <hyperlink ref="I88" r:id="rId37" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{C7827BAC-AE8A-4643-857D-0DA2D17D6CA9}"/>
+    <hyperlink ref="I92" r:id="rId38" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{E3DD4707-4D0D-A543-A8C8-7A062BB7E08B}"/>
+    <hyperlink ref="I93" r:id="rId39" display="https://wiki.cancerimagingarchive.net/display/Public/NCI-ISBI+2013+Challenge+-+Automated+Segmentation+of+Prostate+Structures" xr:uid="{8A9BA09F-C519-D84A-8556-C6E57688F7EE}"/>
+    <hyperlink ref="J93" r:id="rId40" xr:uid="{35832A85-B6AD-3643-B830-5084235A0FD9}"/>
+    <hyperlink ref="I106" r:id="rId41" xr:uid="{C8975DF6-937E-0545-A4C1-D35404C1F62B}"/>
+    <hyperlink ref="J106" r:id="rId42" xr:uid="{8A9AEE5B-D9C1-E543-8F9A-EBE77B2AC714}"/>
+    <hyperlink ref="J115" r:id="rId43" display="https://promise12.grand-challenge.org/Details/" xr:uid="{1E5BBDD0-CB18-9D49-8CCF-B19ED2E985E9}"/>
+    <hyperlink ref="I118" r:id="rId44" display="https://wiki.cancerimagingarchive.net/display/Public/QIN-PROSTATE-Repeatability" xr:uid="{EB173718-2BDE-FE4B-B009-9E94D17DE458}"/>
+    <hyperlink ref="J118" r:id="rId45" xr:uid="{31DC5168-1961-0848-8ED3-B75213C7BB78}"/>
+    <hyperlink ref="I126" r:id="rId46" xr:uid="{BB195175-2A7C-1B45-BECF-3C8D1C9B7837}"/>
+    <hyperlink ref="J126" r:id="rId47" xr:uid="{27C146BC-85B8-E346-9021-34241FCA009E}"/>
+    <hyperlink ref="I127" r:id="rId48" xr:uid="{DCDC4610-6054-C54D-A76E-AEF8E56E17FC}"/>
+    <hyperlink ref="J127" r:id="rId49" xr:uid="{178AE9EA-25CD-204E-AA13-F870D504C6C4}"/>
+    <hyperlink ref="I128" r:id="rId50" xr:uid="{D6BAAEC3-53EE-D047-AFC3-3B0DF6744BD5}"/>
+    <hyperlink ref="J128" r:id="rId51" xr:uid="{E706B04F-ADB2-8541-B232-AAECD2BE7E8D}"/>
+    <hyperlink ref="I129" r:id="rId52" xr:uid="{5A0C4C57-7C4C-5046-9A61-A6490081706B}"/>
+    <hyperlink ref="J129" r:id="rId53" xr:uid="{2806FE08-F194-AC47-BC0F-7646F85B4B0C}"/>
+    <hyperlink ref="I134" r:id="rId54" xr:uid="{60A87E17-D1E9-7646-9CC3-8294B3BE6624}"/>
+    <hyperlink ref="J134" r:id="rId55" xr:uid="{B1CD65BC-4B0D-8A4C-B8A9-FBD5D177AF20}"/>
+    <hyperlink ref="I139" r:id="rId56" xr:uid="{BBF3AD9A-6AA9-8145-AEF3-25BD36B6C1DE}"/>
+    <hyperlink ref="J139" r:id="rId57" xr:uid="{4E91C8D3-4277-4941-BD42-9D1C8AD8FDE0}"/>
+    <hyperlink ref="I73" r:id="rId58" xr:uid="{D94FD7B7-C621-0C47-9927-10A3147F7789}"/>
+    <hyperlink ref="J73" r:id="rId59" xr:uid="{EE174969-8A44-934C-9D66-15F1606DF829}"/>
+    <hyperlink ref="I22" r:id="rId60" xr:uid="{F03F4847-C112-5942-88E6-A1B04E662D8F}"/>
+    <hyperlink ref="J22" r:id="rId61" xr:uid="{CB3EF8FE-446A-AD46-9316-6ECFCBDD5120}"/>
+    <hyperlink ref="I11" r:id="rId62" xr:uid="{F413CF33-F797-7847-B564-83546338D933}"/>
+    <hyperlink ref="I9" r:id="rId63" xr:uid="{9455D64F-C870-2348-A961-483AC77C3F63}"/>
+    <hyperlink ref="J9" r:id="rId64" xr:uid="{A971DB8B-7B03-4347-984D-3C8300252744}"/>
+    <hyperlink ref="I10" r:id="rId65" xr:uid="{4855FB57-E7AC-CD46-A094-C6FB1F45F46D}"/>
+    <hyperlink ref="J10" r:id="rId66" xr:uid="{2998C622-F0B8-B749-A0A4-879C3BD5ADD9}"/>
+    <hyperlink ref="I12" r:id="rId67" display="https://aggc22.grand-challenge.org/AGGC22/" xr:uid="{B7B579AE-2979-534E-917F-41581E81BD5B}"/>
+    <hyperlink ref="J12" r:id="rId68" xr:uid="{FEE40FDD-6B96-9C4F-A33E-BCE6C6BF8518}"/>
+    <hyperlink ref="J15" r:id="rId69" xr:uid="{F4222539-6C75-A142-AB2F-566B5BA7DBBB}"/>
+    <hyperlink ref="I16" r:id="rId70" display="https://brainptm-2021.grand-challenge.org/Participation/" xr:uid="{2615F872-0472-2A44-9A38-B2D2BB010E9C}"/>
+    <hyperlink ref="I18" r:id="rId71" xr:uid="{FEF42009-F80B-2F44-A208-6C7DAAB3960B}"/>
+    <hyperlink ref="J18" r:id="rId72" xr:uid="{0E32C5C8-F2BC-3E43-BFE7-B1CA139EADAF}"/>
+    <hyperlink ref="I21" r:id="rId73" xr:uid="{C6289C2D-D57B-7849-9A5F-98AE8DC8F452}"/>
+    <hyperlink ref="J21" r:id="rId74" xr:uid="{BA7058D5-4F85-1846-ACA5-86627A2EDF4B}"/>
+    <hyperlink ref="I23" r:id="rId75" location="collection/6373703d73e9f0047faa1bc8" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/6373703d73e9f0047faa1bc8" xr:uid="{FD736F6F-7AF5-F44B-A585-CFB43DBC5B11}"/>
+    <hyperlink ref="J23" r:id="rId76" xr:uid="{F021A71F-90A5-2040-BEBE-697AE4D77D83}"/>
+    <hyperlink ref="J24" r:id="rId77" display="https://doi.org/10.7937/29kw-ae92" xr:uid="{BFD1BC03-8914-A34E-9D33-25D53FA2635E}"/>
+    <hyperlink ref="I26" r:id="rId78" xr:uid="{60D9CAE2-D9DA-3D48-A7E8-3261C52C5666}"/>
+    <hyperlink ref="J26" r:id="rId79" xr:uid="{CDFC2023-3F2A-B04C-A6DE-F16D465DDF06}"/>
+    <hyperlink ref="I27" r:id="rId80" xr:uid="{BEADC1F8-1F94-AD4A-8DAC-61A2FA6E7AF9}"/>
+    <hyperlink ref="I28" r:id="rId81" xr:uid="{470223B3-FA01-0744-B9FB-0EF321D3E998}"/>
+    <hyperlink ref="J28" r:id="rId82" display="https://www.kaggle.com/datasets/nikhilpandey360/chest-xray-masks-and-labels" xr:uid="{F2E40D02-966D-7F48-879E-7269CC59434A}"/>
+    <hyperlink ref="I30" r:id="rId83" display="https://www.cancerimagingarchive.net/collection/colorectal-liver-metastases/" xr:uid="{445A7613-EE45-444E-B4B5-1840DF22C25D}"/>
+    <hyperlink ref="J30" r:id="rId84" display="https://doi.org/10.7937/QXK2-QG03" xr:uid="{BF2EB83A-8499-DD44-87C8-AA5412AC69A1}"/>
+    <hyperlink ref="I36" r:id="rId85" xr:uid="{BFA4B60A-6FBD-934B-B798-31166EFF741C}"/>
+    <hyperlink ref="J36" r:id="rId86" display="https://doi.org/10.1016/j.compbiomed.2021.105002" xr:uid="{AAF7CB42-1C37-CF41-8C7C-A894F5B43D00}"/>
+    <hyperlink ref="I40" r:id="rId87" display="https://www.kaggle.com/datasets/siatsyx/ct2usforkidneyseg" xr:uid="{BFCEC788-621B-9544-AE0C-B7F0E621CC31}"/>
+    <hyperlink ref="J40" r:id="rId88" xr:uid="{BEDBA376-2762-DC48-A251-6A947A46C498}"/>
+    <hyperlink ref="I41" r:id="rId89" display="https://dfu-challenge.github.io/" xr:uid="{E5E99361-5A3A-5840-BB94-72A65230BB3B}"/>
+    <hyperlink ref="J41" r:id="rId90" xr:uid="{41A36657-F22C-B64F-ABC2-9983A9096538}"/>
+    <hyperlink ref="J42" r:id="rId91" xr:uid="{B3662D27-DBD2-0A48-A265-96F06DDF6F8C}"/>
+    <hyperlink ref="I43" r:id="rId92" xr:uid="{9DF3164D-4FA2-584C-91E3-7CD555377F31}"/>
+    <hyperlink ref="J43" r:id="rId93" xr:uid="{CE2C6F46-14D6-7D40-A6BF-B67878AEDAD1}"/>
+    <hyperlink ref="J48" r:id="rId94" xr:uid="{67250265-DEE9-2542-ABB3-E3A98D711E36}"/>
+    <hyperlink ref="I49" r:id="rId95" display="https://www.kaggle.com/datasets/ashkhagan/figshare-brain-tumor-dataset" xr:uid="{D176D9AC-194C-4E46-86DF-2F663AADF6C5}"/>
+    <hyperlink ref="J49" r:id="rId96" xr:uid="{1ED4E19E-C03B-E841-B632-613889E76AC6}"/>
+    <hyperlink ref="J50" r:id="rId97" xr:uid="{DEC52322-A038-E340-A00B-7DE95950B8BD}"/>
+    <hyperlink ref="I51" r:id="rId98" xr:uid="{4F3699F5-4C40-9748-9CA7-801B5D22445B}"/>
+    <hyperlink ref="J51" r:id="rId99" xr:uid="{1DA1A24B-A8C2-864B-9F54-121BDA78309D}"/>
+    <hyperlink ref="I52" r:id="rId100" display="https://www.kaggle.com/datasets/sani84/glasmiccai2015-gland-segmentation" xr:uid="{702BB2E2-7678-A349-8001-2FD8960EB22D}"/>
+    <hyperlink ref="I59" r:id="rId101" display="https://www.kaggle.com/competitions/hubmap-kidney-segmentation/data?select=test" xr:uid="{5E9665C9-D93F-0348-A9B9-A1A54C3F7F25}"/>
+    <hyperlink ref="J59" r:id="rId102" xr:uid="{2BB4B6F3-222D-E749-B361-C97ADB0FFD44}"/>
+    <hyperlink ref="I60" r:id="rId103" display="https://www.kaggle.com/competitions/hubmap-organ-segmentation/" xr:uid="{96DA783A-C2A7-CB4E-B761-5153D86882F9}"/>
+    <hyperlink ref="I62" r:id="rId104" location="prostate-data" display="https://i2cvb.github.io/ - prostate-data" xr:uid="{F1E61F18-CFC9-BF48-BB52-ACB235475845}"/>
+    <hyperlink ref="J62" r:id="rId105" xr:uid="{5ACB4758-D1C5-D64C-8506-4C7B2202D1B7}"/>
+    <hyperlink ref="I76" r:id="rId106" xr:uid="{F469E20A-90A5-5B4D-A32F-E51235684FDA}"/>
+    <hyperlink ref="J76" r:id="rId107" xr:uid="{C7E184E5-BDF4-8641-8A0A-1782A86AE409}"/>
+    <hyperlink ref="J77" r:id="rId108" xr:uid="{F5EBABB6-3CB0-9145-A51E-570447C66236}"/>
+    <hyperlink ref="J80" r:id="rId109" display="https://www.cancerimagingarchive.net/collection/meningioma-seg-class/" xr:uid="{AA6A9136-D823-9E46-BBAD-0EF898419B5F}"/>
+    <hyperlink ref="I81" r:id="rId110" xr:uid="{2A28EFDC-F75C-E94E-8101-A03E524739F1}"/>
+    <hyperlink ref="J82" r:id="rId111" xr:uid="{84D1E849-C802-B845-8960-64C6E46458D2}"/>
+    <hyperlink ref="I83" r:id="rId112" display="https://www.kaggle.com/datasets/tuanledinh/monuseg2018" xr:uid="{BBC8B4F3-B097-A642-A416-FEB0EA61384C}"/>
+    <hyperlink ref="J83" r:id="rId113" xr:uid="{59037AFD-910F-C84C-A349-81F4F38241BD}"/>
+    <hyperlink ref="I84" r:id="rId114" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{B59CF1D6-D6A8-5B4D-B53D-181F1BB63447}"/>
+    <hyperlink ref="I85" r:id="rId115" xr:uid="{DBAC71B6-25AC-6C4A-8B23-472D0E25DB3D}"/>
+    <hyperlink ref="I94" r:id="rId116" xr:uid="{D17E25C6-E94D-D649-A117-52EC8591A6AF}"/>
+    <hyperlink ref="J94" r:id="rId117" xr:uid="{AE21F2DD-9A30-844F-86AF-853AC73BB506}"/>
+    <hyperlink ref="I101" r:id="rId118" xr:uid="{7CFCBCB4-0E95-D44D-BB5E-6158233F596B}"/>
+    <hyperlink ref="J101" r:id="rId119" xr:uid="{2A52BB35-C0B8-EB43-B2BA-8B97E3B892B5}"/>
+    <hyperlink ref="I102" r:id="rId120" display="https://p2ilf.grand-challenge.org/" xr:uid="{5A6F8F26-D781-CE4F-9BC1-B120F7F97227}"/>
+    <hyperlink ref="J102" r:id="rId121" xr:uid="{4C3B5A49-528D-9348-BDF1-DD34C7A8E8EE}"/>
+    <hyperlink ref="I103" r:id="rId122" xr:uid="{6D47DA84-5669-E447-8542-541BF4934AA8}"/>
+    <hyperlink ref="J103" r:id="rId123" xr:uid="{C7C9F322-E27D-4C4D-A761-0419AB755DB5}"/>
+    <hyperlink ref="I104" r:id="rId124" display="https://www.kaggle.com/datasets/andrewmvd/cancer-inst-segmentation-and-classification" xr:uid="{6499D51C-D6D3-9945-8006-E63568A3ABFE}"/>
+    <hyperlink ref="J104" r:id="rId125" xr:uid="{246122BC-5F91-C24E-A822-11778995A060}"/>
+    <hyperlink ref="I107" r:id="rId126" xr:uid="{504FB10A-CCAC-EC46-BB83-4E2326939E9E}"/>
+    <hyperlink ref="I108" r:id="rId127" display="https://parse2022.grand-challenge.org/Dataset/" xr:uid="{9A77C236-54C3-3D47-9573-08057429D061}"/>
+    <hyperlink ref="J108" r:id="rId128" xr:uid="{82DEF23C-A6B5-074C-BF2D-E2361F946A36}"/>
+    <hyperlink ref="I110" r:id="rId129" xr:uid="{8C806E11-53C8-E74F-A11C-AD8DF0EAE1B4}"/>
+    <hyperlink ref="J110" r:id="rId130" xr:uid="{F718238E-6FB4-024C-A329-2D2E94C44BAE}"/>
+    <hyperlink ref="I116" r:id="rId131" display="https://www.cancerimagingarchive.net/collection/prostate-anatomical-edge-cases/" xr:uid="{FA6843E5-E4E1-1C4A-8D40-1BA182032125}"/>
+    <hyperlink ref="J116" r:id="rId132" xr:uid="{062F0225-A03D-C744-A2EE-F2238A6EA438}"/>
+    <hyperlink ref="I133" r:id="rId133" xr:uid="{73E4421B-B168-3543-B738-3CC9A21DAB14}"/>
+    <hyperlink ref="J133" r:id="rId134" location="11829589e26236b332b8438fbc8f5463e31de8cf" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=11829589 - 11829589e26236b332b8438fbc8f5463e31de8cf" xr:uid="{7BA0EDAF-54FC-0043-A50C-E49A9CA47A41}"/>
+    <hyperlink ref="I113" r:id="rId135" xr:uid="{27E4D903-BE07-384B-A135-ED34DE8DEC47}"/>
+    <hyperlink ref="J113" r:id="rId136" location="ec-research-data" display="https://www.sciencedirect.com/science/article/pii/S1361841521002012 - ec-research-data" xr:uid="{1ACCAA01-B50B-D04D-93B4-D89DF7765E83}"/>
+    <hyperlink ref="J141" r:id="rId137" xr:uid="{BA909A90-7DD9-7C4E-B961-5BE2AC9FA323}"/>
+    <hyperlink ref="I144" r:id="rId138" display="https://www.kaggle.com/datasets/ignaciorlando/ussimandsegm" xr:uid="{71EFB214-357A-1447-B0D8-C4B0D8E98810}"/>
+    <hyperlink ref="J144" r:id="rId139" xr:uid="{BB094555-D6FA-4146-AAA9-EB2F49D7AD77}"/>
+    <hyperlink ref="I145" r:id="rId140" display="https://www.kaggle.com/competitions/ultrasound-nerve-segmentation/data" xr:uid="{B254F081-01CB-3544-AC05-7970F985C32D}"/>
+    <hyperlink ref="I146" r:id="rId141" xr:uid="{F2DCDA72-BF1E-5A4C-B905-8B9C76CD4B8A}"/>
+    <hyperlink ref="J146" r:id="rId142" display="https://uls23.grand-challenge.org/uls23/" xr:uid="{DF758E35-05A7-B943-A8CE-9AF0F3359813}"/>
+    <hyperlink ref="I147" r:id="rId143" xr:uid="{B05E9949-1C43-D540-A3FF-47DF16C39CCC}"/>
+    <hyperlink ref="J147" r:id="rId144" display="https://ieeexplore.ieee.org/document/6937161" xr:uid="{A2018AF2-41CD-EF4A-98AD-A27191E400D7}"/>
+    <hyperlink ref="I148" r:id="rId145" display="https://github.com/anjany/verse?tab=readme-ov-file" xr:uid="{AF921E7D-F020-6847-8601-B7477E5D0429}"/>
+    <hyperlink ref="I149" r:id="rId146" display="https://www.kaggle.com/datasets/andrewmvd/lung-vessel-segmentation" xr:uid="{D005317E-169F-004E-8CAF-FE1CDAC65334}"/>
+    <hyperlink ref="J149" r:id="rId147" xr:uid="{9A69C099-84DB-2246-8648-BB42EC8BFA48}"/>
+    <hyperlink ref="I152" r:id="rId148" xr:uid="{65166BD7-E6C6-B140-BFDF-97A8010A44F4}"/>
+    <hyperlink ref="J152" r:id="rId149" xr:uid="{B5E62A9E-FF77-EC40-8156-B5953905252E}"/>
+    <hyperlink ref="I153" r:id="rId150" display="https://wsss4luad.grand-challenge.org/License/" xr:uid="{DE20A050-8393-1741-A063-9E5C4B012C8A}"/>
+    <hyperlink ref="J153" r:id="rId151" display="https://arxiv.org/abs/2204.06455" xr:uid="{9F809A8F-E58E-7842-B7C7-92D1FB59EC3D}"/>
+    <hyperlink ref="I142" r:id="rId152" xr:uid="{4CA52F23-EEAC-F841-8AFA-52CE0117FB15}"/>
+    <hyperlink ref="J142" r:id="rId153" xr:uid="{21F6AAFF-8BC1-554F-9CE8-1CABE27C5E46}"/>
+    <hyperlink ref="I143" r:id="rId154" xr:uid="{AE92BBE8-1170-F84E-90A9-4064054A7427}"/>
+    <hyperlink ref="J143" r:id="rId155" xr:uid="{E2FDB238-3C5C-C842-BCF6-76618DFE4DAA}"/>
+    <hyperlink ref="I37" r:id="rId156" xr:uid="{8084AEE1-46B8-B440-86CD-DC12F57D4BEF}"/>
+    <hyperlink ref="I98" r:id="rId157" xr:uid="{4B66E511-CD4E-854C-84D2-EF38EC4BE3E4}"/>
+    <hyperlink ref="J98" r:id="rId158" xr:uid="{073F5EEB-A636-2441-B9A6-D7D234E94FE6}"/>
+    <hyperlink ref="I124" r:id="rId159" xr:uid="{0FF303B7-A25D-1645-A35C-CF8D6B56811A}"/>
+    <hyperlink ref="I136" r:id="rId160" xr:uid="{26AC2D5D-D54F-FE47-8913-6B19F4D9170D}"/>
+    <hyperlink ref="J136" r:id="rId161" xr:uid="{0DB2D0E8-E599-A24C-8582-9E32FA960732}"/>
+    <hyperlink ref="I137" r:id="rId162" xr:uid="{91B5D59D-5AA0-0943-B177-4A60FE476450}"/>
+    <hyperlink ref="J137" r:id="rId163" xr:uid="{011B611F-FC55-2C4F-8F16-09A7F7A72B97}"/>
+    <hyperlink ref="I122" r:id="rId164" xr:uid="{88958C97-9FFA-E048-8A5D-0BF09D2BF618}"/>
+    <hyperlink ref="J122" r:id="rId165" xr:uid="{DDEFBC6D-2430-AB40-A9CA-8459F1D7DEEB}"/>
+    <hyperlink ref="I123" r:id="rId166" xr:uid="{E56A4CC0-05DF-E740-9D3D-63E84B995323}"/>
+    <hyperlink ref="J123" r:id="rId167" xr:uid="{9F3DD5A0-1E05-8147-A2F6-B01B4164475E}"/>
+    <hyperlink ref="I105" r:id="rId168" xr:uid="{41D78B0B-C907-F743-86AE-86EEDEB6F2B2}"/>
+    <hyperlink ref="J105" r:id="rId169" xr:uid="{9A18C6A2-D26F-DA42-A2C1-0989A9EF3C49}"/>
+    <hyperlink ref="I140" r:id="rId170" xr:uid="{D0006C92-46C7-D04A-A3A9-9917A0C87DC0}"/>
+    <hyperlink ref="I61" r:id="rId171" xr:uid="{1B772913-26C9-BD40-A93D-CE461FC2FBC4}"/>
+    <hyperlink ref="J61" r:id="rId172" xr:uid="{EFB9328E-6F0D-0E40-90A8-593DF3FA1DE5}"/>
+    <hyperlink ref="I99" r:id="rId173" xr:uid="{82B23E8F-30A3-1240-92A5-4B89249D81BF}"/>
+    <hyperlink ref="J99" r:id="rId174" xr:uid="{F919B42C-9D5A-B344-8267-790ECC876929}"/>
+    <hyperlink ref="I132" r:id="rId175" display="https://github.com/GewelsJI/VPS" xr:uid="{3BC5EB08-4594-B046-A64F-775BB452E8A6}"/>
+    <hyperlink ref="J132" r:id="rId176" display="https://link.springer.com/article/10.1007/s11633-022-1371-y" xr:uid="{1D2F25FD-BC85-5148-B298-39B1FF14E5A7}"/>
+    <hyperlink ref="I78" r:id="rId177" xr:uid="{92A05876-72BD-F045-8245-0B1EF0777312}"/>
+    <hyperlink ref="J78" r:id="rId178" xr:uid="{2C002735-1B9A-EE45-831B-C6258EA6FA65}"/>
+    <hyperlink ref="I63" r:id="rId179" xr:uid="{1FCE7AE4-52B2-0147-956B-683916389214}"/>
+    <hyperlink ref="J63" r:id="rId180" xr:uid="{E7D01C31-9627-B941-831E-F671D1D5846F}"/>
+    <hyperlink ref="I75" r:id="rId181" xr:uid="{2EC2859B-C080-5D46-A1A9-362CA3902730}"/>
+    <hyperlink ref="J75" r:id="rId182" xr:uid="{1C7DC181-7082-AA43-BC07-69B8ADC110C5}"/>
+    <hyperlink ref="I71" r:id="rId183" xr:uid="{074A3BDC-31E4-C94E-A49E-8A8132518256}"/>
+    <hyperlink ref="J71" r:id="rId184" xr:uid="{9CBFE6E1-1049-D24A-A254-AE4C14A7F7BB}"/>
+    <hyperlink ref="I44" r:id="rId185" xr:uid="{52530A76-1061-9D4E-A9A7-6D8D8384C815}"/>
+    <hyperlink ref="J44" r:id="rId186" xr:uid="{D38B4425-DF2D-4B40-B627-3234B4A21B7A}"/>
+    <hyperlink ref="I125" r:id="rId187" xr:uid="{DB94BFAC-380E-1541-93DE-8B32CB4AE447}"/>
+    <hyperlink ref="J125" r:id="rId188" xr:uid="{5D7E2797-D48C-AB4C-9324-0E3B93CCDC24}"/>
+    <hyperlink ref="I100" r:id="rId189" xr:uid="{00ABD820-4CDC-954D-B304-057014422B60}"/>
+    <hyperlink ref="J100" r:id="rId190" xr:uid="{ECAD7788-A8BF-CB41-8686-86F4D809EAB9}"/>
+    <hyperlink ref="I56" r:id="rId191" xr:uid="{AE8F8D9A-FA35-8C47-9789-4BC5A1E84B8E}"/>
+    <hyperlink ref="J56" r:id="rId192" xr:uid="{ED5CA4A1-9350-794C-A8CE-AC21ABBF0E32}"/>
+    <hyperlink ref="I20" r:id="rId193" xr:uid="{E71B0178-0429-D744-9472-C8498D35AF76}"/>
+    <hyperlink ref="J20" r:id="rId194" xr:uid="{2F28EAB3-41D5-1445-97B7-19F053E3238E}"/>
+    <hyperlink ref="I109" r:id="rId195" xr:uid="{F82FEC81-3213-DB42-93EE-4CBBE2C60EC5}"/>
+    <hyperlink ref="J109" r:id="rId196" xr:uid="{3F4E181E-0191-2D49-9A99-1DEE076DEAF9}"/>
+    <hyperlink ref="I131" r:id="rId197" xr:uid="{D29A927C-7DAA-A243-8097-96A931F72961}"/>
+    <hyperlink ref="J131" r:id="rId198" xr:uid="{B69AF58D-20FB-1B4C-9A60-DB613CC50619}"/>
+    <hyperlink ref="I19" r:id="rId199" xr:uid="{B89217C5-5781-714A-B98E-AF7C6815C9FC}"/>
+    <hyperlink ref="J19" r:id="rId200" xr:uid="{37769AD6-CF26-4D4B-AD72-84CAA0362708}"/>
+    <hyperlink ref="I31" r:id="rId201" xr:uid="{CA54E17A-EBDD-D549-B517-87A169D43AFC}"/>
+    <hyperlink ref="J31" r:id="rId202" xr:uid="{D131E059-2E76-0D4C-8A75-F71C402341DF}"/>
+    <hyperlink ref="I135" r:id="rId203" xr:uid="{A09E41FB-6D31-FD49-AD81-C2FC765BF71D}"/>
+    <hyperlink ref="J135" r:id="rId204" xr:uid="{E28EEDA9-CC1A-6745-B5C9-3C1C6905F76F}"/>
+    <hyperlink ref="I14" r:id="rId205" xr:uid="{793B733E-14EA-E542-BC08-738D4E06F8D4}"/>
+    <hyperlink ref="J14" r:id="rId206" xr:uid="{736E3DCA-566B-BF4F-A6F8-41605477A929}"/>
+    <hyperlink ref="I114" r:id="rId207" xr:uid="{A3CEC4BD-10CE-954B-9382-A92EEC422288}"/>
+    <hyperlink ref="J114" r:id="rId208" xr:uid="{F73F90A9-F73D-B049-A965-42FB1F07FE86}"/>
+    <hyperlink ref="I150" r:id="rId209" xr:uid="{22140A7E-48AF-C047-9C56-ADCBA74876A2}"/>
+    <hyperlink ref="J150" r:id="rId210" xr:uid="{8F4D6D40-A24F-9040-A680-23D8E80AB30D}"/>
+    <hyperlink ref="I5" r:id="rId211" display="https://acouslic-ai.grand-challenge.org/" xr:uid="{E4B43B56-99C3-7D4C-8133-65BCA21B5C4F}"/>
+    <hyperlink ref="J5" r:id="rId212" xr:uid="{27BEF042-9E36-CF4C-BFE0-AA23E6C2D3E3}"/>
+    <hyperlink ref="I111" r:id="rId213" display="https://doi.org/10.5281/zenodo.10927452" xr:uid="{936CFF73-12AF-5847-B2AF-7E10948809D1}"/>
+    <hyperlink ref="I112" r:id="rId214" display="https://doi.org/10.5281/zenodo.10913195" xr:uid="{F8A40EFE-D336-BA43-8F68-6B3708C57AC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/medsam-datalist.xlsx
+++ b/medsam-datalist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jma/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B7E13-75FB-B94B-9E36-AA822A42F8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16750503-4EF5-3143-BD20-9628C15EEAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{997E9869-AF67-4741-8BFC-A5227CA6DBCA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$160</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="810">
   <si>
     <t>Year</t>
   </si>
@@ -91,9 +91,6 @@
   <si>
     <t xml:space="preserve">https://github.com/JunMa11/AbdomenCT-1K 
 </t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/document/9497733</t>
   </si>
   <si>
     <t>@article{Ma-2021-AbdomenCT-1K,
@@ -130,17 +127,6 @@
     <t>https://doi.org/10.1016/j.crad.2020.01.012</t>
   </si>
   <si>
-    <t>@article{ahmed2020radiomic,
-title={Radiomic mapping model for prediction of Ki-67 expression in adrenocortical carcinoma},
-author={Ahmed, AA and Elmohr, MM and Fuentes, D and Habra, MA and Fisher, SB and Perrier, ND and Zhang, M and Elsayes, KM},
-journal={Clinical Radiology},
-volume={75},
-number={6},
-pages={479--e17},
-year={2020}
-}</t>
-  </si>
-  <si>
     <t>AMOS</t>
   </si>
   <si>
@@ -189,9 +175,6 @@
 pages={13--18},
 year={2023}
 }</t>
-  </si>
-  <si>
-    <t>MSD</t>
   </si>
   <si>
     <t>Colon Cancer Primaries</t>
@@ -377,21 +360,7 @@
     <t>Tumor</t>
   </si>
   <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=70230229</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.1148/ryai.2019180021 </t>
-  </si>
-  <si>
-    <t>@article{HCC-TACE,
-title={A Machine Learning Model to Predict Hepatocellular Carcinoma Response to Transcatheter Arterial Chemoembolization},
-author={Morshid, Ahmed and Elsayes, Khaled M. and Khalaf, Ahmed M. and Elmohr, Mohamed M. and Yu, Jian and Kaseb, Ahmed O. and Hassan, Mohamed and Mahvash, Armeen and Wang, Zeshan and Hazle, John D. and Fuentes, David},
-journal={Radiology: Artificial Intelligence},
-volume={1},
-number={5},
-pages={e180021},
-year={2019}
-}</t>
   </si>
   <si>
     <t>Liver and tumour</t>
@@ -439,76 +408,25 @@
     <t>CC BY 3.0</t>
   </si>
   <si>
-    <t>NSCLC Radiogenomics - The Cancer Imaging Archive (TCIA) Public Access - Cancer Imaging Archive Wiki</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/sdata.2018.202</t>
   </si>
   <si>
-    <t>@article{bakr2018radiogenomic,
-title={A radiogenomic dataset of non-small cell lung cancer},
-author={Bakr, Shaimaa and Gevaert, Olivier and Echegaray, Sebastian and Ayers, Kelsey and Zhou, Mu and Shafiq, Majid and Zheng, Hong and Benson, Jalen Anthony and Zhang, Weiruo and Leung, Ann NC and others},
-journal={Scientific Data},
-volume={5},
-number={1},
-pages={1--9},
-year={2018}
-}</t>
-  </si>
-  <si>
     <t>NSCLC-PleuralEffusion</t>
   </si>
   <si>
     <t>PleuralEffusion</t>
   </si>
   <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=68551327</t>
-  </si>
-  <si>
     <t>https://link.springer.com/article/10.1007/s10278-021-00460-3</t>
   </si>
   <si>
-    <t>@article{kiser2020MP,
-title={PleThora: Pleural effusion and thoracic cavity segmentations in diseased lungs for benchmarking chest CT processing pipelines},
-author={Kiser, Kendall J and Ahmed, Sara and Stieb, Sonja and Mohamed, Abdallah SR and Elhalawani, Hesham and Park, Peter YS and Doyle, Nathan S and Wang, Brandon J and Barman, Arko and Li, Zhao and others},
-journal={Medical Physics},
-volume={47},
-number={11},
-pages={5941--5952},
-year={2020}
-}
-@article{kiser2021novel,
-title={Novel autosegmentation spatial similarity metrics capture the time required to correct segmentations better than traditional metrics in a thoracic cavity segmentation workflow},
-author={Kiser, Kendall J and Barman, Arko and Stieb, Sonja and Fuller, Clifton D and Giancardo, Luca},
-journal={Journal of Digital Imaging},
-volume={34},
-pages={541--553},
-year={2021},
-publisher={Springer}
-}</t>
-  </si>
-  <si>
     <t>NSCLC-Radiomics</t>
   </si>
   <si>
     <t>CC BY-NC 3.0</t>
   </si>
   <si>
-    <t>https://wiki.cancerimagingarchive.net/display/Public/NSCLC-Radiomics</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/ncomms5006</t>
-  </si>
-  <si>
-    <t>@article{aerts2014decoding,
-title={Decoding tumour phenotype by noninvasive imaging using a quantitative radiomics approach},
-author={Aerts, Hugo JWL and Velazquez, Emmanuel Rios and Leijenaar, Ralph TH and Parmar, Chintan and Grossmann, Patrick and Carvalho, Sara and Bussink, Johan and Monshouwer, Ren{\'e} and Haibe-Kains, Benjamin and Rietveld, Derek and others},
-journal={Nature Communications},
-volume={5},
-number={1},
-pages={4006},
-year={2014}
-}</t>
   </si>
   <si>
     <t>COVID-19-CT-Seg-Benchmark</t>
@@ -571,36 +489,13 @@
     <t>lymph nodes</t>
   </si>
   <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=19726546</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/978-3-319-10404-1_65</t>
   </si>
   <si>
-    <t>@inproceedings{roth2014new,
-title={A new 2.5 D representation for lymph node detection using random sets of deep convolutional neural network observations},
-author={Roth, Holger R and Lu, Le and Seff, Ari and Cherry, Kevin M and Hoffman, Joanne and Wang, Shijun and Liu, Jiamin and Turkbey, Evrim and Summers, Ronald M},
-booktitle={Medical Image Computing and Computer-Assisted Intervention--MICCAI 2014: 17th International Conference, Boston, MA, USA, September 14-18, 2014, Proceedings, Part I 17},
-pages={520--527},
-year={2014}
-}</t>
-  </si>
-  <si>
     <t>Mediastinal-Lymph-Node-SEG</t>
   </si>
   <si>
-    <t>https://www.cancerimagingarchive.net/collection/mediastinal-lymph-node-seg/</t>
-  </si>
-  <si>
     <t>https://arxiv.org/abs/2406.03984v1</t>
-  </si>
-  <si>
-    <t>@article{engelson2024lnq,
-title={LNQ Challenge 2023: Learning Mediastinal Lymph Node Segmentation with a Probabilistic Lymph Node Atlas},
-author={Engelson, Sofija and Ehrhardt, Jan and Kepp, Timo and Niemeijer, Joshua and Handels, Heinz},
-journal={arXiv preprint arXiv:2406.03984},
-year={2024}
-}</t>
   </si>
   <si>
     <t>pancreas and tumors</t>
@@ -635,9 +530,6 @@
   </si>
   <si>
     <t>Esophagus, Heart, Lungs, Spinal cord</t>
-  </si>
-  <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=24284539</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1002/mp.13141 </t>
@@ -744,21 +636,7 @@
     <t>Pelvis</t>
   </si>
   <si>
-    <t>https://www.cancerimagingarchive.net/collection/cc-tumor-heterogeneity/</t>
-  </si>
-  <si>
     <t>https://onlinelibrary.wiley.com/doi/10.1002/jmri.25874</t>
-  </si>
-  <si>
-    <t>@article{bowen2018tumor,
-title={Tumor radiomic heterogeneity: multiparametric functional imaging to characterize variability and predict response following cervical cancer radiation therapy},
-author={Bowen, Stephen R and Yuh, William TC and Hippe, Daniel S and Wu, Wei and Partridge, Savannah C and Elias, Saba and Jia, Guang and Huang, Zhibin and Sandison, George A and Nelson, Dennis and others},
-journal={Journal of Magnetic Resonance Imaging},
-volume={47},
-number={5},
-pages={1388--1396},
-year={2018}
-}</t>
   </si>
   <si>
     <t>CHAOS</t>
@@ -867,9 +745,6 @@
     <t>MR-T2</t>
   </si>
   <si>
-    <t>https://www.cancerimagingarchive.net/analysis-result/isbi-mr-prostate-2013/</t>
-  </si>
-  <si>
     <t>http://doi.org/10.7937/K9/TCIA.2015.zF0vlOPv</t>
   </si>
   <si>
@@ -891,9 +766,6 @@
   </si>
   <si>
     <t>Prostate and lesion</t>
-  </si>
-  <si>
-    <t>https://www.cancerimagingarchive.net/collection/qin-prostate-repeatability/</t>
   </si>
   <si>
     <t>https://www.nature.com/articles/sdata2018281</t>
@@ -1834,24 +1706,7 @@
     <t>brain organ</t>
   </si>
   <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=83592528</t>
-  </si>
-  <si>
     <t>https://aapm.onlinelibrary.wiley.com/doi/10.1002/mp.14098</t>
-  </si>
-  <si>
-    <t>@article{porter2020hippocampus,
-title={Hippocampus segmentation on noncontrast CT using deep learning},
-author={Porter, Evan and Fuentes, Patricia and Siddiqui, Zaid and Thompson, Andrew and Levitin, Ronald and Solis, David and Myziuk, Nick and Guerrero, Thomas},
-journal={Medical physics},
-volume={47},
-number={7},
-pages={2950--2961},
-year={2020}
-}</t>
-  </si>
-  <si>
-    <t>https://www.cancerimagingarchive.net/collection/gammaknife-hippocampal/</t>
   </si>
   <si>
     <t>GlaS@MICCAI'2015</t>
@@ -2505,37 +2360,13 @@
     <t>https://www.nature.com/articles/s41592-024-02233-6</t>
   </si>
   <si>
-    <t>@article{ma2024multimodality,
-title={The multimodality cell segmentation challenge: toward universal solutions},
-author={Ma, Jun and Xie, Ronald and Ayyadhury, Shamini and Ge, Cheng and Gupta, Anubha and Gupta, Ritu and Gu, Song and Zhang, Yao and Lee, Gihun and Kim, Joonkee and others},
-journal={Nature methods},
-pages={1--11},
-year={2024},
-publisher={Nature Publishing Group US New York}
-}</t>
-  </si>
-  <si>
     <t>OPC-Radiomics</t>
   </si>
   <si>
     <t>Oropharynx tumor</t>
   </si>
   <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=33948764</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0360301618301299?via%3Dihub</t>
-  </si>
-  <si>
-    <t>@article{kwan2018radiomic,
-title={Radiomic biomarkers to refine risk models for distant metastasis in HPV-related oropharyngeal carcinoma},
-author={Kwan, Jennifer Yin Yee and Su, Jie and Huang, Shao Hui and Ghoraie, Laleh S and Xu, Wei and Chan, Biu and Yip, Kenneth W and Giuliani, Meredith and Bayley, Andrew and Kim, John and others},
-journal={International Journal of Radiation Oncology* Biology* Physics},
-volume={102},
-number={4},
-pages={1107--1116},
-year={2018}
-}</t>
   </si>
   <si>
     <t>P2ILF</t>
@@ -2566,21 +2397,7 @@
     <t>Organ at risk</t>
   </si>
   <si>
-    <t>https://www.cancerimagingarchive.net/collection/pancreatic-ct-cbct-seg/</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/mp.14906</t>
-  </si>
-  <si>
-    <t>@article{han2021deep,
-title={Deep-learning-based image registration and automatic segmentation of organs-at-risk in cone-beam CT scans from high-dose radiation treatment of pancreatic cancer},
-author={Han, Xu and Hong, Jun and Reyngold, Marsha and Crane, Christopher and Cuaron, John and Hajj, Carla and Mann, Justin and Zinovoy, Melissa and Greer, Hastings and Yorke, Ellen and others},
-journal={Medical physics},
-volume={48},
-number={6},
-pages={3084--3095},
-year={2021}
-}</t>
   </si>
   <si>
     <t>PanNuke</t>
@@ -2664,21 +2481,7 @@
     <t>CC By 4.0</t>
   </si>
   <si>
-    <t>https://www.cancerimagingarchive.net/collection/pediatric-ct-seg/</t>
-  </si>
-  <si>
     <t>https://aapm.onlinelibrary.wiley.com/doi/10.1002/mp.15485</t>
-  </si>
-  <si>
-    <t>@article{jordan2022pediatric,
-title={Pediatric chest-abdomen-pelvis and abdomen-pelvis CT images with expert organ contours},
-author={Jordan, Petr and Adamson, Philip M and Bhattbhatt, Vrunda and Beriwal, Surabhi and Shen, Sangyu and Radermecker, Oskar and Bose, Supratik and Strain, Linda S and Offe, Michael and Fraley, David and others},
-journal={Medical physics},
-volume={49},
-number={5},
-pages={3523--3528},
-year={2022}
-}</t>
   </si>
   <si>
     <t>Prostate Anatomical Edge Cases</t>
@@ -2760,22 +2563,6 @@
     <t>TCGA-HNSC</t>
   </si>
   <si>
-    <t>https://www.cancerimagingarchive.net/collection/tcga-hnsc/</t>
-  </si>
-  <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=11829589#11829589e26236b332b8438fbc8f5463e31de8cf</t>
-  </si>
-  <si>
-    <t>@misc{zuley2016hnsc,
-title={The Cancer Genome Atlas Head-Neck Squamous Cell Carcinoma Collection (TCGA-HNSC) (Version 6) [Data set]},
-DOI={10.7937/K9/TCIA.2016.LXKQ47MS},
-url={https://doi.org/10.7937/K9/TCIA.2016.LXKQ47MS},
-author={Zuley, M. L. and Jarosz, R. and Kirk, S. and Lee, Y. and Colen, R. and Garcia, K. and Delbeke, D. and Pham, M. and Nagy, P. and Sevinc, G. and Goldsmith, M. and Khan, S. and Net, J. M. and Lucchesi, F. R. and Aredes, N. D.},
-publisher={The Cancer Imaging Archive},
-year={2016}
-}</t>
-  </si>
-  <si>
     <t>Prostate Cancer</t>
   </si>
   <si>
@@ -2785,21 +2572,7 @@
     <t>UCSF-PDGM</t>
   </si>
   <si>
-    <t>https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=119705830</t>
-  </si>
-  <si>
     <t>https://pubs.rsna.org/doi/10.1148/ryai.220058</t>
-  </si>
-  <si>
-    <t>@article{calabrese2022university,
-title={The University of California San Francisco preoperative diffuse glioma MRI dataset},
-author={Calabrese, Evan and Villanueva-Meyer, Javier E and Rudie, Jeffrey D and Rauschecker, Andreas M and Baid, Ujjwal and Bakas, Spyridon and Cha, Soonmee and Mongan, John T and Hess, Christopher P},
-journal={Radiology: Artificial Intelligence},
-volume={4},
-number={6},
-pages={e220058},
-year={2022}
-}</t>
   </si>
   <si>
     <t>US simulation &amp; segmentation</t>
@@ -3208,17 +2981,6 @@
     <t>MSD-Pancreastumor</t>
   </si>
   <si>
-    <t>@article{LCTSC,
-title={Autosegmentation for thoracic radiation treatment planning: a grand challenge at AAPM 2017},
-author={Yang, Jinzhong and Veeraraghavan, Harini and Armato III, Samuel G and Farahani, Keyvan and Kirby, Justin S and Kalpathy-Kramer, Jayashree and van Elmpt, Wouter and Dekker, Andre and Han, Xiao and Feng, Xue and others},
-journal={Medical physics},
-volume={45},
-number={10},
-pages={4568--4581},
-year={2018}
-}</t>
-  </si>
-  <si>
     <t>whole body</t>
   </si>
   <si>
@@ -3314,26 +3076,6 @@
   </si>
   <si>
     <t>QIN-PROSTATE</t>
-  </si>
-  <si>
-    <t>@article{fedorov2017multiparametric,
-title={Multiparametric magnetic resonance imaging of the prostate: repeatability of volume and apparent diffusion coefficient quantification},
-author={Fedorov, Andriy and Vangel, Mark G and Tempany, Clare M and Fennessy, Fiona M},
-journal={Investigative Radiology},
-volume={52},
-number={9},
-pages={538},
-year={2017}
-}
-@article{QIN-PROSTATE,
-title={An annotated test-retest collection of prostate multiparametric MRI},
-author={Fedorov, Andriy and Schwier, Michael and Clunie, David and Herz, Christian and Pieper, Steve and Kikinis, Ron and Tempany, Clare and Fennessy, Fiona},
-journal={Scientific Data},
-volume={5},
-number={1},
-pages={1--13},
-year={2018}
-}</t>
   </si>
   <si>
     <t>IVD</t>
@@ -4176,6 +3918,589 @@
 pages={101950},
 year={2021}
 }</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9497733
+https://www.sciencedirect.com/science/article/abs/pii/S1361841522002444</t>
+  </si>
+  <si>
+    <t>@article{Adrenal-ACC-Ki67,
+title={Radiomic mapping model for prediction of Ki-67 expression in adrenocortical carcinoma},
+author={Ahmed, AA and Elmohr, MM and Fuentes, D and Habra, MA and Fisher, SB and Perrier, ND and Zhang, M and Elsayes, KM},
+journal={Clinical Radiology},
+volume={75},
+number={6},
+pages={479--e17},
+year={2020}
+}</t>
+  </si>
+  <si>
+    <t>@inproceedings{ji2022amos,
+title={{AMOS}: A Large-Scale Abdominal Multi-Organ Benchmark for Versatile Medical Image Segmentation},
+author={Yuanfeng Ji and Haotian Bai and Chongjian GE and Jie Yang and Ye Zhu and Ruimao Zhang and Zhen Li and Lingyan Zhanng and Wanling Ma and Xiang Wan and Ping Luo},
+booktitle={Thirty-sixth Conference on Neural Information Processing Systems Datasets and Benchmarks Track},
+year={2022}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/TCIA.5FNA-0924</t>
+  </si>
+  <si>
+    <t>@article{HCC-TACE,
+title={A Machine Learning Model to Predict Hepatocellular Carcinoma Response to Transcatheter Arterial Chemoembolization},
+author={Morshid, Ahmed and Elsayes, Khaled M. and Khalaf, Ahmed M. and Elmohr, Mohamed M. and Yu, Jian and Kaseb, Ahmed O. and Hassan, Mohamed and Mahvash, Armeen and Wang, Zeshan and Hazle, John D. and Fuentes, David},
+journal={Radiology: Artificial Intelligence},
+volume={1},
+number={5},
+pages={e180021},
+year={2019}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/K9/TCIA.2017.7hs46erv</t>
+  </si>
+  <si>
+    <t>@article{bakr2018radiogenomic,
+title={A radiogenomic dataset of non-small cell lung cancer},
+author={Bakr, Shaimaa and Gevaert, Olivier and Echegaray, Sebastian and Ayers, Kelsey and Zhou, Mu and Shafiq, Majid and Zheng, Hong and Benson, Jalen Anthony and Zhang, Weiruo and Leung, Ann NC and others},
+journal={Scientific Data},
+volume={5},
+number={1},
+pages={1--9},
+year={2018}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/tcia.2020.6c7y-gq39</t>
+  </si>
+  <si>
+    <t>@article{kiser2020MP,
+title={PleThora: Pleural effusion and thoracic cavity segmentations in diseased lungs for benchmarking chest CT processing pipelines},
+author={Kiser, Kendall J and Ahmed, Sara and Stieb, Sonja and Mohamed, Abdallah SR and Elhalawani, Hesham and Park, Peter YS and Doyle, Nathan S and Wang, Brandon J and Barman, Arko and Li, Zhao and others},
+journal={Medical Physics},
+volume={47},
+number={11},
+pages={5941--5952},
+year={2020}
+}
+@article{kiser2021novel,
+title={Novel autosegmentation spatial similarity metrics capture the time required to correct segmentations better than traditional metrics in a thoracic cavity segmentation workflow},
+author={Kiser, Kendall J and Barman, Arko and Stieb, Sonja and Fuller, Clifton D and Giancardo, Luca},
+journal={Journal of Digital Imaging},
+volume={34},
+pages={541--553},
+year={2021},
+publisher={Springer}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/K9/TCIA.2015.PF0M9REI</t>
+  </si>
+  <si>
+    <t>@article{aerts2014decoding,
+title={Decoding tumour phenotype by noninvasive imaging using a quantitative radiomics approach},
+author={Aerts, Hugo JWL and Velazquez, Emmanuel Rios and Leijenaar, Ralph TH and Parmar, Chintan and Grossmann, Patrick and Carvalho, Sara and Bussink, Johan and Monshouwer, Ren{\'e} and Haibe-Kains, Benjamin and Rietveld, Derek and others},
+journal={Nature Communications},
+volume={5},
+number={1},
+pages={4006},
+year={2014}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/K9/TCIA.2015.AQIIDCNM</t>
+  </si>
+  <si>
+    <t>@inproceedings{CT LymphNodes,
+title={A new 2.5 D representation for lymph node detection using random sets of deep convolutional neural network observations},
+author={Roth, Holger R and Lu, Le and Seff, Ari and Cherry, Kevin M and Hoffman, Joanne and Wang, Shijun and Liu, Jiamin and Turkbey, Evrim and Summers, Ronald M},
+booktitle={Medical Image Computing and Computer-Assisted Intervention--MICCAI 2014: 17th International Conference, Boston, MA, USA, September 14-18, 2014, Proceedings, Part I 17},
+pages={520--527},
+year={2014}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/QVAZ-JA09</t>
+  </si>
+  <si>
+    <t>@article{engelson2024lnq,
+title={LNQ Challenge 2023: Learning Mediastinal Lymph Node Segmentation with a Probabilistic Lymph Node Atlas},
+author={Engelson, Sofija and Ehrhardt, Jan and Kepp, Timo and Niemeijer, Joshua and Handels, Heinz},
+journal={arXiv preprint arXiv:2406.03984},
+year={2024}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/K9/TCIA.2017.3R3FVZ08</t>
+  </si>
+  <si>
+    <t>@article{LCTSC,
+title={Autosegmentation for thoracic radiation treatment planning: a grand challenge at AAPM 2017},
+author={Yang, Jinzhong and Veeraraghavan, Harini and Armato III, Samuel G and Farahani, Keyvan and Kirby, Justin S and Kalpathy-Kramer, Jayashree and van Elmpt, Wouter and Dekker, Andre and Han, Xiao and Feng, Xue and others},
+journal={Medical physics},
+volume={45},
+number={10},
+pages={4568--4581},
+year={2018}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.7937/K9/TCIA.2015.zF0vlOPv</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.7937/K9/TCIA.2018.MR1CKGND</t>
+  </si>
+  <si>
+    <t>@article{fedorov2017multiparametric,
+title={Multiparametric magnetic resonance imaging of the prostate: repeatability of volume and apparent diffusion coefficient quantification},
+author={Fedorov, Andriy and Vangel, Mark G and Tempany, Clare M and Fennessy, Fiona M},
+journal={Investigative Radiology},
+volume={52},
+number={9},
+pages={538},
+year={2017}
+}
+@article{QIN-PROSTATE,
+title={An annotated test-retest collection of prostate multiparametric MRI},
+author={Fedorov, Andriy and Schwier, Michael and Clunie, David and Herz, Christian and Pieper, Steve and Kikinis, Ron and Tempany, Clare and Fennessy, Fiona},
+journal={Scientific Data},
+volume={5},
+number={1},
+pages={1--13},
+year={2018}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/ERZ5-QZ59</t>
+  </si>
+  <si>
+    <t>@article{bowen2018tumor,
+title={Tumor radiomic heterogeneity: multiparametric functional imaging to characterize variability and predict response following cervical cancer radiation therapy},
+author={Bowen, Stephen R and Yuh, William TC and Hippe, Daniel S and Wu, Wei and Partridge, Savannah C and Elias, Saba and Jia, Guang and Huang, Zhibin and Sandison, George A and Nelson, Dennis and others},
+journal={Journal of Magnetic Resonance Imaging},
+volume={47},
+number={5},
+pages={1388--1396},
+year={2018}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/Q967-X166</t>
+  </si>
+  <si>
+    <t>@article{porter2020hippocampus,
+title={Hippocampus segmentation on noncontrast CT using deep learning},
+author={Porter, Evan and Fuentes, Patricia and Siddiqui, Zaid and Thompson, Andrew and Levitin, Ronald and Solis, David and Myziuk, Nick and Guerrero, Thomas},
+journal={Medical physics},
+volume={47},
+number={7},
+pages={2950--2961},
+year={2020}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>MSD-Spleen</t>
+  </si>
+  <si>
+    <t>MSD-Hippocampus</t>
+  </si>
+  <si>
+    <t>@article{NeurIPS-CellSeg,
+title = {The multimodality cell segmentation challenge: toward universal solutions},
+volume = {21},
+number = {6},
+journal = {Nature Methods},
+publisher = {Springer Science and Business Media LLC},
+author = {Ma, Jun and Xie, Ronald and Ayyadhury, Shamini and Ge, Cheng and Gupta, Anubha and Gupta, Ritu and Gu, Song and Zhang, Yao and Lee, Gihun and Kim, Joonkee and Lou, Wei and Li, Haofeng and Upschulte, Eric and Dickscheid, Timo and de Almeida, José Guilherme and Wang, Yixin and Han, Lin and Yang, Xin and Labagnara, Marco and Gligorovski, Vojislav and Scheder, Maxime and Rahi, Sahand Jamal and Kempster, Carly and Pollitt, Alice and Espinosa, Leon and Mignot, T\^am and Middeke, Jan Moritz and Eckardt, Jan-Niklas and Li, Wangkai and Li, Zhaoyang and Cai, Xiaochen and Bai, Bizhe and Greenwald, Noah F. and Van Valen, David and Weisbart, Erin and Cimini, Beth A. and Cheung, Trevor and Br\"{u}ck, Oscar and Bader, Gary D. and Wang, Bo},
+year = {2024},
+pages = {1103–1113}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/tcia.2019.8dho2gls</t>
+  </si>
+  <si>
+    <t>@article{OPC-Radiomics,
+title={Radiomic biomarkers to refine risk models for distant metastasis in HPV-related oropharyngeal carcinoma},
+author={Kwan, Jennifer Yin Yee and Su, Jie and Huang, Shao Hui and Ghoraie, Laleh S and Xu, Wei and Chan, Biu and Yip, Kenneth W and Giuliani, Meredith and Bayley, Andrew and Kim, John and others},
+journal={International Journal of Radiation Oncology Biology Physics},
+volume={102},
+number={4},
+pages={1107--1116},
+year={2018}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/TCIA.ESHQ-4D90</t>
+  </si>
+  <si>
+    <t>@article{han2021deep,
+title={Deep-learning-based image registration and automatic segmentation of organs-at-risk in cone-beam CT scans from high-dose radiation treatment of pancreatic cancer},
+author={Han, Xu and Hong, Jun and Reyngold, Marsha and Crane, Christopher and Cuaron, John and Hajj, Carla and Mann, Justin and Zinovoy, Melissa and Greer, Hastings and Yorke, Ellen and others},
+journal={Medical physics},
+volume={48},
+number={6},
+pages={3084--3095},
+year={2021}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/TCIA.X0H0-1706</t>
+  </si>
+  <si>
+    <t>@article{jordan2022pediatric,
+title={Pediatric chest-abdomen-pelvis and abdomen-pelvis CT images with expert organ contours},
+author={Jordan, Petr and Adamson, Philip M and Bhattbhatt, Vrunda and Beriwal, Surabhi and Shen, Sangyu and Radermecker, Oskar and Bose, Supratik and Strain, Linda S and Offe, Michael and Fraley, David and others},
+journal={Medical physics},
+volume={49},
+number={5},
+pages={3523--3528},
+year={2022}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/K9/TCIA.2016.LXKQ47MS</t>
+  </si>
+  <si>
+    <t>@misc{zuley2016hnsc,
+title={The Cancer Genome Atlas Head-Neck Squamous Cell Carcinoma Collection (TCGA-HNSC) (Version 6) [Data set]},
+DOI={10.7937/K9/TCIA.2016.LXKQ47MS},
+url={https://doi.org/10.7937/K9/TCIA.2016.LXKQ47MS},
+author={Zuley, M. L. and Jarosz, R. and Kirk, S. and Lee, Y. and Colen, R. and Garcia, K. and Delbeke, D. and Pham, M. and Nagy, P. and Sevinc, G. and Goldsmith, M. and Khan, S. and Net, J. M. and Lucchesi, F. R. and Aredes, N. D.},
+publisher={The Cancer Imaging Archive},
+year={2016}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7937/tcia.bdgf-8v37</t>
+  </si>
+  <si>
+    <t>@article{calabrese2022university,
+title={The University of California San Francisco preoperative diffuse glioma MRI dataset},
+author={Calabrese, Evan and Villanueva-Meyer, Javier E and Rudie, Jeffrey D and Rauschecker, Andreas M and Baid, Ujjwal and Bakas, Spyridon and Cha, Soonmee and Mongan, John T and Hess, Christopher P},
+journal={Radiology: Artificial Intelligence},
+volume={4},
+number={6},
+pages={e220058},
+year={2022}
+}
+@article{TCIA,
+title={The Cancer Imaging Archive (TCIA): maintaining and operating a public information repository},
+author={Clark, Kenneth and Vendt, Bruce and Smith, Kirk and Freymann, John and Kirby, Justin and Koppel, Paul and Moore, Stephen and Phillips, Stanley and Maffitt, David and Pringle, Michael and others},
+journal={Journal of Digital Imaging},
+volume={26},
+number={6},
+pages={1045--1057},
+year={2013}
+}</t>
+  </si>
+  <si>
+    <t>MUCI_HL60
+MUCI_Granulocytes</t>
+  </si>
+  <si>
+    <t>virtual microscopy</t>
+  </si>
+  <si>
+    <t>30+30</t>
+  </si>
+  <si>
+    <t>https://cbia.fi.muni.cz/datasets/</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/cyto.a.20714</t>
+  </si>
+  <si>
+    <t>@article{svoboda2009generation,
+title={Generation of digital phantoms of cell nuclei and simulation of image formation in 3D image cytometry},
+author={Svoboda, David and Kozubek, Michal and Stejskal, Stanislav},
+journal={Cytometry Part A: The Journal of the International Society for Advancement of Cytometry},
+volume={75},
+number={6},
+pages={494--509},
+year={2009},
+publisher={Wiley Online Library}
+}</t>
+  </si>
+  <si>
+    <t>MUCIC_Colon Tissue</t>
+  </si>
+  <si>
+    <t>virtual microscope</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-642-21596-4_4</t>
+  </si>
+  <si>
+    <t>@inproceedings{svoboda2011generation,
+title={Generation of 3D digital phantoms of colon tissue},
+author={Svoboda, David and Homola, Ond{\v{r}}ej and Stejskal, Stanislav},
+booktitle={Image Analysis and Recognition: 8th International Conference, ICIAR 2011, Burnaby, BC, Canada, June 22-24, 2011. Proceedings, Part II 8},
+pages={31--39},
+year={2011},
+organization={Springer}
+}</t>
+  </si>
+  <si>
+    <t>AxonEM</t>
+  </si>
+  <si>
+    <t>Axon</t>
+  </si>
+  <si>
+    <t>https://axonem.grand-challenge.org/</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-030-87193-2_17</t>
+  </si>
+  <si>
+    <t>@inproceedings{wei2021axonem,
+title={Axonem dataset: 3d axon instance segmentation of brain cortical regions},
+author={Wei, Donglai and Lee, Kisuk and Li, Hanyu and Lu, Ran and Bae, J Alexander and Liu, Zequan and Zhang, Lifu and dos Santos, M{\'a}rcia and Lin, Zudi and Uram, Thomas and others},
+booktitle={Medical Image Computing and Computer Assisted Intervention--MICCAI 2021: 24th International Conference, Strasbourg, France, September 27--October 1, 2021, Proceedings, Part I 24},
+pages={175--185},
+year={2021},
+organization={Springer}
+}</t>
+  </si>
+  <si>
+    <t>LungVis1.0</t>
+  </si>
+  <si>
+    <t>light sheet fluorescence microscopy</t>
+  </si>
+  <si>
+    <t>Airway</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/7413818</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-024-54267-1</t>
+  </si>
+  <si>
+    <t>@article{yang2024lungvis,
+title={LungVis 1.0: an automatic AI-powered 3D imaging ecosystem unveils spatial profiling of nanoparticle delivery and acinar migration of lung macrophages},
+author={Yang, Lin and Liu, Qiongliang and Kumar, Pramod and Sengupta, Arunima and Farnoud, Ali and Shen, Ruolin and Trofimova, Darya and Ziegler, Sebastian and Davoudi, Neda and Doryab, Ali and others},
+journal={Nature Communications},
+volume={15},
+number={1},
+pages={10138},
+year={2024},
+publisher={Nature Publishing Group UK London}
+}</t>
+  </si>
+  <si>
+    <t>NIS3D</t>
+  </si>
+  <si>
+    <t>Light Sheet Microscopy</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/11456029</t>
+  </si>
+  <si>
+    <t>https://proceedings.neurips.cc/paper_files/paper/2023/hash/0f2cd3d09a132757555b602e2dd43784-Abstract-Datasets_and_Benchmarks.html</t>
+  </si>
+  <si>
+    <t>@article{zheng2023nis3d,
+title={Nis3d: A completely annotated benchmark for dense 3d nuclei image segmentation},
+author={Zheng, Wei and Peng, Cheng and Hou, Zeyuan and Lyu, Boyu and Wang, Mengfan and Mi, Xuelong and Qiao, Shuoxuan and Wan, Yinan and Yu, Guoqiang},
+journal={Advances in Neural Information Processing Systems},
+volume={36},
+pages={4741--4752},
+year={2023}
+}</t>
+  </si>
+  <si>
+    <t>AeroPath</t>
+  </si>
+  <si>
+    <t>airways</t>
+  </si>
+  <si>
+    <t>https://github.com/raidionics/AeroPath?tab=readme-ov-file</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC11446458/</t>
+  </si>
+  <si>
+    <t>@article{stoverud2023aeropath,
+title={AeroPath: An airway segmentation benchmark dataset with challenging pathology},
+author={St{\o}verud, Karen-Helene and Bouget, David and Pedersen, Andre and Leira, H{\aa}kon Olav and Lang{\o}, Thomas and Hofstad, Erlend Fagertun},
+journal={arXiv preprint arXiv:2311.01138},
+year={2023}
+}</t>
+  </si>
+  <si>
+    <t>RESECT</t>
+  </si>
+  <si>
+    <t>MR, US</t>
+  </si>
+  <si>
+    <t>181
+=23 (MR) +158 (US)</t>
+  </si>
+  <si>
+    <t>https://osf.io/jv8bk/</t>
+  </si>
+  <si>
+    <t>https://aapm.onlinelibrary.wiley.com/doi/10.1002/mp.17317</t>
+  </si>
+  <si>
+    <t>@article{behboodi2024open,
+title={Open access segmentations of intraoperative brain tumor ultrasound images},
+author={Behboodi, Bahareh and Carton, Francois-xavier and Chabanas, Matthieu and de Ribaupierre, Sandrine and Solheim, Ole and Munkvold, Bodil KR and Rivaz, Hassan and Xiao, Yiming and Reinertsen, Ingerid},
+journal={Medical Physics},
+volume={51},
+number={9},
+pages={6525--6532},
+year={2024},
+publisher={Wiley Online Library}
+}</t>
+  </si>
+  <si>
+    <t>@article{PENGWIN-1
+title = {Preoperative fracture reduction planning for image-guided pelvic trauma surgery: A comprehensive pipeline with learning},
+journal = {Medical Image Analysis},
+volume = {102},
+pages = {103506},
+year = {2025},
+author = {Yanzhen Liu and Sutuke Yibulayimu and Yudi Sang and Gang Zhu and Chao Shi and Chendi Liang and Qiyong Cao and Chunpeng Zhao and Xinbao Wu and Yu Wang},
+}
+@inproceedings{PENGWIN-2,
+title={Pelvic Fracture Segmentation Using a Multi-scale Distance-Weighted Neural Network},
+author={Liu, Yanzhen and Yibulayimu, Sutuke and Sang, Yudi and Zhu, Gang and Wang, Yu and Zhao, Chunpeng and Wu, Xinbao},
+booktitle={International Conference on Medical Image Computing and Computer-Assisted Intervention},
+pages={312--321},
+year={2023}</t>
   </si>
 </sst>
 </file>
@@ -4648,10 +4973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D9D48-FAEB-8F40-856B-8BA2E5A81602}">
-  <dimension ref="A1:K979"/>
+  <dimension ref="A1:K986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4699,7 +5024,7 @@
         <v>2024</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -4708,7 +5033,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>25</v>
@@ -4717,16 +5042,16 @@
         <v>9262</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>766</v>
+        <v>729</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>767</v>
+        <v>730</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>768</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4757,11 +5082,11 @@
       <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4769,16 +5094,16 @@
         <v>2017</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -4787,16 +5112,16 @@
         <v>150</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4804,16 +5129,16 @@
         <v>2024</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>750</v>
+        <v>713</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -4822,16 +5147,16 @@
         <v>300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>751</v>
+        <v>714</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>753</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4839,7 +5164,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -4848,7 +5173,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -4857,24 +5182,24 @@
         <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>24</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>798</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -4883,25 +5208,25 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>799</v>
       </c>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>800</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>801</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>30</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -4909,104 +5234,104 @@
         <v>2022</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>15</v>
       </c>
       <c r="G8" s="2">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>30</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -5014,34 +5339,34 @@
         <v>2022</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>499</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>244</v>
+        <v>221</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -5049,454 +5374,454 @@
         <v>2022</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
+      <c r="G12" s="2">
+        <v>499</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>250</v>
+        <v>25</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>254</v>
+        <v>227</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <v>1000</v>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>256</v>
+        <v>75</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>670</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>530</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>133</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>734</v>
+        <v>1750</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>735</v>
+        <v>784</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>736</v>
+        <v>785</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>737</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>259</v>
+        <v>233</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>228</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>262</v>
+        <v>235</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>264</v>
+        <v>695</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>266</v>
+        <v>696</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
+        <v>697</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>268</v>
+        <v>698</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>699</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>607</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>1350</v>
+        <v>228</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>143</v>
+        <v>241</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>608</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>274</v>
+        <v>247</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>275</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>717</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12">
-        <v>3746</v>
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1350</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>720</v>
+        <v>125</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>721</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>151</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>2025</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>683</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="307" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>2020</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>276</v>
+        <v>214</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="2">
-        <v>647</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>277</v>
+      <c r="G21" s="12">
+        <v>3746</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>278</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>224</v>
+        <v>662</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>225</v>
+        <v>663</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>218</v>
+        <v>664</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>226</v>
+        <v>665</v>
       </c>
       <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>1000</v>
+        <v>683</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>227</v>
+        <v>666</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>228</v>
+        <v>667</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="307" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>224</v>
+        <v>584</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>279</v>
+        <v>198</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="F23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>500</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>647</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>280</v>
+        <v>585</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>281</v>
+        <v>586</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>770</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>286</v>
+        <v>62</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -5504,69 +5829,69 @@
         <v>2019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="F25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>153</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="F26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>40</v>
+        <v>1233</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>152</v>
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>771</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -5574,1642 +5899,1642 @@
         <v>2019</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2">
-        <v>12047</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>292</v>
+        <v>133</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>293</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="F28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2">
-        <v>704</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>277</v>
+        <v>40</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>296</v>
+        <v>133</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>297</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="F29" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>8000</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>302</v>
+        <v>12047</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>305</v>
+        <v>92</v>
       </c>
       <c r="F30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>197</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>21</v>
+        <v>704</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>307</v>
+        <v>275</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>722</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>395</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>723</v>
+        <v>279</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2">
-        <v>491</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>725</v>
+        <v>8000</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>726</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>45</v>
+        <v>284</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="F32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2">
-        <v>21165</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>312</v>
+        <v>197</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>685</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>310</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>686</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>199</v>
+        <v>491</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>49</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>21165</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>2020</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>199</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3</v>
-      </c>
-      <c r="G34" s="2">
-        <v>20</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="7">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7">
-        <v>402</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="K35" s="6" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>2021</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="B37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="7">
         <v>2</v>
       </c>
-      <c r="G36" s="2">
-        <v>5826</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="307" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>3</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>65</v>
+      <c r="G37" s="7">
+        <v>402</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>576</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>162</v>
+        <v>294</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
       </c>
       <c r="G38" s="2">
-        <v>227</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>203</v>
+        <v>5826</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="307" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="G39" s="7">
-        <v>176</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>111</v>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>112</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>227</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="7">
         <v>1</v>
       </c>
-      <c r="G40" s="2">
-        <v>4586</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="12">
-        <v>2000</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>65</v>
+      <c r="G41" s="7">
+        <v>176</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>327</v>
+        <v>746</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>328</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>329</v>
+        <v>2020</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>40</v>
+        <v>4586</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>332</v>
+        <v>300</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
-      <c r="G43" s="2">
-        <v>310</v>
+      <c r="G43" s="12">
+        <v>2000</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>336</v>
+        <v>62</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>310</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>2025</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="D46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F46" s="2">
         <v>6</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G46" s="2">
         <v>201</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="H46" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
         <v>2024</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="B47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G47" s="7">
         <v>1611</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="I47" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>2024</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="B48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="E48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="7">
         <v>1</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G48" s="7">
         <v>1611</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F47" s="2">
-        <v>7</v>
-      </c>
-      <c r="G47" s="2">
-        <v>160</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2">
-        <v>482</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>350</v>
+      <c r="I48" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>351</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>353</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="F49" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G49" s="2">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>356</v>
+        <v>322</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2020</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>358</v>
+      <c r="B50" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>3868</v>
+        <v>233</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>165</v>
+        <v>390</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>367</v>
+        <v>757</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>368</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>338</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="F53" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>42</v>
+        <v>3868</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>60</v>
+        <v>757</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>62</v>
+        <v>758</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>999</v>
+        <v>165</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>371</v>
+        <v>62</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G55" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>693</v>
+        <v>346</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>694</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>695</v>
+        <v>347</v>
       </c>
       <c r="F56" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G56" s="2">
+        <v>999</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>697</v>
+      <c r="I56" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>698</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>375</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>4607</v>
+        <v>74</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>377</v>
+        <v>20</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>378</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F58" s="2">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2">
+        <v>20</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>2024</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2">
-        <v>150</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="398" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>2021</v>
-      </c>
       <c r="B59" s="2" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
       <c r="G59" s="2">
-        <v>3773</v>
+        <v>4607</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>383</v>
+        <v>49</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="333" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>385</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>386</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
       <c r="G60" s="2">
+        <v>150</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="398" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3773</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="333" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
         <v>522</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2</v>
-      </c>
-      <c r="G61" s="2">
-        <v>60</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F62" s="2">
-        <v>4</v>
-      </c>
-      <c r="G62" s="2">
-        <v>19</v>
-      </c>
       <c r="H62" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>392</v>
+        <v>364</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>658</v>
+        <v>602</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>659</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>660</v>
+        <v>603</v>
       </c>
       <c r="F63" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G63" s="2">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>661</v>
+        <v>604</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>663</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>395</v>
+        <v>129</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="F64" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G64" s="2">
-        <v>81</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>398</v>
+        <v>19</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>621</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>622</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>64</v>
+        <v>623</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>66</v>
+        <v>624</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>67</v>
+        <v>625</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>68</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="F66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2">
-        <v>1460</v>
+        <v>81</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="J66" s="4" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>405</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>406</v>
+        <v>55</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>408</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" s="2">
-        <v>3694</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>411</v>
+        <v>100</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>412</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>377</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>164</v>
+        <v>379</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>180</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>1460</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I68" s="2"/>
       <c r="J68" s="4" t="s">
-        <v>167</v>
+        <v>380</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>168</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" s="7">
-        <v>3</v>
-      </c>
-      <c r="G69" s="7">
-        <v>489</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>72</v>
+      <c r="A69" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>3694</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>73</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>180</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F70" s="2">
-        <v>8</v>
-      </c>
-      <c r="G70" s="2">
-        <v>8000</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F71" s="2">
-        <v>11</v>
-      </c>
-      <c r="G71" s="2">
-        <v>30</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>674</v>
+      <c r="D71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="7">
+        <v>3</v>
+      </c>
+      <c r="G71" s="7">
+        <v>489</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>675</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>45</v>
+        <v>390</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>125</v>
+        <v>391</v>
       </c>
       <c r="F72" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2">
-        <v>60</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>88</v>
+        <v>8000</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>127</v>
+        <v>393</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>604</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>216</v>
+        <v>633</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>219</v>
+        <v>634</v>
       </c>
       <c r="F73" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G73" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>220</v>
+        <v>635</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>221</v>
+        <v>636</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>222</v>
+        <v>637</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>223</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7217,454 +7542,454 @@
         <v>2020</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" s="2">
-        <v>13718</v>
+        <v>60</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>421</v>
+        <v>83</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>750</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>422</v>
+        <v>111</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>423</v>
+        <v>751</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>664</v>
+        <v>196</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>665</v>
+        <v>199</v>
       </c>
       <c r="F75" s="2">
-        <v>1</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>666</v>
+        <v>3</v>
+      </c>
+      <c r="G75" s="2">
+        <v>42</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>667</v>
+        <v>201</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>668</v>
+        <v>202</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>669</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="2">
-        <v>1010</v>
+        <v>13718</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>427</v>
+        <v>83</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="385" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>429</v>
+        <v>627</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>430</v>
+        <v>628</v>
       </c>
       <c r="F77" s="2">
-        <v>53</v>
-      </c>
-      <c r="G77" s="2">
-        <v>307</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>431</v>
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>630</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>432</v>
+        <v>631</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>433</v>
+        <v>632</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>652</v>
+        <v>401</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>653</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>654</v>
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>1506</v>
+        <v>1010</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>655</v>
+        <v>403</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>656</v>
+        <v>404</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>657</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>787</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>13</v>
+        <v>788</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>789</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>114</v>
+        <v>790</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>115</v>
+        <v>791</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="385" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="F80" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G80" s="2">
-        <v>191</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>260</v>
+        <v>307</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>439</v>
+        <v>615</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>45</v>
+        <v>616</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>225</v>
+        <v>122</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="2">
-        <v>120</v>
+        <v>1506</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>442</v>
+        <v>618</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>443</v>
+        <v>620</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>444</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="F82" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" s="2">
-        <v>150</v>
+        <v>513</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>445</v>
+        <v>20</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>748</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>446</v>
+        <v>101</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>447</v>
+        <v>749</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>65</v>
+      <c r="G83" s="2">
+        <v>191</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>450</v>
+        <v>240</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>38</v>
+        <v>416</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" s="2">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>43</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>454</v>
+        <v>259</v>
       </c>
       <c r="F85" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" s="2">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>83</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>760</v>
+        <v>425</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>426</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
-      <c r="G86" s="2">
-        <v>190</v>
+      <c r="G86" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>42</v>
+        <v>427</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7672,34 +7997,34 @@
         <v>2022</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>600</v>
+        <v>723</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="2">
-        <v>443</v>
+        <v>190</v>
       </c>
       <c r="H87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7707,34 +8032,34 @@
         <v>2022</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="2">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="H88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7742,34 +8067,34 @@
         <v>2022</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>598</v>
+        <v>760</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="F89" s="2">
         <v>2</v>
       </c>
       <c r="G89" s="2">
-        <v>201</v>
+        <v>394</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>599</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7777,34 +8102,34 @@
         <v>2022</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>602</v>
+        <v>151</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="2">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7812,7 +8137,7 @@
         <v>2022</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -7821,25 +8146,25 @@
         <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
       </c>
       <c r="G91" s="2">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>43</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -7847,419 +8172,419 @@
         <v>2022</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>176</v>
+        <v>567</v>
       </c>
       <c r="F92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="2">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>177</v>
+        <v>568</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="2">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>180</v>
+        <v>38</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>455</v>
+        <v>577</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>456</v>
+        <v>157</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>457</v>
+        <v>158</v>
       </c>
       <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>48</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F95" s="2">
         <v>1</v>
       </c>
-      <c r="G94" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F95" s="7">
+      <c r="G95" s="2">
+        <v>61</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F96" s="2">
         <v>1</v>
       </c>
-      <c r="G95" s="7">
-        <v>88</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96" s="7">
+      <c r="G96" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F97" s="2">
         <v>1</v>
       </c>
-      <c r="G96" s="7">
-        <v>78</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F97" s="7">
-        <v>1</v>
-      </c>
-      <c r="G97" s="7">
-        <v>400</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>100</v>
+      <c r="G97" s="2">
+        <v>30</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>780</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>101</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>577</v>
+        <v>159</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>578</v>
+        <v>129</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>478</v>
+        <v>158</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="2">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>579</v>
+        <v>83</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>580</v>
+        <v>752</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="K98" s="15" t="s">
-        <v>582</v>
+        <v>161</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>2007</v>
+        <v>2024</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>644</v>
+        <v>432</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>645</v>
+        <v>434</v>
       </c>
       <c r="F99" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" s="2">
-        <v>434</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>65</v>
+        <v>1000</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>646</v>
+        <v>436</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>647</v>
+        <v>437</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>648</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>686</v>
+        <v>793</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>688</v>
+        <v>794</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>689</v>
+        <v>450</v>
       </c>
       <c r="F100" s="2">
-        <v>5</v>
-      </c>
-      <c r="G100" s="2">
-        <v>1672</v>
+        <v>1</v>
+      </c>
+      <c r="G100" s="12">
+        <v>22000</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>690</v>
+        <v>795</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>691</v>
+        <v>796</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>692</v>
+        <v>797</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="A101" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="7">
+        <v>1</v>
+      </c>
+      <c r="G101" s="7">
+        <v>88</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7">
+        <v>78</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
         <v>2020</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="B103" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F101" s="2">
+      <c r="E103" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" s="7">
         <v>1</v>
       </c>
-      <c r="G101" s="2">
-        <v>606</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1</v>
-      </c>
-      <c r="G102" s="2">
-        <v>300</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="2">
-        <v>3</v>
-      </c>
-      <c r="G103" s="2">
-        <v>40</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>21</v>
+      <c r="G103" s="7">
+        <v>400</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>475</v>
+        <v>744</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>476</v>
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -8267,139 +8592,139 @@
         <v>2021</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>270</v>
+        <v>543</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>247</v>
+        <v>530</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
       </c>
-      <c r="G104" s="12">
-        <v>20000</v>
+      <c r="G104" s="2">
+        <v>54</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>300</v>
+        <v>544</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>481</v>
+        <v>546</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>171</v>
+        <v>608</v>
       </c>
       <c r="F105" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G105" s="2">
-        <v>2238</v>
+        <v>434</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>170</v>
+        <v>649</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>650</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>651</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>171</v>
+        <v>652</v>
       </c>
       <c r="F106" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G106" s="2">
-        <v>767</v>
+        <v>1672</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>173</v>
+        <v>653</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>174</v>
+        <v>654</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>614</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>483</v>
+        <v>13</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="F107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="2">
-        <v>488</v>
+        <v>606</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>485</v>
+        <v>762</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>486</v>
+        <v>763</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -8407,104 +8732,104 @@
         <v>2022</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>45</v>
+        <v>441</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>488</v>
+        <v>305</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
       </c>
       <c r="G108" s="2">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>490</v>
+        <v>442</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>706</v>
+        <v>446</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>707</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>708</v>
+        <v>447</v>
       </c>
       <c r="F109" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G109" s="2">
-        <v>5567</v>
+        <v>40</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>710</v>
+        <v>448</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>711</v>
+        <v>765</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>494</v>
+        <v>250</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="F110" s="2">
-        <v>29</v>
-      </c>
-      <c r="G110" s="2">
-        <v>359</v>
+        <v>1</v>
+      </c>
+      <c r="G110" s="12">
+        <v>20000</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>496</v>
+        <v>280</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -8512,34 +8837,34 @@
         <v>2024</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>754</v>
+        <v>593</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>755</v>
+        <v>153</v>
       </c>
       <c r="F111" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G111" s="2">
-        <v>100</v>
+        <v>2238</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>757</v>
+        <v>594</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>758</v>
+        <v>596</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -8547,34 +8872,34 @@
         <v>2024</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>754</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>755</v>
+        <v>153</v>
       </c>
       <c r="F112" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G112" s="2">
-        <v>50000</v>
+        <v>767</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>757</v>
+        <v>155</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>758</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -8582,279 +8907,279 @@
         <v>2022</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>624</v>
+        <v>454</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>519</v>
+        <v>310</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="F113" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="2">
-        <v>1500</v>
+        <v>488</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>520</v>
+        <v>456</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>626</v>
+        <v>458</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>739</v>
+        <v>459</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>740</v>
+        <v>460</v>
       </c>
       <c r="F114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>741</v>
+        <v>461</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>742</v>
+        <v>463</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>743</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>182</v>
+        <v>669</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>145</v>
+        <v>670</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>176</v>
+        <v>671</v>
       </c>
       <c r="F115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="2">
-        <v>50</v>
+        <v>5567</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>183</v>
+        <v>20</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>184</v>
+        <v>673</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>615</v>
+        <v>674</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>145</v>
+        <v>466</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="F116" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G116" s="2">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>21</v>
+        <v>468</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>502</v>
+        <v>766</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>504</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>505</v>
+        <v>717</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>506</v>
+        <v>13</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="F117" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G117" s="2">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>508</v>
+        <v>171</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>509</v>
+        <v>721</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>616</v>
+        <v>717</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>185</v>
+        <v>129</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="F118" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G118" s="2">
-        <v>66</v>
+        <v>50000</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>187</v>
+        <v>722</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>617</v>
+        <v>809</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2022</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>510</v>
+      <c r="B119" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>395</v>
+        <v>129</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="F119" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="2">
-        <v>23</v>
+        <v>1500</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>513</v>
+        <v>386</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>31</v>
+        <v>2025</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>32</v>
+        <v>702</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>34</v>
+        <v>703</v>
       </c>
       <c r="F120" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="2">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>35</v>
+        <v>704</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>36</v>
+        <v>705</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>37</v>
+        <v>706</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -8862,244 +9187,244 @@
         <v>2023</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>123</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>591</v>
+        <v>470</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>530</v>
+        <v>129</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>592</v>
+        <v>471</v>
       </c>
       <c r="F122" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G122" s="2">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>594</v>
+        <v>472</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>595</v>
+        <v>473</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>596</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>591</v>
+        <v>475</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>530</v>
+        <v>129</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>592</v>
+        <v>664</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="F123" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G123" s="2">
-        <v>14</v>
+        <v>4000</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>595</v>
+        <v>20</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>596</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>585</v>
+        <v>129</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="F124" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="2">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="K124" s="15" t="s">
-        <v>628</v>
+        <v>753</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>681</v>
+        <v>2022</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>456</v>
+        <v>310</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>682</v>
+        <v>481</v>
       </c>
       <c r="F125" s="2">
-        <v>1</v>
-      </c>
-      <c r="G125" s="12">
-        <v>8000</v>
+        <v>2</v>
+      </c>
+      <c r="G125" s="2">
+        <v>23</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>684</v>
+        <v>49</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>685</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>188</v>
+        <v>803</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>804</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2">
-        <v>15</v>
-      </c>
-      <c r="G126" s="2">
-        <v>447</v>
+        <v>1</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>805</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>192</v>
+        <v>806</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>193</v>
+        <v>807</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>619</v>
+        <v>808</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="F127" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G127" s="2">
-        <v>447</v>
+        <v>56</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -9107,174 +9432,174 @@
         <v>2023</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="F128" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G128" s="2">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>195</v>
+        <v>556</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>189</v>
+        <v>495</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>190</v>
+        <v>557</v>
       </c>
       <c r="F129" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G129" s="2">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>141</v>
+        <v>558</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>196</v>
+        <v>559</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>197</v>
+        <v>560</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>198</v>
+        <v>561</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>763</v>
+        <v>2022</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>712</v>
+        <v>495</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>234</v>
+        <v>562</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>713</v>
+        <v>557</v>
       </c>
       <c r="F130" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>900</v>
+        <v>14</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>715</v>
+        <v>558</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>716</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>764</v>
+        <v>548</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>712</v>
+        <v>144</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>765</v>
+        <v>549</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>713</v>
+        <v>550</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
-      <c r="G131" s="12">
-        <v>8800</v>
+      <c r="G131" s="2">
+        <v>92</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>716</v>
+        <v>551</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="K131" s="15" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>253</v>
+        <v>433</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>414</v>
+        <v>645</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
-      <c r="G132" s="2">
-        <v>113</v>
+      <c r="G132" s="12">
+        <v>8000</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>761</v>
+        <v>316</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>650</v>
+        <v>646</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>647</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -9282,34 +9607,34 @@
         <v>2023</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>515</v>
+        <v>168</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>581</v>
       </c>
       <c r="F133" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G133" s="2">
-        <v>2561</v>
+        <v>447</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>516</v>
+        <v>172</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>517</v>
+        <v>173</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -9317,524 +9642,524 @@
         <v>2023</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
       <c r="F134" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G134" s="2">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>727</v>
+        <v>168</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>728</v>
+        <v>170</v>
       </c>
       <c r="F135" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>729</v>
+        <v>172</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>730</v>
+        <v>173</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>731</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>587</v>
+        <v>175</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="F136" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2">
+        <v>172</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H136" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I136" s="5" t="s">
-        <v>588</v>
+        <v>176</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>589</v>
+        <v>177</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>629</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>587</v>
+        <v>2025</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>726</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>162</v>
+        <v>675</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>590</v>
+        <v>214</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>348</v>
+        <v>676</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
       <c r="G137" s="2">
-        <v>125</v>
+        <v>900</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>589</v>
+        <v>20</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>727</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>129</v>
+        <v>675</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>13</v>
+        <v>728</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>130</v>
+        <v>676</v>
       </c>
       <c r="F138" s="2">
-        <v>117</v>
-      </c>
-      <c r="G138" s="2">
-        <v>1228</v>
+        <v>1</v>
+      </c>
+      <c r="G138" s="12">
+        <v>8800</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>131</v>
+        <v>20</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>132</v>
+        <v>678</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>133</v>
+        <v>679</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>204</v>
+        <v>612</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="F139" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G139" s="2">
-        <v>616</v>
+        <v>113</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>21</v>
+        <v>724</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>206</v>
+        <v>725</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>613</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>634</v>
+        <v>485</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>635</v>
+        <v>54</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>597</v>
+        <v>13</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>636</v>
+        <v>104</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" s="2">
-        <v>108</v>
+        <v>2561</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>638</v>
+        <v>768</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>521</v>
+        <v>128</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" s="2">
-        <v>501</v>
+        <v>7</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>755</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>523</v>
+        <v>130</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>524</v>
+        <v>756</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>563</v>
+        <v>690</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>564</v>
+        <v>55</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>565</v>
+        <v>122</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>566</v>
+        <v>691</v>
       </c>
       <c r="F142" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G142" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>567</v>
+        <v>257</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>568</v>
+        <v>692</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>569</v>
+        <v>693</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>570</v>
+        <v>694</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>564</v>
+        <v>144</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>565</v>
+        <v>31</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>571</v>
+        <v>328</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" s="2">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>567</v>
+        <v>15</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>701</v>
+        <v>555</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" s="2">
-        <v>992</v>
+        <v>125</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>529</v>
+        <v>112</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>530</v>
+        <v>113</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>531</v>
+        <v>114</v>
       </c>
       <c r="F145" s="2">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G145" s="2">
-        <v>5635</v>
+        <v>1228</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>533</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>534</v>
+        <v>184</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>494</v>
+        <v>113</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>284</v>
+        <v>114</v>
       </c>
       <c r="F146" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G146" s="2">
-        <v>38824</v>
+        <v>616</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>535</v>
+        <v>185</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>536</v>
+        <v>186</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>2013</v>
+        <v>2025</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>406</v>
+        <v>598</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>407</v>
+        <v>562</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" s="2">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J147" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="K147" s="6" t="s">
-        <v>542</v>
+        <v>600</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>544</v>
+        <v>239</v>
       </c>
       <c r="F148" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G148" s="2">
-        <v>2568</v>
+        <v>501</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J148" s="14" t="s">
-        <v>546</v>
+        <v>770</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>547</v>
+        <v>771</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -9842,266 +10167,420 @@
         <v>2020</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
       </c>
       <c r="G149" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>65</v>
+        <v>532</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>744</v>
+        <v>528</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>529</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>745</v>
+        <v>536</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
       </c>
       <c r="G150" s="2">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>15</v>
+        <v>532</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>746</v>
+        <v>533</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>747</v>
+        <v>534</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>748</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>209</v>
+        <v>664</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
       </c>
       <c r="G151" s="2">
-        <v>60</v>
+        <v>992</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>212</v>
+        <v>62</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>495</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>150</v>
+        <v>496</v>
       </c>
       <c r="F152" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G152" s="2">
-        <v>170</v>
+        <v>5635</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>554</v>
+        <v>62</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="J152" s="5" t="s">
-        <v>556</v>
+        <v>497</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>559</v>
+        <v>264</v>
       </c>
       <c r="F153" s="2">
         <v>1</v>
       </c>
       <c r="G153" s="2">
+        <v>38824</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2">
+        <v>206</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F155" s="2">
+        <v>26</v>
+      </c>
+      <c r="G155" s="2">
+        <v>2568</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J155" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
+      <c r="G156" s="2">
+        <v>40</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>233</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+      <c r="G158" s="2">
+        <v>60</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F159" s="2">
+        <v>16</v>
+      </c>
+      <c r="G159" s="2">
+        <v>170</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F160" s="2">
+        <v>1</v>
+      </c>
+      <c r="G160" s="2">
         <v>63</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="J153" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="K153" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+      <c r="H160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
@@ -20750,226 +21229,342 @@
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
     </row>
+    <row r="980" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A980" s="2"/>
+      <c r="B980" s="2"/>
+      <c r="C980" s="2"/>
+      <c r="D980" s="2"/>
+      <c r="E980" s="2"/>
+      <c r="F980" s="2"/>
+      <c r="G980" s="2"/>
+      <c r="H980" s="2"/>
+      <c r="I980" s="2"/>
+      <c r="J980" s="2"/>
+      <c r="K980" s="2"/>
+    </row>
+    <row r="981" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A981" s="2"/>
+      <c r="B981" s="2"/>
+      <c r="C981" s="2"/>
+      <c r="D981" s="2"/>
+      <c r="E981" s="2"/>
+      <c r="F981" s="2"/>
+      <c r="G981" s="2"/>
+      <c r="H981" s="2"/>
+      <c r="I981" s="2"/>
+      <c r="J981" s="2"/>
+      <c r="K981" s="2"/>
+    </row>
+    <row r="982" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A982" s="2"/>
+      <c r="B982" s="2"/>
+      <c r="C982" s="2"/>
+      <c r="D982" s="2"/>
+      <c r="E982" s="2"/>
+      <c r="F982" s="2"/>
+      <c r="G982" s="2"/>
+      <c r="H982" s="2"/>
+      <c r="I982" s="2"/>
+      <c r="J982" s="2"/>
+      <c r="K982" s="2"/>
+    </row>
+    <row r="983" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A983" s="2"/>
+      <c r="B983" s="2"/>
+      <c r="C983" s="2"/>
+      <c r="D983" s="2"/>
+      <c r="E983" s="2"/>
+      <c r="F983" s="2"/>
+      <c r="G983" s="2"/>
+      <c r="H983" s="2"/>
+      <c r="I983" s="2"/>
+      <c r="J983" s="2"/>
+      <c r="K983" s="2"/>
+    </row>
+    <row r="984" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A984" s="2"/>
+      <c r="B984" s="2"/>
+      <c r="C984" s="2"/>
+      <c r="D984" s="2"/>
+      <c r="E984" s="2"/>
+      <c r="F984" s="2"/>
+      <c r="G984" s="2"/>
+      <c r="H984" s="2"/>
+      <c r="I984" s="2"/>
+      <c r="J984" s="2"/>
+      <c r="K984" s="2"/>
+    </row>
+    <row r="985" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A985" s="2"/>
+      <c r="B985" s="2"/>
+      <c r="C985" s="2"/>
+      <c r="D985" s="2"/>
+      <c r="E985" s="2"/>
+      <c r="F985" s="2"/>
+      <c r="G985" s="2"/>
+      <c r="H985" s="2"/>
+      <c r="I985" s="2"/>
+      <c r="J985" s="2"/>
+      <c r="K985" s="2"/>
+    </row>
+    <row r="986" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A986" s="2"/>
+      <c r="B986" s="2"/>
+      <c r="C986" s="2"/>
+      <c r="D986" s="2"/>
+      <c r="E986" s="2"/>
+      <c r="F986" s="2"/>
+      <c r="G986" s="2"/>
+      <c r="H986" s="2"/>
+      <c r="I986" s="2"/>
+      <c r="J986" s="2"/>
+      <c r="K986" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K160" xr:uid="{018D9D48-FAEB-8F40-856B-8BA2E5A81602}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K160">
+      <sortCondition ref="B2:B160"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K983">
     <sortCondition ref="B2:B983"/>
     <sortCondition ref="A2:A983"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="https://arxiv.org/abs/2010.14808" xr:uid="{D10BE867-59D4-C742-9B9E-56A2EE73659C}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{58B3052D-FE83-A341-A60F-0603FF0696DF}"/>
-    <hyperlink ref="B120" r:id="rId3" display="https://multicenteraorta.grand-challenge.org/" xr:uid="{772A8190-6178-3542-90C2-79B26B42FB99}"/>
-    <hyperlink ref="I120" r:id="rId4" display="https://figshare.com/articles/dataset/Aortic_Vessel_Tree_AVT_CTA_Datasets_and_Segmentations/14806362" xr:uid="{95259564-A011-134C-8EE0-9404D1D7ADE5}"/>
-    <hyperlink ref="J120" r:id="rId5" display="https://arxiv.org/abs/2310.04114" xr:uid="{31E6A123-19E0-6F4F-B4E5-A4698A51115F}"/>
-    <hyperlink ref="I86" r:id="rId6" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{693173D5-157D-274D-9D69-AE6B9A9A098B}"/>
-    <hyperlink ref="I34" r:id="rId7" xr:uid="{8B34C248-E52F-0540-A47E-7CB3DAD1E418}"/>
-    <hyperlink ref="J34" r:id="rId8" xr:uid="{AA4880D0-4C5A-8245-AE89-90F579F1F8D4}"/>
-    <hyperlink ref="I53" r:id="rId9" location=".ZBtfBHbMJaQ" display="https://zenodo.org/records/7442914 - .ZBtfBHbMJaQ" xr:uid="{53BFB196-6A30-4A4B-ABFC-95335F62C333}"/>
-    <hyperlink ref="J53" r:id="rId10" xr:uid="{41FCD0B5-30D0-504B-8051-5EBD4DFBA2D1}"/>
-    <hyperlink ref="I65" r:id="rId11" xr:uid="{75ADD1BB-894D-5F47-B625-2973D9BFEF4C}"/>
-    <hyperlink ref="J65" r:id="rId12" xr:uid="{683A38B2-6A08-CC4C-B5A4-1FEA620100C9}"/>
-    <hyperlink ref="I89" r:id="rId13" xr:uid="{55FA7D50-518F-8043-A9D9-FEA991D3B6BB}"/>
-    <hyperlink ref="I87" r:id="rId14" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{03596E04-FCE6-A745-8BD8-6FCC72B631E7}"/>
-    <hyperlink ref="I90" r:id="rId15" xr:uid="{BDA14EEC-BF9D-5E46-ADF4-A795984BE0C5}"/>
-    <hyperlink ref="J96" r:id="rId16" xr:uid="{85A6A7E9-2A75-E74C-8DE4-BAB039671846}"/>
-    <hyperlink ref="I35" r:id="rId17" xr:uid="{01C71323-DC6C-3E42-B65B-0CC895A8A573}"/>
-    <hyperlink ref="I79" r:id="rId18" xr:uid="{7B1FC30D-2E8A-5544-9A82-64FD44206DCE}"/>
-    <hyperlink ref="J79" r:id="rId19" xr:uid="{ABAD0C1C-AD4C-D147-8BD9-EB00771B6F13}"/>
-    <hyperlink ref="I91" r:id="rId20" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{71BCBF82-1D21-F043-9A0A-A624633C5588}"/>
-    <hyperlink ref="I121" r:id="rId21" display="https://drive.google.com/drive/folders/115mzmNlZRIewnSR2QFDwW_-RkNM0LC9D" xr:uid="{3EAA04E5-113D-A74A-81CD-12C1E2B4718A}"/>
-    <hyperlink ref="J121" r:id="rId22" xr:uid="{193A9E1E-222B-A64B-975E-FA6793663B66}"/>
-    <hyperlink ref="J138" r:id="rId23" xr:uid="{93958871-39A6-3E4E-86FA-B4E8AE2C1189}"/>
-    <hyperlink ref="I45" r:id="rId24" xr:uid="{C75EBDD0-3D12-2E4B-B383-119590F19EF9}"/>
-    <hyperlink ref="J45" r:id="rId25" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{792FF036-D0B8-0D42-A7F4-48A0F4797183}"/>
-    <hyperlink ref="I46" r:id="rId26" xr:uid="{996BEBD7-078C-3F4B-BA61-1A03470ED09A}"/>
-    <hyperlink ref="J46" r:id="rId27" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{2E180EEF-D368-8F47-918A-81C3795AC2CD}"/>
-    <hyperlink ref="J8" r:id="rId28" xr:uid="{EA323093-A46D-4248-9745-241DBD8AD572}"/>
-    <hyperlink ref="I2" r:id="rId29" xr:uid="{C0737617-7575-1B40-9265-FFDD27A98366}"/>
-    <hyperlink ref="I4" r:id="rId30" location="collection/637218c173e9f0047faa00fb" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/637218c173e9f0047faa00fb" xr:uid="{77C78CDB-C4F2-CD45-A387-A938AC54268D}"/>
-    <hyperlink ref="J4" r:id="rId31" xr:uid="{651710AE-A4F0-9346-BC26-12BB98883BD3}"/>
-    <hyperlink ref="I25" r:id="rId32" xr:uid="{BCA1C765-9D07-C642-AC1E-ABFB7685DFAD}"/>
-    <hyperlink ref="J25" r:id="rId33" xr:uid="{A6EB68D9-5C04-1D44-B472-0394406AF214}"/>
-    <hyperlink ref="J38" r:id="rId34" xr:uid="{67B23FBF-831B-9148-959C-778682D46102}"/>
-    <hyperlink ref="I58" r:id="rId35" xr:uid="{D683E39D-FEE6-BB44-9B0C-3F27AF4F29E7}"/>
-    <hyperlink ref="J58" r:id="rId36" xr:uid="{C2F0D956-90D1-2346-9F7B-FBCD899C5FCD}"/>
-    <hyperlink ref="I88" r:id="rId37" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{C7827BAC-AE8A-4643-857D-0DA2D17D6CA9}"/>
-    <hyperlink ref="I92" r:id="rId38" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{E3DD4707-4D0D-A543-A8C8-7A062BB7E08B}"/>
-    <hyperlink ref="I93" r:id="rId39" display="https://wiki.cancerimagingarchive.net/display/Public/NCI-ISBI+2013+Challenge+-+Automated+Segmentation+of+Prostate+Structures" xr:uid="{8A9BA09F-C519-D84A-8556-C6E57688F7EE}"/>
-    <hyperlink ref="J93" r:id="rId40" xr:uid="{35832A85-B6AD-3643-B830-5084235A0FD9}"/>
-    <hyperlink ref="I106" r:id="rId41" xr:uid="{C8975DF6-937E-0545-A4C1-D35404C1F62B}"/>
-    <hyperlink ref="J106" r:id="rId42" xr:uid="{8A9AEE5B-D9C1-E543-8F9A-EBE77B2AC714}"/>
-    <hyperlink ref="J115" r:id="rId43" display="https://promise12.grand-challenge.org/Details/" xr:uid="{1E5BBDD0-CB18-9D49-8CCF-B19ED2E985E9}"/>
-    <hyperlink ref="I118" r:id="rId44" display="https://wiki.cancerimagingarchive.net/display/Public/QIN-PROSTATE-Repeatability" xr:uid="{EB173718-2BDE-FE4B-B009-9E94D17DE458}"/>
-    <hyperlink ref="J118" r:id="rId45" xr:uid="{31DC5168-1961-0848-8ED3-B75213C7BB78}"/>
-    <hyperlink ref="I126" r:id="rId46" xr:uid="{BB195175-2A7C-1B45-BECF-3C8D1C9B7837}"/>
-    <hyperlink ref="J126" r:id="rId47" xr:uid="{27C146BC-85B8-E346-9021-34241FCA009E}"/>
-    <hyperlink ref="I127" r:id="rId48" xr:uid="{DCDC4610-6054-C54D-A76E-AEF8E56E17FC}"/>
-    <hyperlink ref="J127" r:id="rId49" xr:uid="{178AE9EA-25CD-204E-AA13-F870D504C6C4}"/>
-    <hyperlink ref="I128" r:id="rId50" xr:uid="{D6BAAEC3-53EE-D047-AFC3-3B0DF6744BD5}"/>
-    <hyperlink ref="J128" r:id="rId51" xr:uid="{E706B04F-ADB2-8541-B232-AAECD2BE7E8D}"/>
-    <hyperlink ref="I129" r:id="rId52" xr:uid="{5A0C4C57-7C4C-5046-9A61-A6490081706B}"/>
-    <hyperlink ref="J129" r:id="rId53" xr:uid="{2806FE08-F194-AC47-BC0F-7646F85B4B0C}"/>
-    <hyperlink ref="I134" r:id="rId54" xr:uid="{60A87E17-D1E9-7646-9CC3-8294B3BE6624}"/>
-    <hyperlink ref="J134" r:id="rId55" xr:uid="{B1CD65BC-4B0D-8A4C-B8A9-FBD5D177AF20}"/>
-    <hyperlink ref="I139" r:id="rId56" xr:uid="{BBF3AD9A-6AA9-8145-AEF3-25BD36B6C1DE}"/>
-    <hyperlink ref="J139" r:id="rId57" xr:uid="{4E91C8D3-4277-4941-BD42-9D1C8AD8FDE0}"/>
-    <hyperlink ref="I73" r:id="rId58" xr:uid="{D94FD7B7-C621-0C47-9927-10A3147F7789}"/>
-    <hyperlink ref="J73" r:id="rId59" xr:uid="{EE174969-8A44-934C-9D66-15F1606DF829}"/>
-    <hyperlink ref="I22" r:id="rId60" xr:uid="{F03F4847-C112-5942-88E6-A1B04E662D8F}"/>
-    <hyperlink ref="J22" r:id="rId61" xr:uid="{CB3EF8FE-446A-AD46-9316-6ECFCBDD5120}"/>
-    <hyperlink ref="I11" r:id="rId62" xr:uid="{F413CF33-F797-7847-B564-83546338D933}"/>
-    <hyperlink ref="I9" r:id="rId63" xr:uid="{9455D64F-C870-2348-A961-483AC77C3F63}"/>
-    <hyperlink ref="J9" r:id="rId64" xr:uid="{A971DB8B-7B03-4347-984D-3C8300252744}"/>
-    <hyperlink ref="I10" r:id="rId65" xr:uid="{4855FB57-E7AC-CD46-A094-C6FB1F45F46D}"/>
-    <hyperlink ref="J10" r:id="rId66" xr:uid="{2998C622-F0B8-B749-A0A4-879C3BD5ADD9}"/>
-    <hyperlink ref="I12" r:id="rId67" display="https://aggc22.grand-challenge.org/AGGC22/" xr:uid="{B7B579AE-2979-534E-917F-41581E81BD5B}"/>
-    <hyperlink ref="J12" r:id="rId68" xr:uid="{FEE40FDD-6B96-9C4F-A33E-BCE6C6BF8518}"/>
-    <hyperlink ref="J15" r:id="rId69" xr:uid="{F4222539-6C75-A142-AB2F-566B5BA7DBBB}"/>
-    <hyperlink ref="I16" r:id="rId70" display="https://brainptm-2021.grand-challenge.org/Participation/" xr:uid="{2615F872-0472-2A44-9A38-B2D2BB010E9C}"/>
-    <hyperlink ref="I18" r:id="rId71" xr:uid="{FEF42009-F80B-2F44-A208-6C7DAAB3960B}"/>
-    <hyperlink ref="J18" r:id="rId72" xr:uid="{0E32C5C8-F2BC-3E43-BFE7-B1CA139EADAF}"/>
-    <hyperlink ref="I21" r:id="rId73" xr:uid="{C6289C2D-D57B-7849-9A5F-98AE8DC8F452}"/>
-    <hyperlink ref="J21" r:id="rId74" xr:uid="{BA7058D5-4F85-1846-ACA5-86627A2EDF4B}"/>
-    <hyperlink ref="I23" r:id="rId75" location="collection/6373703d73e9f0047faa1bc8" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/6373703d73e9f0047faa1bc8" xr:uid="{FD736F6F-7AF5-F44B-A585-CFB43DBC5B11}"/>
-    <hyperlink ref="J23" r:id="rId76" xr:uid="{F021A71F-90A5-2040-BEBE-697AE4D77D83}"/>
-    <hyperlink ref="J24" r:id="rId77" display="https://doi.org/10.7937/29kw-ae92" xr:uid="{BFD1BC03-8914-A34E-9D33-25D53FA2635E}"/>
-    <hyperlink ref="I26" r:id="rId78" xr:uid="{60D9CAE2-D9DA-3D48-A7E8-3261C52C5666}"/>
-    <hyperlink ref="J26" r:id="rId79" xr:uid="{CDFC2023-3F2A-B04C-A6DE-F16D465DDF06}"/>
-    <hyperlink ref="I27" r:id="rId80" xr:uid="{BEADC1F8-1F94-AD4A-8DAC-61A2FA6E7AF9}"/>
-    <hyperlink ref="I28" r:id="rId81" xr:uid="{470223B3-FA01-0744-B9FB-0EF321D3E998}"/>
-    <hyperlink ref="J28" r:id="rId82" display="https://www.kaggle.com/datasets/nikhilpandey360/chest-xray-masks-and-labels" xr:uid="{F2E40D02-966D-7F48-879E-7269CC59434A}"/>
-    <hyperlink ref="I30" r:id="rId83" display="https://www.cancerimagingarchive.net/collection/colorectal-liver-metastases/" xr:uid="{445A7613-EE45-444E-B4B5-1840DF22C25D}"/>
-    <hyperlink ref="J30" r:id="rId84" display="https://doi.org/10.7937/QXK2-QG03" xr:uid="{BF2EB83A-8499-DD44-87C8-AA5412AC69A1}"/>
-    <hyperlink ref="I36" r:id="rId85" xr:uid="{BFA4B60A-6FBD-934B-B798-31166EFF741C}"/>
-    <hyperlink ref="J36" r:id="rId86" display="https://doi.org/10.1016/j.compbiomed.2021.105002" xr:uid="{AAF7CB42-1C37-CF41-8C7C-A894F5B43D00}"/>
-    <hyperlink ref="I40" r:id="rId87" display="https://www.kaggle.com/datasets/siatsyx/ct2usforkidneyseg" xr:uid="{BFCEC788-621B-9544-AE0C-B7F0E621CC31}"/>
-    <hyperlink ref="J40" r:id="rId88" xr:uid="{BEDBA376-2762-DC48-A251-6A947A46C498}"/>
-    <hyperlink ref="I41" r:id="rId89" display="https://dfu-challenge.github.io/" xr:uid="{E5E99361-5A3A-5840-BB94-72A65230BB3B}"/>
-    <hyperlink ref="J41" r:id="rId90" xr:uid="{41A36657-F22C-B64F-ABC2-9983A9096538}"/>
-    <hyperlink ref="J42" r:id="rId91" xr:uid="{B3662D27-DBD2-0A48-A265-96F06DDF6F8C}"/>
-    <hyperlink ref="I43" r:id="rId92" xr:uid="{9DF3164D-4FA2-584C-91E3-7CD555377F31}"/>
-    <hyperlink ref="J43" r:id="rId93" xr:uid="{CE2C6F46-14D6-7D40-A6BF-B67878AEDAD1}"/>
-    <hyperlink ref="J48" r:id="rId94" xr:uid="{67250265-DEE9-2542-ABB3-E3A98D711E36}"/>
-    <hyperlink ref="I49" r:id="rId95" display="https://www.kaggle.com/datasets/ashkhagan/figshare-brain-tumor-dataset" xr:uid="{D176D9AC-194C-4E46-86DF-2F663AADF6C5}"/>
-    <hyperlink ref="J49" r:id="rId96" xr:uid="{1ED4E19E-C03B-E841-B632-613889E76AC6}"/>
-    <hyperlink ref="J50" r:id="rId97" xr:uid="{DEC52322-A038-E340-A00B-7DE95950B8BD}"/>
-    <hyperlink ref="I51" r:id="rId98" xr:uid="{4F3699F5-4C40-9748-9CA7-801B5D22445B}"/>
-    <hyperlink ref="J51" r:id="rId99" xr:uid="{1DA1A24B-A8C2-864B-9F54-121BDA78309D}"/>
-    <hyperlink ref="I52" r:id="rId100" display="https://www.kaggle.com/datasets/sani84/glasmiccai2015-gland-segmentation" xr:uid="{702BB2E2-7678-A349-8001-2FD8960EB22D}"/>
-    <hyperlink ref="I59" r:id="rId101" display="https://www.kaggle.com/competitions/hubmap-kidney-segmentation/data?select=test" xr:uid="{5E9665C9-D93F-0348-A9B9-A1A54C3F7F25}"/>
-    <hyperlink ref="J59" r:id="rId102" xr:uid="{2BB4B6F3-222D-E749-B361-C97ADB0FFD44}"/>
-    <hyperlink ref="I60" r:id="rId103" display="https://www.kaggle.com/competitions/hubmap-organ-segmentation/" xr:uid="{96DA783A-C2A7-CB4E-B761-5153D86882F9}"/>
-    <hyperlink ref="I62" r:id="rId104" location="prostate-data" display="https://i2cvb.github.io/ - prostate-data" xr:uid="{F1E61F18-CFC9-BF48-BB52-ACB235475845}"/>
-    <hyperlink ref="J62" r:id="rId105" xr:uid="{5ACB4758-D1C5-D64C-8506-4C7B2202D1B7}"/>
-    <hyperlink ref="I76" r:id="rId106" xr:uid="{F469E20A-90A5-5B4D-A32F-E51235684FDA}"/>
-    <hyperlink ref="J76" r:id="rId107" xr:uid="{C7E184E5-BDF4-8641-8A0A-1782A86AE409}"/>
-    <hyperlink ref="J77" r:id="rId108" xr:uid="{F5EBABB6-3CB0-9145-A51E-570447C66236}"/>
-    <hyperlink ref="J80" r:id="rId109" display="https://www.cancerimagingarchive.net/collection/meningioma-seg-class/" xr:uid="{AA6A9136-D823-9E46-BBAD-0EF898419B5F}"/>
-    <hyperlink ref="I81" r:id="rId110" xr:uid="{2A28EFDC-F75C-E94E-8101-A03E524739F1}"/>
-    <hyperlink ref="J82" r:id="rId111" xr:uid="{84D1E849-C802-B845-8960-64C6E46458D2}"/>
-    <hyperlink ref="I83" r:id="rId112" display="https://www.kaggle.com/datasets/tuanledinh/monuseg2018" xr:uid="{BBC8B4F3-B097-A642-A416-FEB0EA61384C}"/>
-    <hyperlink ref="J83" r:id="rId113" xr:uid="{59037AFD-910F-C84C-A349-81F4F38241BD}"/>
-    <hyperlink ref="I84" r:id="rId114" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{B59CF1D6-D6A8-5B4D-B53D-181F1BB63447}"/>
-    <hyperlink ref="I85" r:id="rId115" xr:uid="{DBAC71B6-25AC-6C4A-8B23-472D0E25DB3D}"/>
-    <hyperlink ref="I94" r:id="rId116" xr:uid="{D17E25C6-E94D-D649-A117-52EC8591A6AF}"/>
-    <hyperlink ref="J94" r:id="rId117" xr:uid="{AE21F2DD-9A30-844F-86AF-853AC73BB506}"/>
-    <hyperlink ref="I101" r:id="rId118" xr:uid="{7CFCBCB4-0E95-D44D-BB5E-6158233F596B}"/>
-    <hyperlink ref="J101" r:id="rId119" xr:uid="{2A52BB35-C0B8-EB43-B2BA-8B97E3B892B5}"/>
-    <hyperlink ref="I102" r:id="rId120" display="https://p2ilf.grand-challenge.org/" xr:uid="{5A6F8F26-D781-CE4F-9BC1-B120F7F97227}"/>
-    <hyperlink ref="J102" r:id="rId121" xr:uid="{4C3B5A49-528D-9348-BDF1-DD34C7A8E8EE}"/>
-    <hyperlink ref="I103" r:id="rId122" xr:uid="{6D47DA84-5669-E447-8542-541BF4934AA8}"/>
-    <hyperlink ref="J103" r:id="rId123" xr:uid="{C7C9F322-E27D-4C4D-A761-0419AB755DB5}"/>
-    <hyperlink ref="I104" r:id="rId124" display="https://www.kaggle.com/datasets/andrewmvd/cancer-inst-segmentation-and-classification" xr:uid="{6499D51C-D6D3-9945-8006-E63568A3ABFE}"/>
-    <hyperlink ref="J104" r:id="rId125" xr:uid="{246122BC-5F91-C24E-A822-11778995A060}"/>
-    <hyperlink ref="I107" r:id="rId126" xr:uid="{504FB10A-CCAC-EC46-BB83-4E2326939E9E}"/>
-    <hyperlink ref="I108" r:id="rId127" display="https://parse2022.grand-challenge.org/Dataset/" xr:uid="{9A77C236-54C3-3D47-9573-08057429D061}"/>
-    <hyperlink ref="J108" r:id="rId128" xr:uid="{82DEF23C-A6B5-074C-BF2D-E2361F946A36}"/>
-    <hyperlink ref="I110" r:id="rId129" xr:uid="{8C806E11-53C8-E74F-A11C-AD8DF0EAE1B4}"/>
-    <hyperlink ref="J110" r:id="rId130" xr:uid="{F718238E-6FB4-024C-A329-2D2E94C44BAE}"/>
-    <hyperlink ref="I116" r:id="rId131" display="https://www.cancerimagingarchive.net/collection/prostate-anatomical-edge-cases/" xr:uid="{FA6843E5-E4E1-1C4A-8D40-1BA182032125}"/>
-    <hyperlink ref="J116" r:id="rId132" xr:uid="{062F0225-A03D-C744-A2EE-F2238A6EA438}"/>
-    <hyperlink ref="I133" r:id="rId133" xr:uid="{73E4421B-B168-3543-B738-3CC9A21DAB14}"/>
-    <hyperlink ref="J133" r:id="rId134" location="11829589e26236b332b8438fbc8f5463e31de8cf" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=11829589 - 11829589e26236b332b8438fbc8f5463e31de8cf" xr:uid="{7BA0EDAF-54FC-0043-A50C-E49A9CA47A41}"/>
-    <hyperlink ref="I113" r:id="rId135" xr:uid="{27E4D903-BE07-384B-A135-ED34DE8DEC47}"/>
-    <hyperlink ref="J113" r:id="rId136" location="ec-research-data" display="https://www.sciencedirect.com/science/article/pii/S1361841521002012 - ec-research-data" xr:uid="{1ACCAA01-B50B-D04D-93B4-D89DF7765E83}"/>
-    <hyperlink ref="J141" r:id="rId137" xr:uid="{BA909A90-7DD9-7C4E-B961-5BE2AC9FA323}"/>
-    <hyperlink ref="I144" r:id="rId138" display="https://www.kaggle.com/datasets/ignaciorlando/ussimandsegm" xr:uid="{71EFB214-357A-1447-B0D8-C4B0D8E98810}"/>
-    <hyperlink ref="J144" r:id="rId139" xr:uid="{BB094555-D6FA-4146-AAA9-EB2F49D7AD77}"/>
-    <hyperlink ref="I145" r:id="rId140" display="https://www.kaggle.com/competitions/ultrasound-nerve-segmentation/data" xr:uid="{B254F081-01CB-3544-AC05-7970F985C32D}"/>
-    <hyperlink ref="I146" r:id="rId141" xr:uid="{F2DCDA72-BF1E-5A4C-B905-8B9C76CD4B8A}"/>
-    <hyperlink ref="J146" r:id="rId142" display="https://uls23.grand-challenge.org/uls23/" xr:uid="{DF758E35-05A7-B943-A8CE-9AF0F3359813}"/>
-    <hyperlink ref="I147" r:id="rId143" xr:uid="{B05E9949-1C43-D540-A3FF-47DF16C39CCC}"/>
-    <hyperlink ref="J147" r:id="rId144" display="https://ieeexplore.ieee.org/document/6937161" xr:uid="{A2018AF2-41CD-EF4A-98AD-A27191E400D7}"/>
-    <hyperlink ref="I148" r:id="rId145" display="https://github.com/anjany/verse?tab=readme-ov-file" xr:uid="{AF921E7D-F020-6847-8601-B7477E5D0429}"/>
-    <hyperlink ref="I149" r:id="rId146" display="https://www.kaggle.com/datasets/andrewmvd/lung-vessel-segmentation" xr:uid="{D005317E-169F-004E-8CAF-FE1CDAC65334}"/>
-    <hyperlink ref="J149" r:id="rId147" xr:uid="{9A69C099-84DB-2246-8648-BB42EC8BFA48}"/>
-    <hyperlink ref="I152" r:id="rId148" xr:uid="{65166BD7-E6C6-B140-BFDF-97A8010A44F4}"/>
-    <hyperlink ref="J152" r:id="rId149" xr:uid="{B5E62A9E-FF77-EC40-8156-B5953905252E}"/>
-    <hyperlink ref="I153" r:id="rId150" display="https://wsss4luad.grand-challenge.org/License/" xr:uid="{DE20A050-8393-1741-A063-9E5C4B012C8A}"/>
-    <hyperlink ref="J153" r:id="rId151" display="https://arxiv.org/abs/2204.06455" xr:uid="{9F809A8F-E58E-7842-B7C7-92D1FB59EC3D}"/>
-    <hyperlink ref="I142" r:id="rId152" xr:uid="{4CA52F23-EEAC-F841-8AFA-52CE0117FB15}"/>
-    <hyperlink ref="J142" r:id="rId153" xr:uid="{21F6AAFF-8BC1-554F-9CE8-1CABE27C5E46}"/>
-    <hyperlink ref="I143" r:id="rId154" xr:uid="{AE92BBE8-1170-F84E-90A9-4064054A7427}"/>
-    <hyperlink ref="J143" r:id="rId155" xr:uid="{E2FDB238-3C5C-C842-BCF6-76618DFE4DAA}"/>
-    <hyperlink ref="I37" r:id="rId156" xr:uid="{8084AEE1-46B8-B440-86CD-DC12F57D4BEF}"/>
-    <hyperlink ref="I98" r:id="rId157" xr:uid="{4B66E511-CD4E-854C-84D2-EF38EC4BE3E4}"/>
-    <hyperlink ref="J98" r:id="rId158" xr:uid="{073F5EEB-A636-2441-B9A6-D7D234E94FE6}"/>
-    <hyperlink ref="I124" r:id="rId159" xr:uid="{0FF303B7-A25D-1645-A35C-CF8D6B56811A}"/>
-    <hyperlink ref="I136" r:id="rId160" xr:uid="{26AC2D5D-D54F-FE47-8913-6B19F4D9170D}"/>
-    <hyperlink ref="J136" r:id="rId161" xr:uid="{0DB2D0E8-E599-A24C-8582-9E32FA960732}"/>
-    <hyperlink ref="I137" r:id="rId162" xr:uid="{91B5D59D-5AA0-0943-B177-4A60FE476450}"/>
-    <hyperlink ref="J137" r:id="rId163" xr:uid="{011B611F-FC55-2C4F-8F16-09A7F7A72B97}"/>
-    <hyperlink ref="I122" r:id="rId164" xr:uid="{88958C97-9FFA-E048-8A5D-0BF09D2BF618}"/>
-    <hyperlink ref="J122" r:id="rId165" xr:uid="{DDEFBC6D-2430-AB40-A9CA-8459F1D7DEEB}"/>
-    <hyperlink ref="I123" r:id="rId166" xr:uid="{E56A4CC0-05DF-E740-9D3D-63E84B995323}"/>
-    <hyperlink ref="J123" r:id="rId167" xr:uid="{9F3DD5A0-1E05-8147-A2F6-B01B4164475E}"/>
-    <hyperlink ref="I105" r:id="rId168" xr:uid="{41D78B0B-C907-F743-86AE-86EEDEB6F2B2}"/>
-    <hyperlink ref="J105" r:id="rId169" xr:uid="{9A18C6A2-D26F-DA42-A2C1-0989A9EF3C49}"/>
-    <hyperlink ref="I140" r:id="rId170" xr:uid="{D0006C92-46C7-D04A-A3A9-9917A0C87DC0}"/>
-    <hyperlink ref="I61" r:id="rId171" xr:uid="{1B772913-26C9-BD40-A93D-CE461FC2FBC4}"/>
-    <hyperlink ref="J61" r:id="rId172" xr:uid="{EFB9328E-6F0D-0E40-90A8-593DF3FA1DE5}"/>
-    <hyperlink ref="I99" r:id="rId173" xr:uid="{82B23E8F-30A3-1240-92A5-4B89249D81BF}"/>
-    <hyperlink ref="J99" r:id="rId174" xr:uid="{F919B42C-9D5A-B344-8267-790ECC876929}"/>
-    <hyperlink ref="I132" r:id="rId175" display="https://github.com/GewelsJI/VPS" xr:uid="{3BC5EB08-4594-B046-A64F-775BB452E8A6}"/>
-    <hyperlink ref="J132" r:id="rId176" display="https://link.springer.com/article/10.1007/s11633-022-1371-y" xr:uid="{1D2F25FD-BC85-5148-B298-39B1FF14E5A7}"/>
-    <hyperlink ref="I78" r:id="rId177" xr:uid="{92A05876-72BD-F045-8245-0B1EF0777312}"/>
-    <hyperlink ref="J78" r:id="rId178" xr:uid="{2C002735-1B9A-EE45-831B-C6258EA6FA65}"/>
-    <hyperlink ref="I63" r:id="rId179" xr:uid="{1FCE7AE4-52B2-0147-956B-683916389214}"/>
-    <hyperlink ref="J63" r:id="rId180" xr:uid="{E7D01C31-9627-B941-831E-F671D1D5846F}"/>
-    <hyperlink ref="I75" r:id="rId181" xr:uid="{2EC2859B-C080-5D46-A1A9-362CA3902730}"/>
-    <hyperlink ref="J75" r:id="rId182" xr:uid="{1C7DC181-7082-AA43-BC07-69B8ADC110C5}"/>
-    <hyperlink ref="I71" r:id="rId183" xr:uid="{074A3BDC-31E4-C94E-A49E-8A8132518256}"/>
-    <hyperlink ref="J71" r:id="rId184" xr:uid="{9CBFE6E1-1049-D24A-A254-AE4C14A7F7BB}"/>
-    <hyperlink ref="I44" r:id="rId185" xr:uid="{52530A76-1061-9D4E-A9A7-6D8D8384C815}"/>
-    <hyperlink ref="J44" r:id="rId186" xr:uid="{D38B4425-DF2D-4B40-B627-3234B4A21B7A}"/>
-    <hyperlink ref="I125" r:id="rId187" xr:uid="{DB94BFAC-380E-1541-93DE-8B32CB4AE447}"/>
-    <hyperlink ref="J125" r:id="rId188" xr:uid="{5D7E2797-D48C-AB4C-9324-0E3B93CCDC24}"/>
-    <hyperlink ref="I100" r:id="rId189" xr:uid="{00ABD820-4CDC-954D-B304-057014422B60}"/>
-    <hyperlink ref="J100" r:id="rId190" xr:uid="{ECAD7788-A8BF-CB41-8686-86F4D809EAB9}"/>
-    <hyperlink ref="I56" r:id="rId191" xr:uid="{AE8F8D9A-FA35-8C47-9789-4BC5A1E84B8E}"/>
-    <hyperlink ref="J56" r:id="rId192" xr:uid="{ED5CA4A1-9350-794C-A8CE-AC21ABBF0E32}"/>
-    <hyperlink ref="I20" r:id="rId193" xr:uid="{E71B0178-0429-D744-9472-C8498D35AF76}"/>
-    <hyperlink ref="J20" r:id="rId194" xr:uid="{2F28EAB3-41D5-1445-97B7-19F053E3238E}"/>
-    <hyperlink ref="I109" r:id="rId195" xr:uid="{F82FEC81-3213-DB42-93EE-4CBBE2C60EC5}"/>
-    <hyperlink ref="J109" r:id="rId196" xr:uid="{3F4E181E-0191-2D49-9A99-1DEE076DEAF9}"/>
-    <hyperlink ref="I131" r:id="rId197" xr:uid="{D29A927C-7DAA-A243-8097-96A931F72961}"/>
-    <hyperlink ref="J131" r:id="rId198" xr:uid="{B69AF58D-20FB-1B4C-9A60-DB613CC50619}"/>
-    <hyperlink ref="I19" r:id="rId199" xr:uid="{B89217C5-5781-714A-B98E-AF7C6815C9FC}"/>
-    <hyperlink ref="J19" r:id="rId200" xr:uid="{37769AD6-CF26-4D4B-AD72-84CAA0362708}"/>
-    <hyperlink ref="I31" r:id="rId201" xr:uid="{CA54E17A-EBDD-D549-B517-87A169D43AFC}"/>
-    <hyperlink ref="J31" r:id="rId202" xr:uid="{D131E059-2E76-0D4C-8A75-F71C402341DF}"/>
-    <hyperlink ref="I135" r:id="rId203" xr:uid="{A09E41FB-6D31-FD49-AD81-C2FC765BF71D}"/>
-    <hyperlink ref="J135" r:id="rId204" xr:uid="{E28EEDA9-CC1A-6745-B5C9-3C1C6905F76F}"/>
-    <hyperlink ref="I14" r:id="rId205" xr:uid="{793B733E-14EA-E542-BC08-738D4E06F8D4}"/>
-    <hyperlink ref="J14" r:id="rId206" xr:uid="{736E3DCA-566B-BF4F-A6F8-41605477A929}"/>
-    <hyperlink ref="I114" r:id="rId207" xr:uid="{A3CEC4BD-10CE-954B-9382-A92EEC422288}"/>
-    <hyperlink ref="J114" r:id="rId208" xr:uid="{F73F90A9-F73D-B049-A965-42FB1F07FE86}"/>
-    <hyperlink ref="I150" r:id="rId209" xr:uid="{22140A7E-48AF-C047-9C56-ADCBA74876A2}"/>
-    <hyperlink ref="J150" r:id="rId210" xr:uid="{8F4D6D40-A24F-9040-A680-23D8E80AB30D}"/>
-    <hyperlink ref="I5" r:id="rId211" display="https://acouslic-ai.grand-challenge.org/" xr:uid="{E4B43B56-99C3-7D4C-8133-65BCA21B5C4F}"/>
-    <hyperlink ref="J5" r:id="rId212" xr:uid="{27BEF042-9E36-CF4C-BFE0-AA23E6C2D3E3}"/>
-    <hyperlink ref="I111" r:id="rId213" display="https://doi.org/10.5281/zenodo.10927452" xr:uid="{936CFF73-12AF-5847-B2AF-7E10948809D1}"/>
-    <hyperlink ref="I112" r:id="rId214" display="https://doi.org/10.5281/zenodo.10913195" xr:uid="{F8A40EFE-D336-BA43-8F68-6B3708C57AC5}"/>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{CD865C8B-3148-1B48-A952-7DFD83E7D5E8}"/>
+    <hyperlink ref="I127" r:id="rId2" display="https://figshare.com/articles/dataset/Aortic_Vessel_Tree_AVT_CTA_Datasets_and_Segmentations/14806362" xr:uid="{65D1752E-E9D9-5246-B274-B7D556E262AF}"/>
+    <hyperlink ref="J127" r:id="rId3" display="https://arxiv.org/abs/2310.04114" xr:uid="{9FECC4E7-CD1F-1C4C-B573-612B5FC3C40C}"/>
+    <hyperlink ref="I87" r:id="rId4" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{9F885B57-495D-AF40-9B70-DFB2951AD98A}"/>
+    <hyperlink ref="I36" r:id="rId5" xr:uid="{393EB910-B2DC-FB45-86E0-5C979E001C13}"/>
+    <hyperlink ref="J36" r:id="rId6" xr:uid="{32AB3159-9FC0-CC42-AF18-A3E0985C5D65}"/>
+    <hyperlink ref="I55" r:id="rId7" location=".ZBtfBHbMJaQ" display="https://zenodo.org/records/7442914 - .ZBtfBHbMJaQ" xr:uid="{6B1896A2-C76A-5D49-AF92-619F4860500D}"/>
+    <hyperlink ref="J55" r:id="rId8" xr:uid="{1BAD4186-5378-6147-AC6B-EA7F497E2206}"/>
+    <hyperlink ref="I67" r:id="rId9" xr:uid="{95ABB4F3-BD2A-2246-803C-DCC597B2D962}"/>
+    <hyperlink ref="J67" r:id="rId10" xr:uid="{E9654716-102C-3D49-933E-440A92D0778B}"/>
+    <hyperlink ref="I57" r:id="rId11" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=70230229" xr:uid="{64E1E673-4F1E-DC43-89A2-69D4C932FACC}"/>
+    <hyperlink ref="I91" r:id="rId12" xr:uid="{3FE531C8-9621-E347-9FA1-7135589A8FAB}"/>
+    <hyperlink ref="I88" r:id="rId13" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{CCF2AA06-FD61-604F-8010-83408CF9AE11}"/>
+    <hyperlink ref="I92" r:id="rId14" xr:uid="{859759AD-0A2B-BA44-93E3-2140AA1CCF4A}"/>
+    <hyperlink ref="I101" r:id="rId15" xr:uid="{21C7434D-7ED1-CD48-B403-8EE5CAE8C665}"/>
+    <hyperlink ref="I102" r:id="rId16" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=68551327" xr:uid="{61E6F80A-7DAF-FE45-8FF8-D2E76A06BAEF}"/>
+    <hyperlink ref="J102" r:id="rId17" xr:uid="{05BE4E8E-EFB5-5D49-869E-FEE930246C04}"/>
+    <hyperlink ref="I103" r:id="rId18" xr:uid="{211B087B-6021-DD40-8EB6-9F12FBD27981}"/>
+    <hyperlink ref="I37" r:id="rId19" xr:uid="{3275438E-37E7-ED46-A18F-D0B4CF8DCEE4}"/>
+    <hyperlink ref="I41" r:id="rId20" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=19726546" xr:uid="{8661E3ED-4B06-0740-B907-751C17CCF894}"/>
+    <hyperlink ref="I82" r:id="rId21" display="https://www.cancerimagingarchive.net/collection/mediastinal-lymph-node-seg/" xr:uid="{CE2EA989-5AA6-BF45-A573-9C46317E571D}"/>
+    <hyperlink ref="J82" r:id="rId22" xr:uid="{1590584C-74DB-9643-923D-62643D77BAEE}"/>
+    <hyperlink ref="I93" r:id="rId23" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{B23C5A84-BB84-D540-8602-59B12E5B9D47}"/>
+    <hyperlink ref="I128" r:id="rId24" display="https://drive.google.com/drive/folders/115mzmNlZRIewnSR2QFDwW_-RkNM0LC9D" xr:uid="{7B48E52D-3FE6-8747-98A3-5153C91CC0FA}"/>
+    <hyperlink ref="J128" r:id="rId25" xr:uid="{2CB85C8D-4293-A84C-B2A5-7882AC177AF1}"/>
+    <hyperlink ref="I74" r:id="rId26" xr:uid="{24423AAD-D961-2543-86C9-9370D6A2AC32}"/>
+    <hyperlink ref="J145" r:id="rId27" xr:uid="{D0A0B1F7-63C8-D14E-BAF8-AC9C5CD96847}"/>
+    <hyperlink ref="I47" r:id="rId28" xr:uid="{1790B45A-5E82-BD48-B845-58DCC6E8D167}"/>
+    <hyperlink ref="J47" r:id="rId29" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{2493248A-855F-DA47-A285-83994FD13D8E}"/>
+    <hyperlink ref="I48" r:id="rId30" xr:uid="{145121D5-87DF-3746-8A45-CCD144654E4D}"/>
+    <hyperlink ref="J48" r:id="rId31" display="https://www.nature.com/articles/s41597-022-01718-3" xr:uid="{ACAF2B21-37FB-CB49-ABB2-BD8ECA5716E1}"/>
+    <hyperlink ref="J9" r:id="rId32" xr:uid="{DA79CC29-9014-A341-B6E6-0B4EC77D700D}"/>
+    <hyperlink ref="I2" r:id="rId33" xr:uid="{559EE54D-9BDC-E444-934E-2F402D903F7D}"/>
+    <hyperlink ref="I4" r:id="rId34" location="collection/637218c173e9f0047faa00fb" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/637218c173e9f0047faa00fb" xr:uid="{1343C15E-AB7A-5B40-943F-212D179647FB}"/>
+    <hyperlink ref="J4" r:id="rId35" xr:uid="{EC04B560-A8FA-664B-A25E-8170CE3BCDA3}"/>
+    <hyperlink ref="I27" r:id="rId36" xr:uid="{211DCC91-C079-4A40-8890-49B4DC3ED192}"/>
+    <hyperlink ref="J27" r:id="rId37" xr:uid="{E3011997-9B98-304C-B425-F75DAF4429C8}"/>
+    <hyperlink ref="J40" r:id="rId38" xr:uid="{DF4B0351-D502-7F48-8D48-FEA2B5EF4488}"/>
+    <hyperlink ref="I60" r:id="rId39" xr:uid="{F1402BBD-0615-4B46-B3F7-432C94455776}"/>
+    <hyperlink ref="J60" r:id="rId40" xr:uid="{5E1F962B-2F51-0140-AA2A-E382273D0F69}"/>
+    <hyperlink ref="I90" r:id="rId41" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{9C538603-A0A8-5449-8B70-BA0311FE0E80}"/>
+    <hyperlink ref="I94" r:id="rId42" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{94F0C47C-7B4C-9D47-BDA2-B1735FDBA246}"/>
+    <hyperlink ref="I98" r:id="rId43" xr:uid="{059466F3-EB9D-AC44-9E85-34EA0C28F5BE}"/>
+    <hyperlink ref="J98" r:id="rId44" xr:uid="{6F49D10F-F095-274C-A898-1A8FBE3A902A}"/>
+    <hyperlink ref="I112" r:id="rId45" xr:uid="{D89FD24A-687D-1049-B55D-F2A140E38257}"/>
+    <hyperlink ref="J112" r:id="rId46" xr:uid="{58183403-F4AE-704B-B803-ED8A67C5AB7A}"/>
+    <hyperlink ref="J121" r:id="rId47" display="https://promise12.grand-challenge.org/Details/" xr:uid="{B7807913-BA11-4749-8CF0-34B6CD297768}"/>
+    <hyperlink ref="I124" r:id="rId48" display="https://wiki.cancerimagingarchive.net/display/Public/QIN-PROSTATE-Repeatability" xr:uid="{7D9405C9-B386-A14C-A6C8-637AF6EEFB54}"/>
+    <hyperlink ref="J124" r:id="rId49" xr:uid="{93BA471C-173A-9149-BEFB-E15DF35259AF}"/>
+    <hyperlink ref="I133" r:id="rId50" xr:uid="{C4A8955D-C93D-094C-8020-F51EF747F002}"/>
+    <hyperlink ref="J133" r:id="rId51" xr:uid="{DA1FB71A-44A5-DC46-BC09-CD084971CB32}"/>
+    <hyperlink ref="I134" r:id="rId52" xr:uid="{BC026A45-DCCF-2C4A-88C6-306860268F78}"/>
+    <hyperlink ref="J134" r:id="rId53" xr:uid="{277F3052-6362-EF46-9F61-0AEF40A7CC78}"/>
+    <hyperlink ref="I135" r:id="rId54" xr:uid="{B45563D3-AC4F-274B-A855-2BD2B3E1988A}"/>
+    <hyperlink ref="J135" r:id="rId55" xr:uid="{2EC288F5-885B-0E42-A3CE-5D6B479DDC7D}"/>
+    <hyperlink ref="I136" r:id="rId56" xr:uid="{E09853C9-C3B9-4A45-9A3E-44D2013FE152}"/>
+    <hyperlink ref="J136" r:id="rId57" xr:uid="{AAD9F635-A219-6343-8218-D626373DB73D}"/>
+    <hyperlink ref="I141" r:id="rId58" display="https://www.cancerimagingarchive.net/collection/cc-tumor-heterogeneity/" xr:uid="{BE3B983F-6BD6-6644-98DB-3732953017E0}"/>
+    <hyperlink ref="J141" r:id="rId59" xr:uid="{64098359-329B-5845-B8B6-1C55AAD8E445}"/>
+    <hyperlink ref="I146" r:id="rId60" xr:uid="{3BB70BDF-2014-1B4E-B0FB-E8016ED3AE69}"/>
+    <hyperlink ref="J146" r:id="rId61" xr:uid="{C3CAD259-F45E-4B48-8A4C-7D9C1CCD39EB}"/>
+    <hyperlink ref="I75" r:id="rId62" xr:uid="{23153C5B-4193-CE47-AA81-1372C4964F83}"/>
+    <hyperlink ref="J75" r:id="rId63" xr:uid="{2CEA08EF-C121-4445-8DFA-DBB1790C43D4}"/>
+    <hyperlink ref="I24" r:id="rId64" xr:uid="{E3C957B9-1270-0249-B330-BD4F2C7DBACA}"/>
+    <hyperlink ref="J24" r:id="rId65" xr:uid="{FE4EF587-81DE-7C43-AB78-E9426A4B97AB}"/>
+    <hyperlink ref="I12" r:id="rId66" xr:uid="{90A75E00-0518-1244-9088-8F8A80A351FA}"/>
+    <hyperlink ref="I10" r:id="rId67" xr:uid="{587CE8F4-8B28-3144-B76B-7346B8293745}"/>
+    <hyperlink ref="J10" r:id="rId68" xr:uid="{79C17514-B511-6C42-A213-2FF3F0D21437}"/>
+    <hyperlink ref="I11" r:id="rId69" xr:uid="{7ECB78B4-9621-1D41-BF26-3A87C4569C47}"/>
+    <hyperlink ref="J11" r:id="rId70" xr:uid="{6BD11A52-52C1-9941-9DCC-641DF3D54B21}"/>
+    <hyperlink ref="I13" r:id="rId71" display="https://aggc22.grand-challenge.org/AGGC22/" xr:uid="{5FA9966E-8127-BE47-9543-7A5FB376827B}"/>
+    <hyperlink ref="J13" r:id="rId72" xr:uid="{B0AEBBEE-C643-8349-B6DB-21606F093524}"/>
+    <hyperlink ref="J17" r:id="rId73" xr:uid="{631A26F0-3060-824D-AD8E-EBFDC85F0B3F}"/>
+    <hyperlink ref="I18" r:id="rId74" display="https://brainptm-2021.grand-challenge.org/Participation/" xr:uid="{9EC0BB00-CA73-D443-97FD-F268D84E4B28}"/>
+    <hyperlink ref="I20" r:id="rId75" xr:uid="{34E2A421-7F95-AB44-8CB1-9F91E9D8056F}"/>
+    <hyperlink ref="J20" r:id="rId76" xr:uid="{2A33761A-BD9F-5740-9ACF-7435FBB684D5}"/>
+    <hyperlink ref="I23" r:id="rId77" xr:uid="{0DC81C2D-CAFF-4C45-BC55-4844C90E72EE}"/>
+    <hyperlink ref="J23" r:id="rId78" xr:uid="{05A609D1-C13A-A845-90B3-58BB0477688D}"/>
+    <hyperlink ref="I25" r:id="rId79" location="collection/6373703d73e9f0047faa1bc8" display="https://humanheart-project.creatis.insa-lyon.fr/database/ - collection/6373703d73e9f0047faa1bc8" xr:uid="{F37B4762-C702-0B4B-8E5E-92DAF27056D8}"/>
+    <hyperlink ref="J25" r:id="rId80" xr:uid="{89602672-8B95-E146-BFAA-14C50357255E}"/>
+    <hyperlink ref="J26" r:id="rId81" display="https://doi.org/10.7937/29kw-ae92" xr:uid="{C25D0A9D-0A78-544D-A377-843FBD19A539}"/>
+    <hyperlink ref="I28" r:id="rId82" xr:uid="{587FB984-EE0F-D048-90CA-6A3C79442BE1}"/>
+    <hyperlink ref="J28" r:id="rId83" xr:uid="{CF879572-9C74-7A4F-B162-D797D1712D09}"/>
+    <hyperlink ref="I29" r:id="rId84" xr:uid="{D1296F2A-F6A0-B347-A2BC-199362FFC418}"/>
+    <hyperlink ref="I30" r:id="rId85" xr:uid="{92EB309E-0E50-7C4D-A6D5-5AB84816889B}"/>
+    <hyperlink ref="J30" r:id="rId86" display="https://www.kaggle.com/datasets/nikhilpandey360/chest-xray-masks-and-labels" xr:uid="{DFA092C3-6FE4-CD4E-865F-EEA92180B27D}"/>
+    <hyperlink ref="I32" r:id="rId87" display="https://www.cancerimagingarchive.net/collection/colorectal-liver-metastases/" xr:uid="{0D8008BE-375A-5341-ACD8-F0E2331950B5}"/>
+    <hyperlink ref="J32" r:id="rId88" display="https://doi.org/10.7937/QXK2-QG03" xr:uid="{9BB0136F-C769-4249-8005-02CF2B319901}"/>
+    <hyperlink ref="I38" r:id="rId89" xr:uid="{33EC755D-9B3A-2647-9CDE-8400DE021709}"/>
+    <hyperlink ref="J38" r:id="rId90" display="https://doi.org/10.1016/j.compbiomed.2021.105002" xr:uid="{7BBB819A-1344-C742-A505-612E3A33A922}"/>
+    <hyperlink ref="I42" r:id="rId91" display="https://www.kaggle.com/datasets/siatsyx/ct2usforkidneyseg" xr:uid="{4C1FA3D3-40E4-B34C-A677-AD3DE440B60E}"/>
+    <hyperlink ref="J42" r:id="rId92" xr:uid="{DFA59B0E-BFC8-5E49-A854-DFB46415C39C}"/>
+    <hyperlink ref="I43" r:id="rId93" display="https://dfu-challenge.github.io/" xr:uid="{42CE3DAB-BAC9-4347-B838-A20B08FEB069}"/>
+    <hyperlink ref="J43" r:id="rId94" xr:uid="{3FF3450B-5B7F-614A-8F21-470F3511D033}"/>
+    <hyperlink ref="J44" r:id="rId95" xr:uid="{E208E4CE-5A51-F545-B8E7-CDCC26657A99}"/>
+    <hyperlink ref="I45" r:id="rId96" xr:uid="{42823F75-946B-9D41-9425-C9A5CB4C242B}"/>
+    <hyperlink ref="J45" r:id="rId97" xr:uid="{538B831D-060E-484F-AB12-3A82107E45EA}"/>
+    <hyperlink ref="J50" r:id="rId98" xr:uid="{3CADAD53-4D07-AE4F-A0FA-5E9531EC8B60}"/>
+    <hyperlink ref="I51" r:id="rId99" display="https://www.kaggle.com/datasets/ashkhagan/figshare-brain-tumor-dataset" xr:uid="{F848663C-0296-434C-B2E5-423DFF3CB396}"/>
+    <hyperlink ref="J51" r:id="rId100" xr:uid="{1E8D5AA6-EB87-D84E-9862-583D62316144}"/>
+    <hyperlink ref="I52" r:id="rId101" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=83592528" xr:uid="{8AE0D5AE-F6EE-6449-AC99-28B29C51FE4F}"/>
+    <hyperlink ref="J52" r:id="rId102" xr:uid="{39A8AE00-9B97-644A-8A3A-8C3F7051BAB0}"/>
+    <hyperlink ref="I53" r:id="rId103" display="https://www.cancerimagingarchive.net/collection/gammaknife-hippocampal/" xr:uid="{8BDA449B-E497-5945-A2DA-CFEEEC813F7F}"/>
+    <hyperlink ref="J53" r:id="rId104" xr:uid="{18A13CD9-AFCE-AF43-A8CA-0CDF2FD59464}"/>
+    <hyperlink ref="I54" r:id="rId105" display="https://www.kaggle.com/datasets/sani84/glasmiccai2015-gland-segmentation" xr:uid="{87A8AD26-1F40-2540-9D74-F54C064AF78A}"/>
+    <hyperlink ref="I61" r:id="rId106" display="https://www.kaggle.com/competitions/hubmap-kidney-segmentation/data?select=test" xr:uid="{E4A27A2C-BDB8-F345-8F5E-E014FC5F002A}"/>
+    <hyperlink ref="J61" r:id="rId107" xr:uid="{B99FBA11-5AE8-684D-A2B8-6B84518DA1B2}"/>
+    <hyperlink ref="I62" r:id="rId108" display="https://www.kaggle.com/competitions/hubmap-organ-segmentation/" xr:uid="{E83121AA-A198-7547-960E-5B07E23CFEB3}"/>
+    <hyperlink ref="I64" r:id="rId109" location="prostate-data" display="https://i2cvb.github.io/ - prostate-data" xr:uid="{7586DFBB-2A90-BB47-8FD4-EE123B07360B}"/>
+    <hyperlink ref="J64" r:id="rId110" xr:uid="{E712AE7E-0D65-4748-9E9B-4BDA0579CCA5}"/>
+    <hyperlink ref="I78" r:id="rId111" xr:uid="{63A112C0-FBFB-1A48-9923-25955D03719E}"/>
+    <hyperlink ref="J78" r:id="rId112" xr:uid="{B65E7845-B601-0D42-BBDC-F17A9D85FEE3}"/>
+    <hyperlink ref="J80" r:id="rId113" xr:uid="{EAB3A09A-B798-AE40-9CFB-22B923A0B561}"/>
+    <hyperlink ref="J83" r:id="rId114" display="https://www.cancerimagingarchive.net/collection/meningioma-seg-class/" xr:uid="{C065C7D7-2069-0346-A293-29B87119DF51}"/>
+    <hyperlink ref="I84" r:id="rId115" xr:uid="{BECC57B1-A6FF-3648-94E5-B166D669D92B}"/>
+    <hyperlink ref="J85" r:id="rId116" xr:uid="{2A7C5931-C9FF-F444-B0D5-DDBCDA2DA569}"/>
+    <hyperlink ref="I86" r:id="rId117" display="https://www.kaggle.com/datasets/tuanledinh/monuseg2018" xr:uid="{CA7C61F1-F863-CA43-9BA5-A11BA17560EA}"/>
+    <hyperlink ref="J86" r:id="rId118" xr:uid="{EA607A9C-FB74-114E-BA3B-FCFB0CE1EBA2}"/>
+    <hyperlink ref="I95" r:id="rId119" location="tasks" display="http://medicaldecathlon.com/ - tasks" xr:uid="{70EB2B22-6068-9640-98BD-3D6F6D83A87F}"/>
+    <hyperlink ref="I89" r:id="rId120" xr:uid="{824DF34C-7A5E-A74F-ADF3-90FD1CF7C207}"/>
+    <hyperlink ref="I99" r:id="rId121" xr:uid="{9AF59881-0889-7149-A806-2B80946263A0}"/>
+    <hyperlink ref="J99" r:id="rId122" xr:uid="{6BAB8B15-A95C-A94A-99AE-404B2C3E7381}"/>
+    <hyperlink ref="I107" r:id="rId123" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=33948764" xr:uid="{84DB9514-1154-9343-9118-E19952A33E06}"/>
+    <hyperlink ref="J107" r:id="rId124" xr:uid="{60D80813-06E1-D24A-BB07-929B4E22B38D}"/>
+    <hyperlink ref="I108" r:id="rId125" display="https://p2ilf.grand-challenge.org/" xr:uid="{53789A1B-5521-5F4C-8A02-EB5E401DAA19}"/>
+    <hyperlink ref="J108" r:id="rId126" xr:uid="{84A2915F-5037-E344-AC40-1C151F3FAC66}"/>
+    <hyperlink ref="I109" r:id="rId127" display="https://www.cancerimagingarchive.net/collection/pancreatic-ct-cbct-seg/" xr:uid="{E170672A-9E3D-614A-B710-1BF91235078F}"/>
+    <hyperlink ref="J109" r:id="rId128" xr:uid="{68A2D3FC-57A3-5842-802B-2EDD8795DEF6}"/>
+    <hyperlink ref="I110" r:id="rId129" display="https://www.kaggle.com/datasets/andrewmvd/cancer-inst-segmentation-and-classification" xr:uid="{27BCA19F-96D1-6D46-AAB6-027B0FDFD322}"/>
+    <hyperlink ref="J110" r:id="rId130" xr:uid="{29697D74-E555-D748-A750-65FBC6CB6E23}"/>
+    <hyperlink ref="I113" r:id="rId131" xr:uid="{4A5460E1-BA76-9249-9299-B5CDBEA0EA7F}"/>
+    <hyperlink ref="I114" r:id="rId132" display="https://parse2022.grand-challenge.org/Dataset/" xr:uid="{3B6ABD56-4338-714C-8337-0ECD26FEDFC2}"/>
+    <hyperlink ref="J114" r:id="rId133" xr:uid="{69F8C28F-9652-0948-B0D2-A044E934A394}"/>
+    <hyperlink ref="I116" r:id="rId134" display="https://www.cancerimagingarchive.net/collection/pediatric-ct-seg/" xr:uid="{D6AA5666-BFC1-BD4E-A6FC-78D65FC80D3A}"/>
+    <hyperlink ref="J116" r:id="rId135" xr:uid="{6065AB87-9B4A-F346-91BE-CAB0FEE36142}"/>
+    <hyperlink ref="I122" r:id="rId136" display="https://www.cancerimagingarchive.net/collection/prostate-anatomical-edge-cases/" xr:uid="{FD18679A-0DDE-E94B-80A5-BCD84A5A7918}"/>
+    <hyperlink ref="J122" r:id="rId137" xr:uid="{91B1D256-A571-544C-8233-5AAEE2C1CE06}"/>
+    <hyperlink ref="I140" r:id="rId138" display="https://www.cancerimagingarchive.net/collection/tcga-hnsc/" xr:uid="{F933E041-B80E-2449-A449-A348DD332724}"/>
+    <hyperlink ref="J140" r:id="rId139" location="11829589e26236b332b8438fbc8f5463e31de8cf" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=11829589 - 11829589e26236b332b8438fbc8f5463e31de8cf" xr:uid="{B3E30302-27DA-C049-8BF3-45A94625632A}"/>
+    <hyperlink ref="I119" r:id="rId140" xr:uid="{435640A8-59E3-5A45-94FF-020684784AF8}"/>
+    <hyperlink ref="J119" r:id="rId141" location="ec-research-data" display="https://www.sciencedirect.com/science/article/pii/S1361841521002012 - ec-research-data" xr:uid="{6416CE72-3E67-9F40-9A87-F0FBDF82C554}"/>
+    <hyperlink ref="I148" r:id="rId142" display="https://wiki.cancerimagingarchive.net/pages/viewpage.action?pageId=119705830" xr:uid="{E01E1491-C65F-A649-A712-E8C12C2B8B7D}"/>
+    <hyperlink ref="J148" r:id="rId143" xr:uid="{B8FE1A3C-2596-5742-A2D2-8E06D33E3919}"/>
+    <hyperlink ref="I151" r:id="rId144" display="https://www.kaggle.com/datasets/ignaciorlando/ussimandsegm" xr:uid="{A2C5D14B-5FC2-7646-BE94-725D8E5E222E}"/>
+    <hyperlink ref="J151" r:id="rId145" xr:uid="{ECA31C8F-3D18-D24E-ADC0-D2493F2A974B}"/>
+    <hyperlink ref="I152" r:id="rId146" display="https://www.kaggle.com/competitions/ultrasound-nerve-segmentation/data" xr:uid="{DB1C3AD4-DD65-264F-A801-C4E6B1B549C3}"/>
+    <hyperlink ref="I153" r:id="rId147" xr:uid="{3EEB1290-426B-E94F-A1E7-2F51A7C28CA6}"/>
+    <hyperlink ref="J153" r:id="rId148" display="https://uls23.grand-challenge.org/uls23/" xr:uid="{FC7F5301-6F2E-D042-A086-CB6CC3C094E6}"/>
+    <hyperlink ref="I154" r:id="rId149" xr:uid="{F9622FAF-BA0C-5D46-935B-E9D9A6596F44}"/>
+    <hyperlink ref="J154" r:id="rId150" display="https://ieeexplore.ieee.org/document/6937161" xr:uid="{FA282BCA-7A7D-414A-81A4-280B13B18919}"/>
+    <hyperlink ref="I155" r:id="rId151" display="https://github.com/anjany/verse?tab=readme-ov-file" xr:uid="{7E0E6FA6-451D-DA4D-879A-59AFA734541E}"/>
+    <hyperlink ref="I156" r:id="rId152" display="https://www.kaggle.com/datasets/andrewmvd/lung-vessel-segmentation" xr:uid="{71E31A08-8955-2646-9944-61DC4E37B6E7}"/>
+    <hyperlink ref="J156" r:id="rId153" xr:uid="{0BE58297-F031-6B4D-B554-6478503210D4}"/>
+    <hyperlink ref="I159" r:id="rId154" xr:uid="{58D88C3F-7EDE-A947-93C6-0D916469FBA7}"/>
+    <hyperlink ref="J159" r:id="rId155" xr:uid="{E3BFB4A6-3F88-1F4F-BD7A-F381C12D1F59}"/>
+    <hyperlink ref="I160" r:id="rId156" display="https://wsss4luad.grand-challenge.org/License/" xr:uid="{2409E4EA-CF14-C04A-A1CD-969E6F16D8DC}"/>
+    <hyperlink ref="J160" r:id="rId157" display="https://arxiv.org/abs/2204.06455" xr:uid="{C58A5438-94C7-6749-B41B-21A71E90BD81}"/>
+    <hyperlink ref="I149" r:id="rId158" xr:uid="{CCC70CFD-84D0-124F-8A87-6CECCB5E96B9}"/>
+    <hyperlink ref="J149" r:id="rId159" xr:uid="{3E68870D-1069-B748-84B9-707B78D3A942}"/>
+    <hyperlink ref="I150" r:id="rId160" xr:uid="{8015533E-305E-574C-8C31-F7FE09EA5F00}"/>
+    <hyperlink ref="J150" r:id="rId161" xr:uid="{F4750EDF-2053-7547-A76A-B387B4985AFA}"/>
+    <hyperlink ref="I39" r:id="rId162" xr:uid="{965CC7AD-F8AA-6F4E-9E8E-98ADFFDF6D41}"/>
+    <hyperlink ref="I104" r:id="rId163" xr:uid="{1D11470F-4A3A-7246-933E-45A11A99D426}"/>
+    <hyperlink ref="J104" r:id="rId164" xr:uid="{FB42B1CD-6E37-DC43-9FB0-74AC2E60F63B}"/>
+    <hyperlink ref="I131" r:id="rId165" xr:uid="{8955C9AF-024F-934B-9F72-9E90226D35C4}"/>
+    <hyperlink ref="I143" r:id="rId166" xr:uid="{79E705C0-3D44-0940-A379-C5820D4FC95D}"/>
+    <hyperlink ref="J143" r:id="rId167" xr:uid="{13816C5D-3B62-8740-B10E-84F9F18E03A8}"/>
+    <hyperlink ref="I144" r:id="rId168" xr:uid="{A7599216-4C8C-6845-BD2C-88156C5D8856}"/>
+    <hyperlink ref="J144" r:id="rId169" xr:uid="{88E17D03-1C42-F449-B745-54EFE5257125}"/>
+    <hyperlink ref="I129" r:id="rId170" xr:uid="{29B69093-F446-FF4B-996D-2AA86BBCB57C}"/>
+    <hyperlink ref="J129" r:id="rId171" xr:uid="{973573E1-491D-B14F-90D6-E06D8CB9F1D8}"/>
+    <hyperlink ref="I130" r:id="rId172" xr:uid="{521B47C5-CAAA-4348-AF9D-23FFDD4AFFB9}"/>
+    <hyperlink ref="J130" r:id="rId173" xr:uid="{4F782506-F8DB-E540-A9B2-628CC5086FF6}"/>
+    <hyperlink ref="I111" r:id="rId174" xr:uid="{91ED5FD5-B7CA-CA4D-A870-51BA0E5BB209}"/>
+    <hyperlink ref="J111" r:id="rId175" xr:uid="{C47DA3F3-7371-CC45-8CFA-975E2A8F9E59}"/>
+    <hyperlink ref="I147" r:id="rId176" xr:uid="{8AA8D00B-BEE7-FB4C-804B-F32A93F3F7A5}"/>
+    <hyperlink ref="I63" r:id="rId177" xr:uid="{726C06D8-9835-9F42-9623-2DFE90BE6BE7}"/>
+    <hyperlink ref="J63" r:id="rId178" xr:uid="{51FFEB43-B6CA-4245-A5AD-AFFFB8AB1C18}"/>
+    <hyperlink ref="I105" r:id="rId179" xr:uid="{F2FDAFAC-9BC1-6A4E-9E14-AB1BBCC497B1}"/>
+    <hyperlink ref="J105" r:id="rId180" xr:uid="{AF5E926D-3A93-C343-8A68-75E6CA01E3B9}"/>
+    <hyperlink ref="I139" r:id="rId181" display="https://github.com/GewelsJI/VPS" xr:uid="{CEEA1E53-5953-8048-861E-37BDBE8DC3A4}"/>
+    <hyperlink ref="J139" r:id="rId182" display="https://link.springer.com/article/10.1007/s11633-022-1371-y" xr:uid="{AAB8FE17-EC46-DD41-9D50-916A9D0F2234}"/>
+    <hyperlink ref="I81" r:id="rId183" xr:uid="{2EFD8F4F-677B-6947-BD22-5CA284425216}"/>
+    <hyperlink ref="J81" r:id="rId184" xr:uid="{A599FFD5-399F-2345-843B-06B62133CE3D}"/>
+    <hyperlink ref="I65" r:id="rId185" xr:uid="{C05ED4AB-F968-554D-B597-A6F19CB370AC}"/>
+    <hyperlink ref="J65" r:id="rId186" xr:uid="{1CA6E075-85B5-FA49-BAFD-B357EE6CE868}"/>
+    <hyperlink ref="I77" r:id="rId187" xr:uid="{52C1264E-F429-C243-BEC2-1A3AF4669DCA}"/>
+    <hyperlink ref="J77" r:id="rId188" xr:uid="{3E6AAB11-B59A-A748-B914-56A000957437}"/>
+    <hyperlink ref="I73" r:id="rId189" xr:uid="{1C485C74-F253-BA40-933E-156EC3DF9439}"/>
+    <hyperlink ref="J73" r:id="rId190" xr:uid="{6DA983C8-5F29-E941-9ABF-7CC48B293DCF}"/>
+    <hyperlink ref="I46" r:id="rId191" xr:uid="{8B828103-37AC-4442-9A2A-FEE0261F9F4D}"/>
+    <hyperlink ref="J46" r:id="rId192" xr:uid="{07192447-B578-6447-8F20-50CD4E87A88D}"/>
+    <hyperlink ref="I132" r:id="rId193" xr:uid="{7187C0F1-0A83-4B48-A7EB-C1016B6905D7}"/>
+    <hyperlink ref="J132" r:id="rId194" xr:uid="{547430E0-18DB-0B45-85AF-A7F963BD0F11}"/>
+    <hyperlink ref="I106" r:id="rId195" xr:uid="{48E6493C-FE38-EE49-8FCC-FD91FE2C9D2F}"/>
+    <hyperlink ref="J106" r:id="rId196" xr:uid="{5CA5062E-3835-C94D-B7E6-11A7AF8CAEBD}"/>
+    <hyperlink ref="I58" r:id="rId197" xr:uid="{AF7E2B6D-4D9E-4142-A26F-C41FD7E288B3}"/>
+    <hyperlink ref="J58" r:id="rId198" xr:uid="{C9BE5D0C-7D05-E841-B14B-013BDE630A40}"/>
+    <hyperlink ref="I22" r:id="rId199" xr:uid="{08D0ECD2-A063-6347-99ED-4ADB68655E1F}"/>
+    <hyperlink ref="J22" r:id="rId200" xr:uid="{B3052183-893A-6C45-A7B4-3B94D6B3F627}"/>
+    <hyperlink ref="I115" r:id="rId201" xr:uid="{309BDD67-BD5B-7648-8395-87C79CCCD20A}"/>
+    <hyperlink ref="J115" r:id="rId202" xr:uid="{EEE96F52-3103-6D4B-8E4E-C055BB9BC0B9}"/>
+    <hyperlink ref="I138" r:id="rId203" xr:uid="{A7572992-A506-144A-8ADA-B8C5D9F01FAC}"/>
+    <hyperlink ref="J138" r:id="rId204" xr:uid="{F5B6B2A2-088D-DE4B-ADFF-9FD1328145F7}"/>
+    <hyperlink ref="I21" r:id="rId205" xr:uid="{C4D68899-BDD0-DF42-8600-504645272444}"/>
+    <hyperlink ref="J21" r:id="rId206" xr:uid="{A95461AC-D901-014C-B327-B10933FC29F4}"/>
+    <hyperlink ref="I33" r:id="rId207" xr:uid="{68E2A45F-B5EF-4647-8EAF-B46BD6B76809}"/>
+    <hyperlink ref="J33" r:id="rId208" xr:uid="{DD848D21-C0F9-0A4C-AF57-CF6496AD42E1}"/>
+    <hyperlink ref="I142" r:id="rId209" xr:uid="{99A92612-3980-ED4B-8328-13BE6E869F06}"/>
+    <hyperlink ref="J142" r:id="rId210" xr:uid="{24089253-D3E8-D643-8C30-76A6611B85FD}"/>
+    <hyperlink ref="I16" r:id="rId211" xr:uid="{260BD5B5-D53A-3B43-8AAC-4194DD4A68EA}"/>
+    <hyperlink ref="J16" r:id="rId212" xr:uid="{9F52340F-3325-8247-8635-3B07E0B53A87}"/>
+    <hyperlink ref="I120" r:id="rId213" xr:uid="{F1CFD821-A5D3-4043-896F-6F1461B1F2B1}"/>
+    <hyperlink ref="J120" r:id="rId214" xr:uid="{097E0B24-E717-A74F-AFC6-0BD0578CB5E6}"/>
+    <hyperlink ref="I96" r:id="rId215" xr:uid="{0C36C982-58CB-EA4D-AA40-6F87210C3DE1}"/>
+    <hyperlink ref="J96" r:id="rId216" xr:uid="{64645C88-A751-684E-B6E3-AF86277A434C}"/>
+    <hyperlink ref="I97" r:id="rId217" xr:uid="{2B68FFE3-EE2A-704F-B9C5-C7EACDE1835C}"/>
+    <hyperlink ref="J97" r:id="rId218" xr:uid="{5C4FF6BA-17B4-3B40-B775-70482FCB57D4}"/>
+    <hyperlink ref="I14" r:id="rId219" display="https://connectomics-bazaar.github.io/proj/AxonEM/" xr:uid="{98AFC562-7597-3747-B26D-5116F0DE09D0}"/>
+    <hyperlink ref="J14" r:id="rId220" xr:uid="{0F901033-CF86-534B-81F2-9E090F68761B}"/>
+    <hyperlink ref="I79" r:id="rId221" xr:uid="{44F4C31B-D34B-764B-B47C-23DFCE08DDB6}"/>
+    <hyperlink ref="J79" r:id="rId222" xr:uid="{6681AB61-4024-3D43-91B3-45F14E3DCA31}"/>
+    <hyperlink ref="I100" r:id="rId223" xr:uid="{65A60DF1-D424-AE41-A734-8022055F53BF}"/>
+    <hyperlink ref="J100" r:id="rId224" xr:uid="{395AEC0A-1358-844C-96AD-B0DCFFE5BA33}"/>
+    <hyperlink ref="I7" r:id="rId225" xr:uid="{89134C0E-3621-9B47-AA3B-16BD66D99368}"/>
+    <hyperlink ref="J7" r:id="rId226" xr:uid="{9AE6F38C-D8AD-8345-B379-B6A9B748C34C}"/>
+    <hyperlink ref="I126" r:id="rId227" xr:uid="{1CEECDB2-8D75-6B45-9485-33F8A2CE1D77}"/>
+    <hyperlink ref="J126" r:id="rId228" xr:uid="{6021A8A3-B422-4145-844D-75B8CC04F4C9}"/>
+    <hyperlink ref="I157" r:id="rId229" xr:uid="{FB2B6579-4422-8143-9DFC-6E2A03C82971}"/>
+    <hyperlink ref="J157" r:id="rId230" xr:uid="{84070D49-D4DB-614E-A26A-9A79201C3F9D}"/>
+    <hyperlink ref="I5" r:id="rId231" display="https://acouslic-ai.grand-challenge.org/" xr:uid="{56223636-B71A-7349-A1B8-B2864D72F085}"/>
+    <hyperlink ref="J5" r:id="rId232" xr:uid="{75868EB9-B58D-CA4E-8903-FB32EC9126E5}"/>
+    <hyperlink ref="I117" r:id="rId233" display="https://doi.org/10.5281/zenodo.10927452" xr:uid="{7357A2E9-52D6-8E47-A7A8-470C5BE78902}"/>
+    <hyperlink ref="I118" r:id="rId234" display="https://doi.org/10.5281/zenodo.10913195" xr:uid="{ADAAC4B1-FE62-D248-B9C2-8FC5613D14BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
